--- a/xl/ФТИ_Стромынка 2 курс 2 сем-Д.xlsx
+++ b/xl/ФТИ_Стромынка 2 курс 2 сем-Д.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2355" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2355" uniqueCount="296">
   <si>
     <t>ВТОРНИК</t>
   </si>
@@ -660,10 +660,6 @@
   </si>
   <si>
     <t>Рогов А.Ю.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4,12 н Технология волоконной оптики, 1 гр 
-8,16 н Технология волоконной оптики, 2 гр</t>
   </si>
   <si>
     <t>3,11 н Геометрическая и физическая оптика, 1 гр
@@ -937,10 +933,6 @@
     <t xml:space="preserve">Попов Е.И. </t>
   </si>
   <si>
-    <t>3,11 н Методы и аппаратура для оптической диагностики, 1 гр
-5,15 н Методы и аппаратура для оптической диагностики, 2 гр</t>
-  </si>
-  <si>
     <t>Практика</t>
   </si>
   <si>
@@ -1030,6 +1022,19 @@
   </si>
   <si>
     <t>16 н Моделирование технологических процессов в оптотехнике</t>
+  </si>
+  <si>
+    <t>3 н Методы и аппаратура для оптической диагностики, 1 гр
+5,15 н Методы и аппаратура для оптической диагностики, 2 гр</t>
+  </si>
+  <si>
+    <t>12 н Методы и аппаратура для оптической диагностики, 1 гр
+ 4,14 н Технология волоконной оптики, 1 гр 
+8,16 н Технология волоконной оптики, 2 гр</t>
+  </si>
+  <si>
+    <t>Рогов А.Ю.
+Садовникова Я.Э.</t>
   </si>
 </sst>
 </file>
@@ -2600,7 +2605,7 @@
     <xf numFmtId="43" fontId="71" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="71" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="699">
+  <cellXfs count="701">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4415,6 +4420,216 @@
     <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4430,215 +4645,11 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -4939,10 +4950,10 @@
   <dimension ref="A1:CC94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="BD4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="BD20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="BX7" sqref="BX7"/>
+      <selection pane="bottomRight" activeCell="BX3" sqref="BX3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -5024,250 +5035,250 @@
   <sheetData>
     <row r="1" spans="1:81" ht="112.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13"/>
-      <c r="B1" s="653" t="s">
+      <c r="B1" s="657" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="653"/>
-      <c r="D1" s="653"/>
-      <c r="E1" s="653"/>
-      <c r="F1" s="653"/>
-      <c r="G1" s="653"/>
-      <c r="H1" s="653"/>
-      <c r="I1" s="653"/>
-      <c r="J1" s="653"/>
-      <c r="K1" s="653"/>
-      <c r="L1" s="653"/>
-      <c r="M1" s="653"/>
-      <c r="N1" s="653"/>
+      <c r="C1" s="657"/>
+      <c r="D1" s="657"/>
+      <c r="E1" s="657"/>
+      <c r="F1" s="657"/>
+      <c r="G1" s="657"/>
+      <c r="H1" s="657"/>
+      <c r="I1" s="657"/>
+      <c r="J1" s="657"/>
+      <c r="K1" s="657"/>
+      <c r="L1" s="657"/>
+      <c r="M1" s="657"/>
+      <c r="N1" s="657"/>
       <c r="O1" s="379"/>
-      <c r="P1" s="654" t="s">
+      <c r="P1" s="658" t="s">
         <v>66</v>
       </c>
-      <c r="Q1" s="654"/>
-      <c r="R1" s="654"/>
-      <c r="S1" s="654"/>
+      <c r="Q1" s="658"/>
+      <c r="R1" s="658"/>
+      <c r="S1" s="658"/>
       <c r="T1" s="215"/>
       <c r="U1" s="13"/>
-      <c r="V1" s="653" t="s">
+      <c r="V1" s="657" t="s">
         <v>67</v>
       </c>
-      <c r="W1" s="653"/>
-      <c r="X1" s="653"/>
-      <c r="Y1" s="653"/>
-      <c r="Z1" s="653"/>
-      <c r="AA1" s="653"/>
-      <c r="AB1" s="653"/>
-      <c r="AC1" s="653"/>
-      <c r="AD1" s="653"/>
-      <c r="AE1" s="653"/>
-      <c r="AF1" s="653"/>
-      <c r="AG1" s="653"/>
-      <c r="AH1" s="653"/>
+      <c r="W1" s="657"/>
+      <c r="X1" s="657"/>
+      <c r="Y1" s="657"/>
+      <c r="Z1" s="657"/>
+      <c r="AA1" s="657"/>
+      <c r="AB1" s="657"/>
+      <c r="AC1" s="657"/>
+      <c r="AD1" s="657"/>
+      <c r="AE1" s="657"/>
+      <c r="AF1" s="657"/>
+      <c r="AG1" s="657"/>
+      <c r="AH1" s="657"/>
       <c r="AI1" s="379"/>
-      <c r="AJ1" s="654" t="s">
+      <c r="AJ1" s="658" t="s">
         <v>66</v>
       </c>
-      <c r="AK1" s="654"/>
-      <c r="AL1" s="654"/>
-      <c r="AM1" s="654"/>
+      <c r="AK1" s="658"/>
+      <c r="AL1" s="658"/>
+      <c r="AM1" s="658"/>
       <c r="AN1" s="215"/>
       <c r="AO1" s="13"/>
-      <c r="AP1" s="653" t="s">
+      <c r="AP1" s="657" t="s">
         <v>67</v>
       </c>
-      <c r="AQ1" s="653"/>
-      <c r="AR1" s="653"/>
-      <c r="AS1" s="653"/>
-      <c r="AT1" s="653"/>
-      <c r="AU1" s="653"/>
-      <c r="AV1" s="653"/>
-      <c r="AW1" s="653"/>
-      <c r="AX1" s="653"/>
-      <c r="AY1" s="653"/>
-      <c r="AZ1" s="653"/>
-      <c r="BA1" s="653"/>
-      <c r="BB1" s="653"/>
+      <c r="AQ1" s="657"/>
+      <c r="AR1" s="657"/>
+      <c r="AS1" s="657"/>
+      <c r="AT1" s="657"/>
+      <c r="AU1" s="657"/>
+      <c r="AV1" s="657"/>
+      <c r="AW1" s="657"/>
+      <c r="AX1" s="657"/>
+      <c r="AY1" s="657"/>
+      <c r="AZ1" s="657"/>
+      <c r="BA1" s="657"/>
+      <c r="BB1" s="657"/>
       <c r="BC1" s="379"/>
-      <c r="BD1" s="654" t="s">
+      <c r="BD1" s="658" t="s">
         <v>66</v>
       </c>
-      <c r="BE1" s="654"/>
-      <c r="BF1" s="654"/>
-      <c r="BG1" s="654"/>
+      <c r="BE1" s="658"/>
+      <c r="BF1" s="658"/>
+      <c r="BG1" s="658"/>
       <c r="BH1" s="215"/>
       <c r="BI1" s="13"/>
-      <c r="BJ1" s="653" t="s">
+      <c r="BJ1" s="657" t="s">
         <v>67</v>
       </c>
-      <c r="BK1" s="653"/>
-      <c r="BL1" s="653"/>
-      <c r="BM1" s="653"/>
-      <c r="BN1" s="653"/>
-      <c r="BO1" s="653"/>
-      <c r="BP1" s="653"/>
-      <c r="BQ1" s="653"/>
-      <c r="BR1" s="653"/>
-      <c r="BS1" s="653"/>
-      <c r="BT1" s="653"/>
-      <c r="BU1" s="653"/>
-      <c r="BV1" s="653"/>
+      <c r="BK1" s="657"/>
+      <c r="BL1" s="657"/>
+      <c r="BM1" s="657"/>
+      <c r="BN1" s="657"/>
+      <c r="BO1" s="657"/>
+      <c r="BP1" s="657"/>
+      <c r="BQ1" s="657"/>
+      <c r="BR1" s="657"/>
+      <c r="BS1" s="657"/>
+      <c r="BT1" s="657"/>
+      <c r="BU1" s="657"/>
+      <c r="BV1" s="657"/>
       <c r="BW1" s="379"/>
-      <c r="BX1" s="654" t="s">
+      <c r="BX1" s="658" t="s">
         <v>66</v>
       </c>
-      <c r="BY1" s="654"/>
-      <c r="BZ1" s="654"/>
-      <c r="CA1" s="654"/>
+      <c r="BY1" s="658"/>
+      <c r="BZ1" s="658"/>
+      <c r="CA1" s="658"/>
       <c r="CB1" s="214"/>
     </row>
     <row r="2" spans="1:81" s="3" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A2" s="655" t="s">
+      <c r="A2" s="659" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="657" t="s">
+      <c r="B2" s="661" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="658"/>
-      <c r="D2" s="658"/>
-      <c r="E2" s="659"/>
-      <c r="F2" s="688" t="s">
+      <c r="C2" s="662"/>
+      <c r="D2" s="662"/>
+      <c r="E2" s="663"/>
+      <c r="F2" s="664" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="689"/>
-      <c r="H2" s="690"/>
+      <c r="G2" s="665"/>
+      <c r="H2" s="666"/>
       <c r="I2" s="20">
         <v>21</v>
       </c>
       <c r="J2" s="217"/>
-      <c r="K2" s="688" t="s">
+      <c r="K2" s="664" t="s">
         <v>53</v>
       </c>
-      <c r="L2" s="689"/>
-      <c r="M2" s="690"/>
+      <c r="L2" s="665"/>
+      <c r="M2" s="666"/>
       <c r="N2" s="20">
         <v>24</v>
       </c>
       <c r="O2" s="217"/>
-      <c r="P2" s="688" t="s">
+      <c r="P2" s="664" t="s">
         <v>50</v>
       </c>
-      <c r="Q2" s="689"/>
-      <c r="R2" s="690"/>
+      <c r="Q2" s="665"/>
+      <c r="R2" s="666"/>
       <c r="S2" s="20">
         <v>23</v>
       </c>
       <c r="T2" s="217"/>
-      <c r="U2" s="655" t="s">
+      <c r="U2" s="659" t="s">
         <v>16</v>
       </c>
-      <c r="V2" s="657" t="s">
+      <c r="V2" s="661" t="s">
         <v>15</v>
       </c>
-      <c r="W2" s="658"/>
-      <c r="X2" s="658"/>
-      <c r="Y2" s="659"/>
-      <c r="Z2" s="688" t="s">
+      <c r="W2" s="662"/>
+      <c r="X2" s="662"/>
+      <c r="Y2" s="663"/>
+      <c r="Z2" s="664" t="s">
         <v>52</v>
       </c>
-      <c r="AA2" s="689"/>
-      <c r="AB2" s="690"/>
+      <c r="AA2" s="665"/>
+      <c r="AB2" s="666"/>
       <c r="AC2" s="20">
         <v>20</v>
       </c>
       <c r="AD2" s="217"/>
-      <c r="AE2" s="688" t="s">
+      <c r="AE2" s="664" t="s">
         <v>41</v>
       </c>
-      <c r="AF2" s="689"/>
-      <c r="AG2" s="690"/>
+      <c r="AF2" s="665"/>
+      <c r="AG2" s="666"/>
       <c r="AH2" s="24">
         <v>23</v>
       </c>
       <c r="AI2" s="217"/>
-      <c r="AJ2" s="688" t="s">
+      <c r="AJ2" s="664" t="s">
         <v>42</v>
       </c>
-      <c r="AK2" s="689"/>
-      <c r="AL2" s="690"/>
+      <c r="AK2" s="665"/>
+      <c r="AL2" s="666"/>
       <c r="AM2" s="24">
         <v>23</v>
       </c>
       <c r="AN2" s="217"/>
-      <c r="AO2" s="655" t="s">
+      <c r="AO2" s="659" t="s">
         <v>16</v>
       </c>
-      <c r="AP2" s="657" t="s">
+      <c r="AP2" s="661" t="s">
         <v>15</v>
       </c>
-      <c r="AQ2" s="658"/>
-      <c r="AR2" s="658"/>
-      <c r="AS2" s="659"/>
-      <c r="AT2" s="682" t="s">
+      <c r="AQ2" s="662"/>
+      <c r="AR2" s="662"/>
+      <c r="AS2" s="663"/>
+      <c r="AT2" s="670" t="s">
         <v>43</v>
       </c>
-      <c r="AU2" s="683"/>
-      <c r="AV2" s="684"/>
+      <c r="AU2" s="671"/>
+      <c r="AV2" s="672"/>
       <c r="AW2" s="20">
         <v>18</v>
       </c>
       <c r="AX2" s="217"/>
-      <c r="AY2" s="682" t="s">
+      <c r="AY2" s="670" t="s">
         <v>44</v>
       </c>
-      <c r="AZ2" s="683"/>
-      <c r="BA2" s="684"/>
+      <c r="AZ2" s="671"/>
+      <c r="BA2" s="672"/>
       <c r="BB2" s="20">
         <v>20</v>
       </c>
       <c r="BC2" s="217"/>
-      <c r="BD2" s="660" t="s">
+      <c r="BD2" s="673" t="s">
         <v>45</v>
       </c>
-      <c r="BE2" s="661"/>
-      <c r="BF2" s="662"/>
+      <c r="BE2" s="674"/>
+      <c r="BF2" s="675"/>
       <c r="BG2" s="20">
         <v>23</v>
       </c>
       <c r="BH2" s="217"/>
-      <c r="BI2" s="655" t="s">
+      <c r="BI2" s="659" t="s">
         <v>16</v>
       </c>
-      <c r="BJ2" s="657" t="s">
+      <c r="BJ2" s="661" t="s">
         <v>15</v>
       </c>
-      <c r="BK2" s="658"/>
-      <c r="BL2" s="658"/>
-      <c r="BM2" s="659"/>
-      <c r="BN2" s="660" t="s">
+      <c r="BK2" s="662"/>
+      <c r="BL2" s="662"/>
+      <c r="BM2" s="663"/>
+      <c r="BN2" s="673" t="s">
         <v>46</v>
       </c>
-      <c r="BO2" s="661"/>
-      <c r="BP2" s="662"/>
+      <c r="BO2" s="674"/>
+      <c r="BP2" s="675"/>
       <c r="BQ2" s="14">
         <v>21</v>
       </c>
       <c r="BR2" s="217"/>
-      <c r="BS2" s="660" t="s">
+      <c r="BS2" s="673" t="s">
         <v>49</v>
       </c>
-      <c r="BT2" s="661"/>
-      <c r="BU2" s="662"/>
+      <c r="BT2" s="674"/>
+      <c r="BU2" s="675"/>
       <c r="BV2" s="14">
         <v>23</v>
       </c>
       <c r="BW2" s="217"/>
-      <c r="BX2" s="660" t="s">
+      <c r="BX2" s="673" t="s">
         <v>47</v>
       </c>
-      <c r="BY2" s="661"/>
-      <c r="BZ2" s="662"/>
+      <c r="BY2" s="674"/>
+      <c r="BZ2" s="675"/>
       <c r="CA2" s="14">
         <v>31</v>
       </c>
       <c r="CB2" s="217"/>
     </row>
     <row r="3" spans="1:81" s="2" customFormat="1" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="656"/>
+      <c r="A3" s="660"/>
       <c r="B3" s="15" t="s">
         <v>13</v>
       </c>
@@ -5325,7 +5336,7 @@
       <c r="T3" s="218" t="s">
         <v>65</v>
       </c>
-      <c r="U3" s="656"/>
+      <c r="U3" s="660"/>
       <c r="V3" s="15" t="s">
         <v>13</v>
       </c>
@@ -5383,7 +5394,7 @@
       <c r="AN3" s="218" t="s">
         <v>65</v>
       </c>
-      <c r="AO3" s="656"/>
+      <c r="AO3" s="660"/>
       <c r="AP3" s="15" t="s">
         <v>13</v>
       </c>
@@ -5441,7 +5452,7 @@
       <c r="BH3" s="218" t="s">
         <v>65</v>
       </c>
-      <c r="BI3" s="656"/>
+      <c r="BI3" s="660"/>
       <c r="BJ3" s="15" t="s">
         <v>13</v>
       </c>
@@ -5501,45 +5512,45 @@
       </c>
     </row>
     <row r="4" spans="1:81" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="685" t="s">
+      <c r="A4" s="667" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="629">
+      <c r="B4" s="635">
         <v>1</v>
       </c>
-      <c r="C4" s="631" t="s">
+      <c r="C4" s="637" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="631" t="s">
+      <c r="D4" s="637" t="s">
         <v>27</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>1</v>
       </c>
       <c r="F4" s="574" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G4" s="575" t="s">
         <v>80</v>
       </c>
       <c r="H4" s="576" t="s">
+        <v>208</v>
+      </c>
+      <c r="I4" s="430" t="s">
         <v>209</v>
-      </c>
-      <c r="I4" s="430" t="s">
-        <v>210</v>
       </c>
       <c r="J4" s="431"/>
       <c r="K4" s="580" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L4" s="581" t="s">
         <v>80</v>
       </c>
       <c r="M4" s="582" t="s">
+        <v>211</v>
+      </c>
+      <c r="N4" s="422" t="s">
         <v>212</v>
-      </c>
-      <c r="N4" s="422" t="s">
-        <v>213</v>
       </c>
       <c r="O4" s="203"/>
       <c r="P4" s="547" t="s">
@@ -5552,19 +5563,19 @@
         <v>101</v>
       </c>
       <c r="S4" s="586" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="T4" s="203"/>
-      <c r="U4" s="685" t="s">
+      <c r="U4" s="667" t="s">
         <v>17</v>
       </c>
-      <c r="V4" s="629">
+      <c r="V4" s="635">
         <v>1</v>
       </c>
-      <c r="W4" s="631" t="s">
+      <c r="W4" s="637" t="s">
         <v>26</v>
       </c>
-      <c r="X4" s="631" t="s">
+      <c r="X4" s="637" t="s">
         <v>27</v>
       </c>
       <c r="Y4" s="7" t="s">
@@ -5580,7 +5591,7 @@
         <v>101</v>
       </c>
       <c r="AC4" s="586" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AD4" s="327"/>
       <c r="AE4" s="367" t="s">
@@ -5590,10 +5601,10 @@
         <v>57</v>
       </c>
       <c r="AG4" s="550" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AH4" s="552" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AI4" s="540"/>
       <c r="AJ4" s="336" t="s">
@@ -5606,19 +5617,19 @@
         <v>103</v>
       </c>
       <c r="AM4" s="586" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AN4" s="203"/>
-      <c r="AO4" s="685" t="s">
+      <c r="AO4" s="667" t="s">
         <v>17</v>
       </c>
-      <c r="AP4" s="629">
+      <c r="AP4" s="635">
         <v>1</v>
       </c>
-      <c r="AQ4" s="631" t="s">
+      <c r="AQ4" s="637" t="s">
         <v>26</v>
       </c>
-      <c r="AR4" s="631" t="s">
+      <c r="AR4" s="637" t="s">
         <v>27</v>
       </c>
       <c r="AS4" s="7" t="s">
@@ -5639,16 +5650,16 @@
       <c r="BF4" s="381"/>
       <c r="BG4" s="239"/>
       <c r="BH4" s="203"/>
-      <c r="BI4" s="663" t="s">
+      <c r="BI4" s="677" t="s">
         <v>17</v>
       </c>
-      <c r="BJ4" s="629">
+      <c r="BJ4" s="635">
         <v>1</v>
       </c>
-      <c r="BK4" s="631" t="s">
+      <c r="BK4" s="637" t="s">
         <v>26</v>
       </c>
-      <c r="BL4" s="631" t="s">
+      <c r="BL4" s="637" t="s">
         <v>27</v>
       </c>
       <c r="BM4" s="7" t="s">
@@ -5672,37 +5683,37 @@
       <c r="CC4" s="42"/>
     </row>
     <row r="5" spans="1:81" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="686"/>
-      <c r="B5" s="630"/>
-      <c r="C5" s="632"/>
-      <c r="D5" s="632"/>
+      <c r="A5" s="668"/>
+      <c r="B5" s="636"/>
+      <c r="C5" s="638"/>
+      <c r="D5" s="638"/>
       <c r="E5" s="8" t="s">
         <v>2</v>
       </c>
       <c r="F5" s="432" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G5" s="427" t="s">
         <v>80</v>
       </c>
       <c r="H5" s="573" t="s">
+        <v>214</v>
+      </c>
+      <c r="I5" s="434" t="s">
         <v>215</v>
-      </c>
-      <c r="I5" s="434" t="s">
-        <v>216</v>
       </c>
       <c r="J5" s="435"/>
       <c r="K5" s="583" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L5" s="581" t="s">
         <v>80</v>
       </c>
       <c r="M5" s="584" t="s">
+        <v>217</v>
+      </c>
+      <c r="N5" s="421" t="s">
         <v>218</v>
-      </c>
-      <c r="N5" s="421" t="s">
-        <v>219</v>
       </c>
       <c r="O5" s="219"/>
       <c r="P5" s="335" t="s">
@@ -5715,13 +5726,13 @@
         <v>98</v>
       </c>
       <c r="S5" s="586" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="T5" s="219"/>
-      <c r="U5" s="686"/>
-      <c r="V5" s="630"/>
-      <c r="W5" s="632"/>
-      <c r="X5" s="632"/>
+      <c r="U5" s="668"/>
+      <c r="V5" s="636"/>
+      <c r="W5" s="638"/>
+      <c r="X5" s="638"/>
       <c r="Y5" s="8" t="s">
         <v>2</v>
       </c>
@@ -5735,7 +5746,7 @@
         <v>94</v>
       </c>
       <c r="AC5" s="586" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AD5" s="342"/>
       <c r="AE5" s="387" t="s">
@@ -5756,10 +5767,10 @@
       <c r="AL5" s="525"/>
       <c r="AM5" s="552"/>
       <c r="AN5" s="219"/>
-      <c r="AO5" s="686"/>
-      <c r="AP5" s="630"/>
-      <c r="AQ5" s="632"/>
-      <c r="AR5" s="632"/>
+      <c r="AO5" s="668"/>
+      <c r="AP5" s="636"/>
+      <c r="AQ5" s="638"/>
+      <c r="AR5" s="638"/>
       <c r="AS5" s="8" t="s">
         <v>2</v>
       </c>
@@ -5778,10 +5789,10 @@
       <c r="BF5" s="252"/>
       <c r="BG5" s="259"/>
       <c r="BH5" s="219"/>
-      <c r="BI5" s="664"/>
-      <c r="BJ5" s="630"/>
-      <c r="BK5" s="632"/>
-      <c r="BL5" s="632"/>
+      <c r="BI5" s="678"/>
+      <c r="BJ5" s="636"/>
+      <c r="BK5" s="638"/>
+      <c r="BL5" s="638"/>
       <c r="BM5" s="8" t="s">
         <v>2</v>
       </c>
@@ -5809,40 +5820,40 @@
       <c r="CC5" s="42"/>
     </row>
     <row r="6" spans="1:81" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="686"/>
-      <c r="B6" s="633">
+      <c r="A6" s="668"/>
+      <c r="B6" s="639">
         <v>2</v>
       </c>
-      <c r="C6" s="634" t="s">
+      <c r="C6" s="640" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="634" t="s">
+      <c r="D6" s="640" t="s">
         <v>29</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>1</v>
       </c>
       <c r="F6" s="577" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G6" s="578" t="s">
         <v>80</v>
       </c>
       <c r="H6" s="579" t="s">
+        <v>208</v>
+      </c>
+      <c r="I6" s="430" t="s">
         <v>209</v>
-      </c>
-      <c r="I6" s="430" t="s">
-        <v>210</v>
       </c>
       <c r="J6" s="436"/>
       <c r="K6" s="580" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L6" s="581" t="s">
         <v>80</v>
       </c>
       <c r="M6" s="582" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N6" s="413" t="s">
         <v>81</v>
@@ -5858,17 +5869,17 @@
         <v>98</v>
       </c>
       <c r="S6" s="586" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="T6" s="203"/>
-      <c r="U6" s="686"/>
-      <c r="V6" s="633">
+      <c r="U6" s="668"/>
+      <c r="V6" s="639">
         <v>2</v>
       </c>
-      <c r="W6" s="634" t="s">
+      <c r="W6" s="640" t="s">
         <v>28</v>
       </c>
-      <c r="X6" s="634" t="s">
+      <c r="X6" s="640" t="s">
         <v>29</v>
       </c>
       <c r="Y6" s="9" t="s">
@@ -5884,7 +5895,7 @@
         <v>98</v>
       </c>
       <c r="AC6" s="586" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AD6" s="327"/>
       <c r="AE6" s="367" t="s">
@@ -5894,10 +5905,10 @@
         <v>57</v>
       </c>
       <c r="AG6" s="550" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AH6" s="552" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AI6" s="540"/>
       <c r="AJ6" s="336" t="s">
@@ -5910,17 +5921,17 @@
         <v>103</v>
       </c>
       <c r="AM6" s="586" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AN6" s="203"/>
-      <c r="AO6" s="686"/>
-      <c r="AP6" s="633">
+      <c r="AO6" s="668"/>
+      <c r="AP6" s="639">
         <v>2</v>
       </c>
-      <c r="AQ6" s="634" t="s">
+      <c r="AQ6" s="640" t="s">
         <v>28</v>
       </c>
-      <c r="AR6" s="634" t="s">
+      <c r="AR6" s="640" t="s">
         <v>29</v>
       </c>
       <c r="AS6" s="9" t="s">
@@ -5936,7 +5947,7 @@
         <v>88</v>
       </c>
       <c r="AW6" s="359" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AX6" s="203"/>
       <c r="AY6" s="283" t="s">
@@ -5949,7 +5960,7 @@
         <v>88</v>
       </c>
       <c r="BB6" s="359" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="BC6" s="203"/>
       <c r="BD6" s="283" t="s">
@@ -5962,17 +5973,17 @@
         <v>88</v>
       </c>
       <c r="BG6" s="552" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="BH6" s="203"/>
-      <c r="BI6" s="664"/>
-      <c r="BJ6" s="633">
+      <c r="BI6" s="678"/>
+      <c r="BJ6" s="639">
         <v>2</v>
       </c>
-      <c r="BK6" s="634" t="s">
+      <c r="BK6" s="640" t="s">
         <v>28</v>
       </c>
-      <c r="BL6" s="634" t="s">
+      <c r="BL6" s="640" t="s">
         <v>29</v>
       </c>
       <c r="BM6" s="9" t="s">
@@ -5988,7 +5999,7 @@
         <v>88</v>
       </c>
       <c r="BQ6" s="552" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="BR6" s="203"/>
       <c r="BS6" s="283" t="s">
@@ -6001,7 +6012,7 @@
         <v>88</v>
       </c>
       <c r="BV6" s="552" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="BW6" s="203"/>
       <c r="BX6" s="138" t="s">
@@ -6011,46 +6022,46 @@
         <v>69</v>
       </c>
       <c r="BZ6" s="357" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="CA6" s="359" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="CB6" s="203"/>
       <c r="CC6" s="42"/>
     </row>
     <row r="7" spans="1:81" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="686"/>
-      <c r="B7" s="630"/>
-      <c r="C7" s="632"/>
-      <c r="D7" s="632"/>
+      <c r="A7" s="668"/>
+      <c r="B7" s="636"/>
+      <c r="C7" s="638"/>
+      <c r="D7" s="638"/>
       <c r="E7" s="9" t="s">
         <v>2</v>
       </c>
       <c r="F7" s="432" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G7" s="427" t="s">
         <v>80</v>
       </c>
       <c r="H7" s="433" t="s">
+        <v>214</v>
+      </c>
+      <c r="I7" s="434" t="s">
         <v>215</v>
-      </c>
-      <c r="I7" s="434" t="s">
-        <v>216</v>
       </c>
       <c r="J7" s="435"/>
       <c r="K7" s="583" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L7" s="581" t="s">
         <v>80</v>
       </c>
       <c r="M7" s="584" t="s">
+        <v>217</v>
+      </c>
+      <c r="N7" s="421" t="s">
         <v>218</v>
-      </c>
-      <c r="N7" s="421" t="s">
-        <v>219</v>
       </c>
       <c r="O7" s="219"/>
       <c r="P7" s="335" t="s">
@@ -6063,13 +6074,13 @@
         <v>98</v>
       </c>
       <c r="S7" s="586" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="T7" s="219"/>
-      <c r="U7" s="686"/>
-      <c r="V7" s="630"/>
-      <c r="W7" s="632"/>
-      <c r="X7" s="632"/>
+      <c r="U7" s="668"/>
+      <c r="V7" s="636"/>
+      <c r="W7" s="638"/>
+      <c r="X7" s="638"/>
       <c r="Y7" s="9" t="s">
         <v>2</v>
       </c>
@@ -6083,7 +6094,7 @@
         <v>94</v>
       </c>
       <c r="AC7" s="586" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AD7" s="342"/>
       <c r="AE7" s="387" t="s">
@@ -6104,10 +6115,10 @@
       <c r="AL7" s="525"/>
       <c r="AM7" s="552"/>
       <c r="AN7" s="219"/>
-      <c r="AO7" s="686"/>
-      <c r="AP7" s="630"/>
-      <c r="AQ7" s="632"/>
-      <c r="AR7" s="632"/>
+      <c r="AO7" s="668"/>
+      <c r="AP7" s="636"/>
+      <c r="AQ7" s="638"/>
+      <c r="AR7" s="638"/>
       <c r="AS7" s="9" t="s">
         <v>2</v>
       </c>
@@ -6134,10 +6145,10 @@
         <v>425</v>
       </c>
       <c r="BH7" s="219"/>
-      <c r="BI7" s="664"/>
-      <c r="BJ7" s="630"/>
-      <c r="BK7" s="632"/>
-      <c r="BL7" s="632"/>
+      <c r="BI7" s="678"/>
+      <c r="BJ7" s="636"/>
+      <c r="BK7" s="638"/>
+      <c r="BL7" s="638"/>
       <c r="BM7" s="9" t="s">
         <v>2</v>
       </c>
@@ -6165,43 +6176,43 @@
       <c r="CC7" s="42"/>
     </row>
     <row r="8" spans="1:81" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="686"/>
-      <c r="B8" s="633">
+      <c r="A8" s="668"/>
+      <c r="B8" s="639">
         <v>3</v>
       </c>
-      <c r="C8" s="634" t="s">
+      <c r="C8" s="640" t="s">
         <v>59</v>
       </c>
-      <c r="D8" s="634" t="s">
+      <c r="D8" s="640" t="s">
         <v>60</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>1</v>
       </c>
       <c r="F8" s="437" t="s">
+        <v>220</v>
+      </c>
+      <c r="G8" s="446" t="s">
         <v>221</v>
       </c>
-      <c r="G8" s="446" t="s">
+      <c r="H8" s="446" t="s">
         <v>222</v>
       </c>
-      <c r="H8" s="446" t="s">
+      <c r="I8" s="429" t="s">
         <v>223</v>
-      </c>
-      <c r="I8" s="429" t="s">
-        <v>224</v>
       </c>
       <c r="J8" s="436"/>
       <c r="K8" s="619" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L8" s="578" t="s">
         <v>80</v>
       </c>
       <c r="M8" s="585" t="s">
+        <v>224</v>
+      </c>
+      <c r="N8" s="422" t="s">
         <v>225</v>
-      </c>
-      <c r="N8" s="422" t="s">
-        <v>226</v>
       </c>
       <c r="O8" s="203"/>
       <c r="P8" s="339" t="s">
@@ -6214,17 +6225,17 @@
         <v>96</v>
       </c>
       <c r="S8" s="586" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="T8" s="203"/>
-      <c r="U8" s="686"/>
-      <c r="V8" s="633">
+      <c r="U8" s="668"/>
+      <c r="V8" s="639">
         <v>3</v>
       </c>
-      <c r="W8" s="634" t="s">
+      <c r="W8" s="640" t="s">
         <v>59</v>
       </c>
-      <c r="X8" s="634" t="s">
+      <c r="X8" s="640" t="s">
         <v>60</v>
       </c>
       <c r="Y8" s="9" t="s">
@@ -6240,7 +6251,7 @@
         <v>96</v>
       </c>
       <c r="AC8" s="586" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AD8" s="327"/>
       <c r="AE8" s="336" t="s">
@@ -6253,7 +6264,7 @@
         <v>103</v>
       </c>
       <c r="AH8" s="586" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AI8" s="540"/>
       <c r="AJ8" s="367" t="s">
@@ -6263,20 +6274,20 @@
         <v>57</v>
       </c>
       <c r="AL8" s="550" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AM8" s="552" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AN8" s="203"/>
-      <c r="AO8" s="686"/>
-      <c r="AP8" s="633">
+      <c r="AO8" s="668"/>
+      <c r="AP8" s="639">
         <v>3</v>
       </c>
-      <c r="AQ8" s="634" t="s">
+      <c r="AQ8" s="640" t="s">
         <v>59</v>
       </c>
-      <c r="AR8" s="634" t="s">
+      <c r="AR8" s="640" t="s">
         <v>60</v>
       </c>
       <c r="AS8" s="9" t="s">
@@ -6292,7 +6303,7 @@
         <v>120</v>
       </c>
       <c r="AW8" s="552" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AX8" s="203"/>
       <c r="AY8" s="284" t="s">
@@ -6305,7 +6316,7 @@
         <v>120</v>
       </c>
       <c r="BB8" s="552" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="BC8" s="203"/>
       <c r="BD8" s="268" t="s">
@@ -6318,17 +6329,17 @@
         <v>126</v>
       </c>
       <c r="BG8" s="552" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="BH8" s="203"/>
-      <c r="BI8" s="664"/>
-      <c r="BJ8" s="633">
+      <c r="BI8" s="678"/>
+      <c r="BJ8" s="639">
         <v>3</v>
       </c>
-      <c r="BK8" s="634" t="s">
+      <c r="BK8" s="640" t="s">
         <v>59</v>
       </c>
-      <c r="BL8" s="634" t="s">
+      <c r="BL8" s="640" t="s">
         <v>60</v>
       </c>
       <c r="BM8" s="9" t="s">
@@ -6344,7 +6355,7 @@
         <v>175</v>
       </c>
       <c r="BQ8" s="552" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="BR8" s="203"/>
       <c r="BS8" s="403" t="s">
@@ -6357,7 +6368,7 @@
         <v>175</v>
       </c>
       <c r="BV8" s="552" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="BW8" s="203"/>
       <c r="BX8" s="268" t="s">
@@ -6370,21 +6381,21 @@
         <v>126</v>
       </c>
       <c r="CA8" s="398" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="CB8" s="203"/>
       <c r="CC8" s="42"/>
     </row>
     <row r="9" spans="1:81" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="686"/>
-      <c r="B9" s="665"/>
-      <c r="C9" s="635"/>
-      <c r="D9" s="635"/>
+      <c r="A9" s="668"/>
+      <c r="B9" s="642"/>
+      <c r="C9" s="641"/>
+      <c r="D9" s="641"/>
       <c r="E9" s="9" t="s">
         <v>2</v>
       </c>
       <c r="F9" s="437" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G9" s="416" t="s">
         <v>57</v>
@@ -6393,17 +6404,17 @@
         <v>84</v>
       </c>
       <c r="I9" s="428" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J9" s="438"/>
       <c r="K9" s="620" t="s">
+        <v>228</v>
+      </c>
+      <c r="L9" s="447" t="s">
         <v>229</v>
       </c>
-      <c r="L9" s="447" t="s">
+      <c r="M9" s="447" t="s">
         <v>230</v>
-      </c>
-      <c r="M9" s="447" t="s">
-        <v>231</v>
       </c>
       <c r="N9" s="414">
         <v>242</v>
@@ -6419,13 +6430,13 @@
         <v>96</v>
       </c>
       <c r="S9" s="586" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="T9" s="165"/>
-      <c r="U9" s="686"/>
-      <c r="V9" s="665"/>
-      <c r="W9" s="635"/>
-      <c r="X9" s="635"/>
+      <c r="U9" s="668"/>
+      <c r="V9" s="642"/>
+      <c r="W9" s="641"/>
+      <c r="X9" s="641"/>
       <c r="Y9" s="9" t="s">
         <v>2</v>
       </c>
@@ -6439,7 +6450,7 @@
         <v>96</v>
       </c>
       <c r="AC9" s="586" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AD9" s="309"/>
       <c r="AE9" s="367"/>
@@ -6460,10 +6471,10 @@
         <v>81</v>
       </c>
       <c r="AN9" s="165"/>
-      <c r="AO9" s="686"/>
-      <c r="AP9" s="665"/>
-      <c r="AQ9" s="635"/>
-      <c r="AR9" s="635"/>
+      <c r="AO9" s="668"/>
+      <c r="AP9" s="642"/>
+      <c r="AQ9" s="641"/>
+      <c r="AR9" s="641"/>
       <c r="AS9" s="9" t="s">
         <v>2</v>
       </c>
@@ -6490,10 +6501,10 @@
         <v>214</v>
       </c>
       <c r="BH9" s="165"/>
-      <c r="BI9" s="664"/>
-      <c r="BJ9" s="630"/>
-      <c r="BK9" s="635"/>
-      <c r="BL9" s="635"/>
+      <c r="BI9" s="678"/>
+      <c r="BJ9" s="636"/>
+      <c r="BK9" s="641"/>
+      <c r="BL9" s="641"/>
       <c r="BM9" s="9" t="s">
         <v>2</v>
       </c>
@@ -6531,43 +6542,43 @@
       <c r="CC9" s="42"/>
     </row>
     <row r="10" spans="1:81" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="686"/>
-      <c r="B10" s="633">
+      <c r="A10" s="668"/>
+      <c r="B10" s="639">
         <v>4</v>
       </c>
-      <c r="C10" s="634" t="s">
+      <c r="C10" s="640" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="634" t="s">
+      <c r="D10" s="640" t="s">
         <v>62</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>1</v>
       </c>
       <c r="F10" s="437" t="s">
+        <v>220</v>
+      </c>
+      <c r="G10" s="446" t="s">
         <v>221</v>
       </c>
-      <c r="G10" s="446" t="s">
+      <c r="H10" s="446" t="s">
         <v>222</v>
       </c>
-      <c r="H10" s="446" t="s">
+      <c r="I10" s="429" t="s">
         <v>223</v>
-      </c>
-      <c r="I10" s="429" t="s">
-        <v>224</v>
       </c>
       <c r="J10" s="439"/>
       <c r="K10" s="619" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L10" s="578" t="s">
         <v>80</v>
       </c>
       <c r="M10" s="585" t="s">
+        <v>224</v>
+      </c>
+      <c r="N10" s="422" t="s">
         <v>225</v>
-      </c>
-      <c r="N10" s="422" t="s">
-        <v>226</v>
       </c>
       <c r="O10" s="220"/>
       <c r="P10" s="339" t="s">
@@ -6580,17 +6591,17 @@
         <v>96</v>
       </c>
       <c r="S10" s="586" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="T10" s="220"/>
-      <c r="U10" s="686"/>
-      <c r="V10" s="633">
+      <c r="U10" s="668"/>
+      <c r="V10" s="639">
         <v>4</v>
       </c>
-      <c r="W10" s="634" t="s">
+      <c r="W10" s="640" t="s">
         <v>61</v>
       </c>
-      <c r="X10" s="634" t="s">
+      <c r="X10" s="640" t="s">
         <v>62</v>
       </c>
       <c r="Y10" s="9" t="s">
@@ -6606,7 +6617,7 @@
         <v>96</v>
       </c>
       <c r="AC10" s="586" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AD10" s="343"/>
       <c r="AE10" s="336" t="s">
@@ -6619,7 +6630,7 @@
         <v>103</v>
       </c>
       <c r="AH10" s="586" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AI10" s="343"/>
       <c r="AJ10" s="367" t="s">
@@ -6629,20 +6640,20 @@
         <v>57</v>
       </c>
       <c r="AL10" s="550" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AM10" s="552" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AN10" s="220"/>
-      <c r="AO10" s="686"/>
-      <c r="AP10" s="633">
+      <c r="AO10" s="668"/>
+      <c r="AP10" s="639">
         <v>4</v>
       </c>
-      <c r="AQ10" s="634" t="s">
+      <c r="AQ10" s="640" t="s">
         <v>61</v>
       </c>
-      <c r="AR10" s="634" t="s">
+      <c r="AR10" s="640" t="s">
         <v>62</v>
       </c>
       <c r="AS10" s="9" t="s">
@@ -6658,7 +6669,7 @@
         <v>118</v>
       </c>
       <c r="AW10" s="552" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AX10" s="220"/>
       <c r="AY10" s="284" t="s">
@@ -6671,7 +6682,7 @@
         <v>118</v>
       </c>
       <c r="BB10" s="552" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="BC10" s="220"/>
       <c r="BD10" s="266" t="s">
@@ -6684,17 +6695,17 @@
         <v>148</v>
       </c>
       <c r="BG10" s="552" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="BH10" s="220"/>
-      <c r="BI10" s="664"/>
-      <c r="BJ10" s="633">
+      <c r="BI10" s="678"/>
+      <c r="BJ10" s="639">
         <v>4</v>
       </c>
-      <c r="BK10" s="634" t="s">
+      <c r="BK10" s="640" t="s">
         <v>61</v>
       </c>
-      <c r="BL10" s="634" t="s">
+      <c r="BL10" s="640" t="s">
         <v>62</v>
       </c>
       <c r="BM10" s="9" t="s">
@@ -6710,7 +6721,7 @@
         <v>177</v>
       </c>
       <c r="BQ10" s="552" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="BR10" s="220"/>
       <c r="BS10" s="250" t="s">
@@ -6723,7 +6734,7 @@
         <v>177</v>
       </c>
       <c r="BV10" s="552" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="BW10" s="220"/>
       <c r="BX10" s="268" t="s">
@@ -6736,21 +6747,21 @@
         <v>150</v>
       </c>
       <c r="CA10" s="196" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="CB10" s="220"/>
       <c r="CC10" s="42"/>
     </row>
     <row r="11" spans="1:81" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="686"/>
-      <c r="B11" s="630"/>
-      <c r="C11" s="632"/>
-      <c r="D11" s="632"/>
+      <c r="A11" s="668"/>
+      <c r="B11" s="636"/>
+      <c r="C11" s="638"/>
+      <c r="D11" s="638"/>
       <c r="E11" s="45" t="s">
         <v>2</v>
       </c>
       <c r="F11" s="437" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G11" s="416" t="s">
         <v>57</v>
@@ -6759,17 +6770,17 @@
         <v>84</v>
       </c>
       <c r="I11" s="428" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J11" s="438"/>
       <c r="K11" s="419" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L11" s="416" t="s">
         <v>80</v>
       </c>
       <c r="M11" s="420" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="N11" s="414">
         <v>242</v>
@@ -6785,13 +6796,13 @@
         <v>96</v>
       </c>
       <c r="S11" s="586" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="T11" s="165"/>
-      <c r="U11" s="686"/>
-      <c r="V11" s="630"/>
-      <c r="W11" s="632"/>
-      <c r="X11" s="632"/>
+      <c r="U11" s="668"/>
+      <c r="V11" s="636"/>
+      <c r="W11" s="638"/>
+      <c r="X11" s="638"/>
       <c r="Y11" s="45" t="s">
         <v>2</v>
       </c>
@@ -6805,7 +6816,7 @@
         <v>96</v>
       </c>
       <c r="AC11" s="586" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AD11" s="309"/>
       <c r="AE11" s="374"/>
@@ -6826,10 +6837,10 @@
         <v>81</v>
       </c>
       <c r="AN11" s="165"/>
-      <c r="AO11" s="686"/>
-      <c r="AP11" s="630"/>
-      <c r="AQ11" s="632"/>
-      <c r="AR11" s="632"/>
+      <c r="AO11" s="668"/>
+      <c r="AP11" s="636"/>
+      <c r="AQ11" s="638"/>
+      <c r="AR11" s="638"/>
       <c r="AS11" s="45" t="s">
         <v>2</v>
       </c>
@@ -6872,10 +6883,10 @@
         <v>425</v>
       </c>
       <c r="BH11" s="165"/>
-      <c r="BI11" s="664"/>
-      <c r="BJ11" s="630"/>
-      <c r="BK11" s="632"/>
-      <c r="BL11" s="632"/>
+      <c r="BI11" s="678"/>
+      <c r="BJ11" s="636"/>
+      <c r="BK11" s="638"/>
+      <c r="BL11" s="638"/>
       <c r="BM11" s="125" t="s">
         <v>2</v>
       </c>
@@ -6913,14 +6924,14 @@
       <c r="CC11" s="42"/>
     </row>
     <row r="12" spans="1:81" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="686"/>
-      <c r="B12" s="633">
+      <c r="A12" s="668"/>
+      <c r="B12" s="639">
         <v>5</v>
       </c>
-      <c r="C12" s="634" t="s">
+      <c r="C12" s="640" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="634" t="s">
+      <c r="D12" s="640" t="s">
         <v>63</v>
       </c>
       <c r="E12" s="9" t="s">
@@ -6941,14 +6952,14 @@
       <c r="R12" s="525"/>
       <c r="S12" s="330"/>
       <c r="T12" s="203"/>
-      <c r="U12" s="686"/>
-      <c r="V12" s="633">
+      <c r="U12" s="668"/>
+      <c r="V12" s="639">
         <v>5</v>
       </c>
-      <c r="W12" s="634" t="s">
+      <c r="W12" s="640" t="s">
         <v>30</v>
       </c>
-      <c r="X12" s="634" t="s">
+      <c r="X12" s="640" t="s">
         <v>63</v>
       </c>
       <c r="Y12" s="9" t="s">
@@ -6969,14 +6980,14 @@
       <c r="AL12" s="352"/>
       <c r="AM12" s="359"/>
       <c r="AN12" s="203"/>
-      <c r="AO12" s="686"/>
-      <c r="AP12" s="633">
+      <c r="AO12" s="668"/>
+      <c r="AP12" s="639">
         <v>5</v>
       </c>
-      <c r="AQ12" s="634" t="s">
+      <c r="AQ12" s="640" t="s">
         <v>30</v>
       </c>
-      <c r="AR12" s="634" t="s">
+      <c r="AR12" s="640" t="s">
         <v>63</v>
       </c>
       <c r="AS12" s="9" t="s">
@@ -6992,7 +7003,7 @@
         <v>118</v>
       </c>
       <c r="AW12" s="552" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AX12" s="343"/>
       <c r="AY12" s="284" t="s">
@@ -7005,7 +7016,7 @@
         <v>118</v>
       </c>
       <c r="BB12" s="552" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="BC12" s="203"/>
       <c r="BD12" s="294"/>
@@ -7013,14 +7024,14 @@
       <c r="BF12" s="265"/>
       <c r="BG12" s="81"/>
       <c r="BH12" s="203"/>
-      <c r="BI12" s="664"/>
-      <c r="BJ12" s="633">
+      <c r="BI12" s="678"/>
+      <c r="BJ12" s="639">
         <v>5</v>
       </c>
-      <c r="BK12" s="634" t="s">
+      <c r="BK12" s="640" t="s">
         <v>30</v>
       </c>
-      <c r="BL12" s="634" t="s">
+      <c r="BL12" s="640" t="s">
         <v>63</v>
       </c>
       <c r="BM12" s="9" t="s">
@@ -7044,24 +7055,24 @@
       <c r="CC12" s="42"/>
     </row>
     <row r="13" spans="1:81" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="686"/>
-      <c r="B13" s="630"/>
-      <c r="C13" s="632"/>
-      <c r="D13" s="632"/>
+      <c r="A13" s="668"/>
+      <c r="B13" s="636"/>
+      <c r="C13" s="638"/>
+      <c r="D13" s="638"/>
       <c r="E13" s="9" t="s">
         <v>2</v>
       </c>
       <c r="F13" s="448" t="s">
+        <v>233</v>
+      </c>
+      <c r="G13" s="449" t="s">
+        <v>221</v>
+      </c>
+      <c r="H13" s="449" t="s">
         <v>234</v>
       </c>
-      <c r="G13" s="449" t="s">
-        <v>222</v>
-      </c>
-      <c r="H13" s="449" t="s">
-        <v>235</v>
-      </c>
       <c r="I13" s="450" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J13" s="418"/>
       <c r="K13" s="423"/>
@@ -7074,10 +7085,10 @@
       <c r="R13" s="364"/>
       <c r="S13" s="307"/>
       <c r="T13" s="221"/>
-      <c r="U13" s="686"/>
-      <c r="V13" s="630"/>
-      <c r="W13" s="632"/>
-      <c r="X13" s="632"/>
+      <c r="U13" s="668"/>
+      <c r="V13" s="636"/>
+      <c r="W13" s="638"/>
+      <c r="X13" s="638"/>
       <c r="Y13" s="9" t="s">
         <v>2</v>
       </c>
@@ -7096,10 +7107,10 @@
       <c r="AL13" s="353"/>
       <c r="AM13" s="359"/>
       <c r="AN13" s="221"/>
-      <c r="AO13" s="686"/>
-      <c r="AP13" s="630"/>
-      <c r="AQ13" s="632"/>
-      <c r="AR13" s="632"/>
+      <c r="AO13" s="668"/>
+      <c r="AP13" s="636"/>
+      <c r="AQ13" s="638"/>
+      <c r="AR13" s="638"/>
       <c r="AS13" s="9" t="s">
         <v>2</v>
       </c>
@@ -7134,10 +7145,10 @@
       <c r="BF13" s="265"/>
       <c r="BG13" s="81"/>
       <c r="BH13" s="221"/>
-      <c r="BI13" s="664"/>
-      <c r="BJ13" s="630"/>
-      <c r="BK13" s="632"/>
-      <c r="BL13" s="632"/>
+      <c r="BI13" s="678"/>
+      <c r="BJ13" s="636"/>
+      <c r="BK13" s="638"/>
+      <c r="BL13" s="638"/>
       <c r="BM13" s="9" t="s">
         <v>2</v>
       </c>
@@ -7152,7 +7163,7 @@
       <c r="BV13" s="259"/>
       <c r="BW13" s="221"/>
       <c r="BX13" s="138" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="BY13" s="570" t="s">
         <v>57</v>
@@ -7167,14 +7178,14 @@
       <c r="CC13" s="42"/>
     </row>
     <row r="14" spans="1:81" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="686"/>
-      <c r="B14" s="665">
+      <c r="A14" s="668"/>
+      <c r="B14" s="642">
         <v>6</v>
       </c>
-      <c r="C14" s="635" t="s">
+      <c r="C14" s="641" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="635" t="s">
+      <c r="D14" s="641" t="s">
         <v>64</v>
       </c>
       <c r="E14" s="9" t="s">
@@ -7195,14 +7206,14 @@
       <c r="R14" s="550"/>
       <c r="S14" s="326"/>
       <c r="T14" s="203"/>
-      <c r="U14" s="686"/>
-      <c r="V14" s="665">
+      <c r="U14" s="668"/>
+      <c r="V14" s="642">
         <v>6</v>
       </c>
-      <c r="W14" s="635" t="s">
+      <c r="W14" s="641" t="s">
         <v>51</v>
       </c>
-      <c r="X14" s="635" t="s">
+      <c r="X14" s="641" t="s">
         <v>64</v>
       </c>
       <c r="Y14" s="9" t="s">
@@ -7223,14 +7234,14 @@
       <c r="AL14" s="357"/>
       <c r="AM14" s="371"/>
       <c r="AN14" s="203"/>
-      <c r="AO14" s="686"/>
-      <c r="AP14" s="665">
+      <c r="AO14" s="668"/>
+      <c r="AP14" s="642">
         <v>6</v>
       </c>
-      <c r="AQ14" s="635" t="s">
+      <c r="AQ14" s="641" t="s">
         <v>51</v>
       </c>
-      <c r="AR14" s="635" t="s">
+      <c r="AR14" s="641" t="s">
         <v>64</v>
       </c>
       <c r="AS14" s="9" t="s">
@@ -7251,14 +7262,14 @@
       <c r="BF14" s="357"/>
       <c r="BG14" s="185"/>
       <c r="BH14" s="203"/>
-      <c r="BI14" s="664"/>
-      <c r="BJ14" s="633">
+      <c r="BI14" s="678"/>
+      <c r="BJ14" s="639">
         <v>6</v>
       </c>
-      <c r="BK14" s="635" t="s">
+      <c r="BK14" s="641" t="s">
         <v>51</v>
       </c>
-      <c r="BL14" s="635" t="s">
+      <c r="BL14" s="641" t="s">
         <v>64</v>
       </c>
       <c r="BM14" s="9" t="s">
@@ -7282,15 +7293,15 @@
       <c r="CC14" s="42"/>
     </row>
     <row r="15" spans="1:81" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="687"/>
-      <c r="B15" s="636"/>
-      <c r="C15" s="637"/>
-      <c r="D15" s="637"/>
+      <c r="A15" s="669"/>
+      <c r="B15" s="643"/>
+      <c r="C15" s="644"/>
+      <c r="D15" s="644"/>
       <c r="E15" s="4" t="s">
         <v>2</v>
       </c>
       <c r="F15" s="424" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G15" s="425" t="s">
         <v>80</v>
@@ -7299,7 +7310,7 @@
         <v>82</v>
       </c>
       <c r="I15" s="441" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J15" s="442"/>
       <c r="K15" s="443"/>
@@ -7312,10 +7323,10 @@
       <c r="R15" s="366"/>
       <c r="S15" s="308"/>
       <c r="T15" s="207"/>
-      <c r="U15" s="687"/>
-      <c r="V15" s="636"/>
-      <c r="W15" s="637"/>
-      <c r="X15" s="637"/>
+      <c r="U15" s="669"/>
+      <c r="V15" s="643"/>
+      <c r="W15" s="644"/>
+      <c r="X15" s="644"/>
       <c r="Y15" s="4" t="s">
         <v>2</v>
       </c>
@@ -7334,10 +7345,10 @@
       <c r="AL15" s="366"/>
       <c r="AM15" s="373"/>
       <c r="AN15" s="207"/>
-      <c r="AO15" s="687"/>
-      <c r="AP15" s="636"/>
-      <c r="AQ15" s="637"/>
-      <c r="AR15" s="637"/>
+      <c r="AO15" s="669"/>
+      <c r="AP15" s="643"/>
+      <c r="AQ15" s="644"/>
+      <c r="AR15" s="644"/>
       <c r="AS15" s="4" t="s">
         <v>2</v>
       </c>
@@ -7356,10 +7367,10 @@
       <c r="BF15" s="178"/>
       <c r="BG15" s="162"/>
       <c r="BH15" s="207"/>
-      <c r="BI15" s="664"/>
-      <c r="BJ15" s="665"/>
-      <c r="BK15" s="637"/>
-      <c r="BL15" s="637"/>
+      <c r="BI15" s="678"/>
+      <c r="BJ15" s="642"/>
+      <c r="BK15" s="644"/>
+      <c r="BL15" s="644"/>
       <c r="BM15" s="9" t="s">
         <v>2</v>
       </c>
@@ -7381,16 +7392,16 @@
       <c r="CC15" s="42"/>
     </row>
     <row r="16" spans="1:81" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="679" t="s">
+      <c r="A16" s="654" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="665">
+      <c r="B16" s="642">
         <v>1</v>
       </c>
-      <c r="C16" s="631" t="s">
+      <c r="C16" s="637" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="631" t="s">
+      <c r="D16" s="637" t="s">
         <v>27</v>
       </c>
       <c r="E16" s="43" t="s">
@@ -7428,19 +7439,19 @@
         <v>107</v>
       </c>
       <c r="S16" s="586" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="T16" s="222"/>
-      <c r="U16" s="679" t="s">
+      <c r="U16" s="654" t="s">
         <v>0</v>
       </c>
-      <c r="V16" s="665">
+      <c r="V16" s="642">
         <v>1</v>
       </c>
-      <c r="W16" s="631" t="s">
+      <c r="W16" s="637" t="s">
         <v>26</v>
       </c>
-      <c r="X16" s="631" t="s">
+      <c r="X16" s="637" t="s">
         <v>27</v>
       </c>
       <c r="Y16" s="43" t="s">
@@ -7456,7 +7467,7 @@
         <v>101</v>
       </c>
       <c r="AC16" s="586" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AD16" s="345"/>
       <c r="AE16" s="336" t="s">
@@ -7469,7 +7480,7 @@
         <v>103</v>
       </c>
       <c r="AH16" s="586" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AI16" s="345"/>
       <c r="AJ16" s="374" t="s">
@@ -7482,19 +7493,19 @@
         <v>96</v>
       </c>
       <c r="AM16" s="552" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AN16" s="222"/>
-      <c r="AO16" s="679" t="s">
+      <c r="AO16" s="654" t="s">
         <v>0</v>
       </c>
-      <c r="AP16" s="629">
+      <c r="AP16" s="635">
         <v>1</v>
       </c>
-      <c r="AQ16" s="631" t="s">
+      <c r="AQ16" s="637" t="s">
         <v>26</v>
       </c>
-      <c r="AR16" s="631" t="s">
+      <c r="AR16" s="637" t="s">
         <v>27</v>
       </c>
       <c r="AS16" s="49" t="s">
@@ -7523,16 +7534,16 @@
         <v>81</v>
       </c>
       <c r="BH16" s="222"/>
-      <c r="BI16" s="648" t="s">
+      <c r="BI16" s="679" t="s">
         <v>0</v>
       </c>
-      <c r="BJ16" s="651">
+      <c r="BJ16" s="682">
         <v>1</v>
       </c>
-      <c r="BK16" s="631" t="s">
+      <c r="BK16" s="637" t="s">
         <v>26</v>
       </c>
-      <c r="BL16" s="631" t="s">
+      <c r="BL16" s="637" t="s">
         <v>27</v>
       </c>
       <c r="BM16" s="124" t="s">
@@ -7572,10 +7583,10 @@
       <c r="CC16" s="42"/>
     </row>
     <row r="17" spans="1:81" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="680"/>
-      <c r="B17" s="630"/>
-      <c r="C17" s="632"/>
-      <c r="D17" s="632"/>
+      <c r="A17" s="655"/>
+      <c r="B17" s="636"/>
+      <c r="C17" s="638"/>
+      <c r="D17" s="638"/>
       <c r="E17" s="41" t="s">
         <v>2</v>
       </c>
@@ -7606,10 +7617,10 @@
       <c r="R17" s="364"/>
       <c r="S17" s="586"/>
       <c r="T17" s="222"/>
-      <c r="U17" s="680"/>
-      <c r="V17" s="630"/>
-      <c r="W17" s="632"/>
-      <c r="X17" s="632"/>
+      <c r="U17" s="655"/>
+      <c r="V17" s="636"/>
+      <c r="W17" s="638"/>
+      <c r="X17" s="638"/>
       <c r="Y17" s="41" t="s">
         <v>2</v>
       </c>
@@ -7623,7 +7634,7 @@
         <v>107</v>
       </c>
       <c r="AC17" s="586" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AD17" s="345"/>
       <c r="AE17" s="374" t="s">
@@ -7636,7 +7647,7 @@
         <v>96</v>
       </c>
       <c r="AH17" s="552" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AI17" s="345"/>
       <c r="AJ17" s="336" t="s">
@@ -7649,13 +7660,13 @@
         <v>103</v>
       </c>
       <c r="AM17" s="586" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AN17" s="222"/>
-      <c r="AO17" s="680"/>
-      <c r="AP17" s="630"/>
-      <c r="AQ17" s="632"/>
-      <c r="AR17" s="632"/>
+      <c r="AO17" s="655"/>
+      <c r="AP17" s="636"/>
+      <c r="AQ17" s="638"/>
+      <c r="AR17" s="638"/>
       <c r="AS17" s="41" t="s">
         <v>2</v>
       </c>
@@ -7682,10 +7693,10 @@
       <c r="BF17" s="256"/>
       <c r="BG17" s="395"/>
       <c r="BH17" s="222"/>
-      <c r="BI17" s="649"/>
-      <c r="BJ17" s="652"/>
-      <c r="BK17" s="632"/>
-      <c r="BL17" s="632"/>
+      <c r="BI17" s="680"/>
+      <c r="BJ17" s="683"/>
+      <c r="BK17" s="638"/>
+      <c r="BL17" s="638"/>
       <c r="BM17" s="125" t="s">
         <v>2</v>
       </c>
@@ -7723,21 +7734,21 @@
       <c r="CC17" s="42"/>
     </row>
     <row r="18" spans="1:81" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="680"/>
-      <c r="B18" s="633">
+      <c r="A18" s="655"/>
+      <c r="B18" s="639">
         <v>2</v>
       </c>
-      <c r="C18" s="634" t="s">
+      <c r="C18" s="640" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="634" t="s">
+      <c r="D18" s="640" t="s">
         <v>29</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>1</v>
       </c>
       <c r="F18" s="456" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G18" s="453" t="s">
         <v>57</v>
@@ -7750,7 +7761,7 @@
       </c>
       <c r="J18" s="470"/>
       <c r="K18" s="471" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L18" s="453" t="s">
         <v>57</v>
@@ -7759,7 +7770,7 @@
         <v>90</v>
       </c>
       <c r="N18" s="452" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O18" s="222"/>
       <c r="P18" s="548" t="s">
@@ -7772,17 +7783,17 @@
         <v>107</v>
       </c>
       <c r="S18" s="586" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="T18" s="222"/>
-      <c r="U18" s="680"/>
-      <c r="V18" s="633">
+      <c r="U18" s="655"/>
+      <c r="V18" s="639">
         <v>2</v>
       </c>
-      <c r="W18" s="634" t="s">
+      <c r="W18" s="640" t="s">
         <v>28</v>
       </c>
-      <c r="X18" s="634" t="s">
+      <c r="X18" s="640" t="s">
         <v>29</v>
       </c>
       <c r="Y18" s="9" t="s">
@@ -7798,7 +7809,7 @@
         <v>103</v>
       </c>
       <c r="AC18" s="586" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AD18" s="345"/>
       <c r="AE18" s="375" t="s">
@@ -7808,10 +7819,10 @@
         <v>57</v>
       </c>
       <c r="AG18" s="587" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AH18" s="552" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AI18" s="345"/>
       <c r="AJ18" s="375" t="s">
@@ -7821,20 +7832,20 @@
         <v>57</v>
       </c>
       <c r="AL18" s="587" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AM18" s="552" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AN18" s="222"/>
-      <c r="AO18" s="680"/>
-      <c r="AP18" s="633">
+      <c r="AO18" s="655"/>
+      <c r="AP18" s="639">
         <v>2</v>
       </c>
-      <c r="AQ18" s="634" t="s">
+      <c r="AQ18" s="640" t="s">
         <v>28</v>
       </c>
-      <c r="AR18" s="634" t="s">
+      <c r="AR18" s="640" t="s">
         <v>29</v>
       </c>
       <c r="AS18" s="9" t="s">
@@ -7863,14 +7874,14 @@
         <v>81</v>
       </c>
       <c r="BH18" s="222"/>
-      <c r="BI18" s="649"/>
-      <c r="BJ18" s="652">
+      <c r="BI18" s="680"/>
+      <c r="BJ18" s="683">
         <v>2</v>
       </c>
-      <c r="BK18" s="634" t="s">
+      <c r="BK18" s="640" t="s">
         <v>28</v>
       </c>
-      <c r="BL18" s="634" t="s">
+      <c r="BL18" s="640" t="s">
         <v>29</v>
       </c>
       <c r="BM18" s="125" t="s">
@@ -7910,18 +7921,18 @@
       <c r="CC18" s="42"/>
     </row>
     <row r="19" spans="1:81" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="680"/>
-      <c r="B19" s="630"/>
-      <c r="C19" s="632"/>
-      <c r="D19" s="632"/>
+      <c r="A19" s="655"/>
+      <c r="B19" s="636"/>
+      <c r="C19" s="638"/>
+      <c r="D19" s="638"/>
       <c r="E19" s="9" t="s">
         <v>2</v>
       </c>
       <c r="F19" s="456" t="s">
+        <v>238</v>
+      </c>
+      <c r="G19" s="457" t="s">
         <v>239</v>
-      </c>
-      <c r="G19" s="457" t="s">
-        <v>240</v>
       </c>
       <c r="H19" s="454" t="s">
         <v>82</v>
@@ -7940,7 +7951,7 @@
         <v>90</v>
       </c>
       <c r="N19" s="452" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O19" s="222"/>
       <c r="P19" s="336" t="s">
@@ -7953,13 +7964,13 @@
         <v>103</v>
       </c>
       <c r="S19" s="586" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="T19" s="222"/>
-      <c r="U19" s="680"/>
-      <c r="V19" s="630"/>
-      <c r="W19" s="632"/>
-      <c r="X19" s="632"/>
+      <c r="U19" s="655"/>
+      <c r="V19" s="636"/>
+      <c r="W19" s="638"/>
+      <c r="X19" s="638"/>
       <c r="Y19" s="9" t="s">
         <v>2</v>
       </c>
@@ -7973,7 +7984,7 @@
         <v>107</v>
       </c>
       <c r="AC19" s="586" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AD19" s="345"/>
       <c r="AE19" s="316" t="s">
@@ -7986,7 +7997,7 @@
         <v>113</v>
       </c>
       <c r="AH19" s="552" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AI19" s="345"/>
       <c r="AJ19" s="316" t="s">
@@ -7999,13 +8010,13 @@
         <v>113</v>
       </c>
       <c r="AM19" s="552" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AN19" s="222"/>
-      <c r="AO19" s="680"/>
-      <c r="AP19" s="630"/>
-      <c r="AQ19" s="632"/>
-      <c r="AR19" s="632"/>
+      <c r="AO19" s="655"/>
+      <c r="AP19" s="636"/>
+      <c r="AQ19" s="638"/>
+      <c r="AR19" s="638"/>
       <c r="AS19" s="9" t="s">
         <v>2</v>
       </c>
@@ -8032,10 +8043,10 @@
       <c r="BF19" s="256"/>
       <c r="BG19" s="395"/>
       <c r="BH19" s="222"/>
-      <c r="BI19" s="649"/>
-      <c r="BJ19" s="652"/>
-      <c r="BK19" s="632"/>
-      <c r="BL19" s="632"/>
+      <c r="BI19" s="680"/>
+      <c r="BJ19" s="683"/>
+      <c r="BK19" s="638"/>
+      <c r="BL19" s="638"/>
       <c r="BM19" s="125" t="s">
         <v>2</v>
       </c>
@@ -8073,21 +8084,21 @@
       <c r="CC19" s="42"/>
     </row>
     <row r="20" spans="1:81" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="680"/>
-      <c r="B20" s="633">
+      <c r="A20" s="655"/>
+      <c r="B20" s="639">
         <v>3</v>
       </c>
-      <c r="C20" s="634" t="s">
+      <c r="C20" s="640" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="634" t="s">
+      <c r="D20" s="640" t="s">
         <v>60</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>1</v>
       </c>
       <c r="F20" s="460" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G20" s="453" t="s">
         <v>57</v>
@@ -8100,7 +8111,7 @@
       </c>
       <c r="J20" s="470"/>
       <c r="K20" s="456" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L20" s="453" t="s">
         <v>57</v>
@@ -8122,17 +8133,17 @@
         <v>107</v>
       </c>
       <c r="S20" s="586" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="T20" s="222"/>
-      <c r="U20" s="680"/>
-      <c r="V20" s="633">
+      <c r="U20" s="655"/>
+      <c r="V20" s="639">
         <v>3</v>
       </c>
-      <c r="W20" s="634" t="s">
+      <c r="W20" s="640" t="s">
         <v>59</v>
       </c>
-      <c r="X20" s="634" t="s">
+      <c r="X20" s="640" t="s">
         <v>60</v>
       </c>
       <c r="Y20" s="9" t="s">
@@ -8148,7 +8159,7 @@
         <v>105</v>
       </c>
       <c r="AC20" s="586" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AD20" s="345"/>
       <c r="AE20" s="375" t="s">
@@ -8158,10 +8169,10 @@
         <v>57</v>
       </c>
       <c r="AG20" s="587" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AH20" s="552" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AI20" s="345"/>
       <c r="AJ20" s="375" t="s">
@@ -8171,20 +8182,20 @@
         <v>57</v>
       </c>
       <c r="AL20" s="587" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AM20" s="552" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AN20" s="222"/>
-      <c r="AO20" s="680"/>
-      <c r="AP20" s="633">
+      <c r="AO20" s="655"/>
+      <c r="AP20" s="639">
         <v>3</v>
       </c>
-      <c r="AQ20" s="634" t="s">
+      <c r="AQ20" s="640" t="s">
         <v>59</v>
       </c>
-      <c r="AR20" s="634" t="s">
+      <c r="AR20" s="640" t="s">
         <v>60</v>
       </c>
       <c r="AS20" s="9" t="s">
@@ -8205,14 +8216,14 @@
       <c r="BF20" s="360"/>
       <c r="BG20" s="261"/>
       <c r="BH20" s="222"/>
-      <c r="BI20" s="649"/>
-      <c r="BJ20" s="652">
+      <c r="BI20" s="680"/>
+      <c r="BJ20" s="683">
         <v>3</v>
       </c>
-      <c r="BK20" s="634" t="s">
+      <c r="BK20" s="640" t="s">
         <v>59</v>
       </c>
-      <c r="BL20" s="634" t="s">
+      <c r="BL20" s="640" t="s">
         <v>60</v>
       </c>
       <c r="BM20" s="125" t="s">
@@ -8244,18 +8255,18 @@
       <c r="CC20" s="42"/>
     </row>
     <row r="21" spans="1:81" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="680"/>
-      <c r="B21" s="630"/>
-      <c r="C21" s="635"/>
-      <c r="D21" s="635"/>
+      <c r="A21" s="655"/>
+      <c r="B21" s="636"/>
+      <c r="C21" s="641"/>
+      <c r="D21" s="641"/>
       <c r="E21" s="9" t="s">
         <v>2</v>
       </c>
       <c r="F21" s="456" t="s">
+        <v>238</v>
+      </c>
+      <c r="G21" s="457" t="s">
         <v>239</v>
-      </c>
-      <c r="G21" s="457" t="s">
-        <v>240</v>
       </c>
       <c r="H21" s="454" t="s">
         <v>82</v>
@@ -8287,13 +8298,13 @@
         <v>105</v>
       </c>
       <c r="S21" s="586" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="T21" s="222"/>
-      <c r="U21" s="680"/>
-      <c r="V21" s="630"/>
-      <c r="W21" s="635"/>
-      <c r="X21" s="635"/>
+      <c r="U21" s="655"/>
+      <c r="V21" s="636"/>
+      <c r="W21" s="641"/>
+      <c r="X21" s="641"/>
       <c r="Y21" s="9" t="s">
         <v>2</v>
       </c>
@@ -8307,7 +8318,7 @@
         <v>107</v>
       </c>
       <c r="AC21" s="586" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AD21" s="345"/>
       <c r="AE21" s="374" t="s">
@@ -8320,7 +8331,7 @@
         <v>96</v>
       </c>
       <c r="AH21" s="552" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AI21" s="345"/>
       <c r="AJ21" s="374" t="s">
@@ -8333,13 +8344,13 @@
         <v>96</v>
       </c>
       <c r="AM21" s="552" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AN21" s="222"/>
-      <c r="AO21" s="680"/>
-      <c r="AP21" s="630"/>
-      <c r="AQ21" s="635"/>
-      <c r="AR21" s="635"/>
+      <c r="AO21" s="655"/>
+      <c r="AP21" s="636"/>
+      <c r="AQ21" s="641"/>
+      <c r="AR21" s="641"/>
       <c r="AS21" s="9" t="s">
         <v>2</v>
       </c>
@@ -8374,10 +8385,10 @@
         <v>186</v>
       </c>
       <c r="BH21" s="222"/>
-      <c r="BI21" s="649"/>
-      <c r="BJ21" s="652"/>
-      <c r="BK21" s="635"/>
-      <c r="BL21" s="635"/>
+      <c r="BI21" s="680"/>
+      <c r="BJ21" s="683"/>
+      <c r="BK21" s="641"/>
+      <c r="BL21" s="641"/>
       <c r="BM21" s="125" t="s">
         <v>2</v>
       </c>
@@ -8406,7 +8417,7 @@
         <v>57</v>
       </c>
       <c r="BZ21" s="357" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="CA21" s="359">
         <v>206</v>
@@ -8415,14 +8426,14 @@
       <c r="CC21" s="42"/>
     </row>
     <row r="22" spans="1:81" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="680"/>
-      <c r="B22" s="633">
+      <c r="A22" s="655"/>
+      <c r="B22" s="639">
         <v>4</v>
       </c>
-      <c r="C22" s="634" t="s">
+      <c r="C22" s="640" t="s">
         <v>61</v>
       </c>
-      <c r="D22" s="634" t="s">
+      <c r="D22" s="640" t="s">
         <v>62</v>
       </c>
       <c r="E22" s="9" t="s">
@@ -8460,17 +8471,17 @@
         <v>94</v>
       </c>
       <c r="S22" s="586" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="T22" s="222"/>
-      <c r="U22" s="680"/>
-      <c r="V22" s="633">
+      <c r="U22" s="655"/>
+      <c r="V22" s="639">
         <v>4</v>
       </c>
-      <c r="W22" s="634" t="s">
+      <c r="W22" s="640" t="s">
         <v>61</v>
       </c>
-      <c r="X22" s="634" t="s">
+      <c r="X22" s="640" t="s">
         <v>62</v>
       </c>
       <c r="Y22" s="9" t="s">
@@ -8486,7 +8497,7 @@
         <v>105</v>
       </c>
       <c r="AC22" s="586" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AD22" s="345"/>
       <c r="AE22" s="536" t="s">
@@ -8499,7 +8510,7 @@
         <v>110</v>
       </c>
       <c r="AH22" s="552" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AI22" s="345"/>
       <c r="AJ22" s="536"/>
@@ -8507,14 +8518,14 @@
       <c r="AL22" s="587"/>
       <c r="AM22" s="552"/>
       <c r="AN22" s="222"/>
-      <c r="AO22" s="680"/>
-      <c r="AP22" s="633">
+      <c r="AO22" s="655"/>
+      <c r="AP22" s="639">
         <v>4</v>
       </c>
-      <c r="AQ22" s="634" t="s">
+      <c r="AQ22" s="640" t="s">
         <v>61</v>
       </c>
-      <c r="AR22" s="634" t="s">
+      <c r="AR22" s="640" t="s">
         <v>62</v>
       </c>
       <c r="AS22" s="9" t="s">
@@ -8551,14 +8562,14 @@
       <c r="BF22" s="360"/>
       <c r="BG22" s="241"/>
       <c r="BH22" s="222"/>
-      <c r="BI22" s="649"/>
-      <c r="BJ22" s="652">
+      <c r="BI22" s="680"/>
+      <c r="BJ22" s="683">
         <v>4</v>
       </c>
-      <c r="BK22" s="634" t="s">
+      <c r="BK22" s="640" t="s">
         <v>61</v>
       </c>
-      <c r="BL22" s="634" t="s">
+      <c r="BL22" s="640" t="s">
         <v>62</v>
       </c>
       <c r="BM22" s="125" t="s">
@@ -8590,10 +8601,10 @@
       <c r="CC22" s="42"/>
     </row>
     <row r="23" spans="1:81" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="680"/>
-      <c r="B23" s="630"/>
-      <c r="C23" s="632"/>
-      <c r="D23" s="632"/>
+      <c r="A23" s="655"/>
+      <c r="B23" s="636"/>
+      <c r="C23" s="638"/>
+      <c r="D23" s="638"/>
       <c r="E23" s="9" t="s">
         <v>2</v>
       </c>
@@ -8629,13 +8640,13 @@
         <v>94</v>
       </c>
       <c r="S23" s="586" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="T23" s="222"/>
-      <c r="U23" s="680"/>
-      <c r="V23" s="630"/>
-      <c r="W23" s="632"/>
-      <c r="X23" s="632"/>
+      <c r="U23" s="655"/>
+      <c r="V23" s="636"/>
+      <c r="W23" s="638"/>
+      <c r="X23" s="638"/>
       <c r="Y23" s="9" t="s">
         <v>2</v>
       </c>
@@ -8649,7 +8660,7 @@
         <v>105</v>
       </c>
       <c r="AC23" s="586" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AD23" s="345"/>
       <c r="AE23" s="374" t="s">
@@ -8662,7 +8673,7 @@
         <v>96</v>
       </c>
       <c r="AH23" s="552" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AI23" s="345"/>
       <c r="AJ23" s="374" t="s">
@@ -8675,13 +8686,13 @@
         <v>96</v>
       </c>
       <c r="AM23" s="552" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AN23" s="222"/>
-      <c r="AO23" s="680"/>
-      <c r="AP23" s="630"/>
-      <c r="AQ23" s="632"/>
-      <c r="AR23" s="632"/>
+      <c r="AO23" s="655"/>
+      <c r="AP23" s="636"/>
+      <c r="AQ23" s="638"/>
+      <c r="AR23" s="638"/>
       <c r="AS23" s="9" t="s">
         <v>2</v>
       </c>
@@ -8716,10 +8727,10 @@
         <v>425</v>
       </c>
       <c r="BH23" s="222"/>
-      <c r="BI23" s="649"/>
-      <c r="BJ23" s="652"/>
-      <c r="BK23" s="632"/>
-      <c r="BL23" s="632"/>
+      <c r="BI23" s="680"/>
+      <c r="BJ23" s="683"/>
+      <c r="BK23" s="638"/>
+      <c r="BL23" s="638"/>
       <c r="BM23" s="125" t="s">
         <v>2</v>
       </c>
@@ -8748,7 +8759,7 @@
         <v>57</v>
       </c>
       <c r="BZ23" s="357" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="CA23" s="359">
         <v>206</v>
@@ -8757,14 +8768,14 @@
       <c r="CC23" s="42"/>
     </row>
     <row r="24" spans="1:81" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="680"/>
-      <c r="B24" s="633">
+      <c r="A24" s="655"/>
+      <c r="B24" s="639">
         <v>5</v>
       </c>
-      <c r="C24" s="634" t="s">
+      <c r="C24" s="640" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="634" t="s">
+      <c r="D24" s="640" t="s">
         <v>63</v>
       </c>
       <c r="E24" s="9" t="s">
@@ -8790,17 +8801,17 @@
         <v>105</v>
       </c>
       <c r="S24" s="586" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="T24" s="222"/>
-      <c r="U24" s="680"/>
-      <c r="V24" s="633">
+      <c r="U24" s="655"/>
+      <c r="V24" s="639">
         <v>5</v>
       </c>
-      <c r="W24" s="634" t="s">
+      <c r="W24" s="640" t="s">
         <v>30</v>
       </c>
-      <c r="X24" s="634" t="s">
+      <c r="X24" s="640" t="s">
         <v>63</v>
       </c>
       <c r="Y24" s="9" t="s">
@@ -8816,7 +8827,7 @@
         <v>94</v>
       </c>
       <c r="AC24" s="586" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AD24" s="345"/>
       <c r="AE24" s="536" t="s">
@@ -8829,7 +8840,7 @@
         <v>110</v>
       </c>
       <c r="AH24" s="552" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AI24" s="345"/>
       <c r="AJ24" s="536"/>
@@ -8837,14 +8848,14 @@
       <c r="AL24" s="587"/>
       <c r="AM24" s="552"/>
       <c r="AN24" s="222"/>
-      <c r="AO24" s="680"/>
-      <c r="AP24" s="633">
+      <c r="AO24" s="655"/>
+      <c r="AP24" s="639">
         <v>5</v>
       </c>
-      <c r="AQ24" s="634" t="s">
+      <c r="AQ24" s="640" t="s">
         <v>30</v>
       </c>
-      <c r="AR24" s="634" t="s">
+      <c r="AR24" s="640" t="s">
         <v>63</v>
       </c>
       <c r="AS24" s="9" t="s">
@@ -8881,14 +8892,14 @@
       <c r="BF24" s="256"/>
       <c r="BG24" s="401"/>
       <c r="BH24" s="222"/>
-      <c r="BI24" s="649"/>
-      <c r="BJ24" s="652">
+      <c r="BI24" s="680"/>
+      <c r="BJ24" s="683">
         <v>5</v>
       </c>
-      <c r="BK24" s="634" t="s">
+      <c r="BK24" s="640" t="s">
         <v>30</v>
       </c>
-      <c r="BL24" s="634" t="s">
+      <c r="BL24" s="640" t="s">
         <v>63</v>
       </c>
       <c r="BM24" s="125" t="s">
@@ -8904,7 +8915,7 @@
         <v>181</v>
       </c>
       <c r="BQ24" s="588" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="BR24" s="345"/>
       <c r="BS24" s="547"/>
@@ -8920,10 +8931,10 @@
       <c r="CC24" s="42"/>
     </row>
     <row r="25" spans="1:81" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="680"/>
-      <c r="B25" s="630"/>
-      <c r="C25" s="632"/>
-      <c r="D25" s="632"/>
+      <c r="A25" s="655"/>
+      <c r="B25" s="636"/>
+      <c r="C25" s="638"/>
+      <c r="D25" s="638"/>
       <c r="E25" s="9" t="s">
         <v>2</v>
       </c>
@@ -8947,13 +8958,13 @@
         <v>94</v>
       </c>
       <c r="S25" s="586" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="T25" s="203"/>
-      <c r="U25" s="680"/>
-      <c r="V25" s="630"/>
-      <c r="W25" s="632"/>
-      <c r="X25" s="632"/>
+      <c r="U25" s="655"/>
+      <c r="V25" s="636"/>
+      <c r="W25" s="638"/>
+      <c r="X25" s="638"/>
       <c r="Y25" s="9" t="s">
         <v>2</v>
       </c>
@@ -8972,7 +8983,7 @@
         <v>98</v>
       </c>
       <c r="AH25" s="372" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AI25" s="345"/>
       <c r="AJ25" s="551"/>
@@ -8980,10 +8991,10 @@
       <c r="AL25" s="550"/>
       <c r="AM25" s="540"/>
       <c r="AN25" s="203"/>
-      <c r="AO25" s="680"/>
-      <c r="AP25" s="630"/>
-      <c r="AQ25" s="632"/>
-      <c r="AR25" s="632"/>
+      <c r="AO25" s="655"/>
+      <c r="AP25" s="636"/>
+      <c r="AQ25" s="638"/>
+      <c r="AR25" s="638"/>
       <c r="AS25" s="9" t="s">
         <v>2</v>
       </c>
@@ -9010,14 +9021,14 @@
         <v>425</v>
       </c>
       <c r="BH25" s="203"/>
-      <c r="BI25" s="649"/>
-      <c r="BJ25" s="652"/>
-      <c r="BK25" s="632"/>
-      <c r="BL25" s="632"/>
+      <c r="BI25" s="680"/>
+      <c r="BJ25" s="683"/>
+      <c r="BK25" s="638"/>
+      <c r="BL25" s="638"/>
       <c r="BM25" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="BN25" s="283"/>
+      <c r="BN25" s="38"/>
       <c r="BO25" s="356"/>
       <c r="BP25" s="265"/>
       <c r="BQ25" s="263"/>
@@ -9028,7 +9039,7 @@
       <c r="BV25" s="63"/>
       <c r="BW25" s="203"/>
       <c r="BX25" s="138" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="BY25" s="356" t="s">
         <v>57</v>
@@ -9043,14 +9054,14 @@
       <c r="CC25" s="42"/>
     </row>
     <row r="26" spans="1:81" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="680"/>
-      <c r="B26" s="665">
+      <c r="A26" s="655"/>
+      <c r="B26" s="642">
         <v>6</v>
       </c>
-      <c r="C26" s="635" t="s">
+      <c r="C26" s="641" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="635" t="s">
+      <c r="D26" s="641" t="s">
         <v>64</v>
       </c>
       <c r="E26" s="9" t="s">
@@ -9071,14 +9082,14 @@
       <c r="R26" s="331"/>
       <c r="S26" s="309"/>
       <c r="T26" s="203"/>
-      <c r="U26" s="680"/>
-      <c r="V26" s="665">
+      <c r="U26" s="655"/>
+      <c r="V26" s="642">
         <v>6</v>
       </c>
-      <c r="W26" s="635" t="s">
+      <c r="W26" s="641" t="s">
         <v>51</v>
       </c>
-      <c r="X26" s="635" t="s">
+      <c r="X26" s="641" t="s">
         <v>64</v>
       </c>
       <c r="Y26" s="9" t="s">
@@ -9099,14 +9110,14 @@
       <c r="AL26" s="357"/>
       <c r="AM26" s="371"/>
       <c r="AN26" s="203"/>
-      <c r="AO26" s="680"/>
-      <c r="AP26" s="665">
+      <c r="AO26" s="655"/>
+      <c r="AP26" s="642">
         <v>6</v>
       </c>
-      <c r="AQ26" s="635" t="s">
+      <c r="AQ26" s="641" t="s">
         <v>51</v>
       </c>
-      <c r="AR26" s="635" t="s">
+      <c r="AR26" s="641" t="s">
         <v>64</v>
       </c>
       <c r="AS26" s="9" t="s">
@@ -9127,20 +9138,20 @@
       <c r="BF26" s="129"/>
       <c r="BG26" s="63"/>
       <c r="BH26" s="203"/>
-      <c r="BI26" s="649"/>
-      <c r="BJ26" s="633">
+      <c r="BI26" s="680"/>
+      <c r="BJ26" s="639">
         <v>6</v>
       </c>
-      <c r="BK26" s="635" t="s">
+      <c r="BK26" s="641" t="s">
         <v>51</v>
       </c>
-      <c r="BL26" s="635" t="s">
+      <c r="BL26" s="641" t="s">
         <v>64</v>
       </c>
       <c r="BM26" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="BN26" s="283"/>
+      <c r="BN26" s="38"/>
       <c r="BO26" s="356"/>
       <c r="BP26" s="265"/>
       <c r="BQ26" s="161"/>
@@ -9158,10 +9169,10 @@
       <c r="CC26" s="42"/>
     </row>
     <row r="27" spans="1:81" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="681"/>
-      <c r="B27" s="636"/>
-      <c r="C27" s="637"/>
-      <c r="D27" s="637"/>
+      <c r="A27" s="656"/>
+      <c r="B27" s="643"/>
+      <c r="C27" s="644"/>
+      <c r="D27" s="644"/>
       <c r="E27" s="4" t="s">
         <v>2</v>
       </c>
@@ -9180,10 +9191,10 @@
       <c r="R27" s="332"/>
       <c r="S27" s="310"/>
       <c r="T27" s="207"/>
-      <c r="U27" s="681"/>
-      <c r="V27" s="636"/>
-      <c r="W27" s="637"/>
-      <c r="X27" s="637"/>
+      <c r="U27" s="656"/>
+      <c r="V27" s="643"/>
+      <c r="W27" s="644"/>
+      <c r="X27" s="644"/>
       <c r="Y27" s="4" t="s">
         <v>2</v>
       </c>
@@ -9202,10 +9213,10 @@
       <c r="AL27" s="366"/>
       <c r="AM27" s="373"/>
       <c r="AN27" s="207"/>
-      <c r="AO27" s="681"/>
-      <c r="AP27" s="636"/>
-      <c r="AQ27" s="637"/>
-      <c r="AR27" s="637"/>
+      <c r="AO27" s="656"/>
+      <c r="AP27" s="643"/>
+      <c r="AQ27" s="644"/>
+      <c r="AR27" s="644"/>
       <c r="AS27" s="4" t="s">
         <v>2</v>
       </c>
@@ -9224,14 +9235,14 @@
       <c r="BF27" s="567"/>
       <c r="BG27" s="276"/>
       <c r="BH27" s="207"/>
-      <c r="BI27" s="650"/>
-      <c r="BJ27" s="636"/>
-      <c r="BK27" s="637"/>
-      <c r="BL27" s="637"/>
+      <c r="BI27" s="681"/>
+      <c r="BJ27" s="643"/>
+      <c r="BK27" s="644"/>
+      <c r="BL27" s="644"/>
       <c r="BM27" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="BN27" s="72"/>
+      <c r="BN27" s="565"/>
       <c r="BO27" s="275"/>
       <c r="BP27" s="73"/>
       <c r="BQ27" s="162"/>
@@ -9249,16 +9260,16 @@
       <c r="CC27" s="42"/>
     </row>
     <row r="28" spans="1:81" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="675" t="s">
+      <c r="A28" s="651" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="629">
+      <c r="B28" s="635">
         <v>1</v>
       </c>
-      <c r="C28" s="631" t="s">
+      <c r="C28" s="637" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="631" t="s">
+      <c r="D28" s="637" t="s">
         <v>27</v>
       </c>
       <c r="E28" s="7" t="s">
@@ -9284,19 +9295,19 @@
         <v>94</v>
       </c>
       <c r="S28" s="586" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="T28" s="89"/>
-      <c r="U28" s="675" t="s">
+      <c r="U28" s="651" t="s">
         <v>7</v>
       </c>
-      <c r="V28" s="629">
+      <c r="V28" s="635">
         <v>1</v>
       </c>
-      <c r="W28" s="631" t="s">
+      <c r="W28" s="637" t="s">
         <v>26</v>
       </c>
-      <c r="X28" s="631" t="s">
+      <c r="X28" s="637" t="s">
         <v>27</v>
       </c>
       <c r="Y28" s="7" t="s">
@@ -9312,7 +9323,7 @@
         <v>103</v>
       </c>
       <c r="AC28" s="586" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AD28" s="273"/>
       <c r="AE28" s="536"/>
@@ -9325,16 +9336,16 @@
       <c r="AL28" s="364"/>
       <c r="AM28" s="337"/>
       <c r="AN28" s="89"/>
-      <c r="AO28" s="675" t="s">
+      <c r="AO28" s="651" t="s">
         <v>7</v>
       </c>
-      <c r="AP28" s="629">
+      <c r="AP28" s="635">
         <v>1</v>
       </c>
-      <c r="AQ28" s="631" t="s">
+      <c r="AQ28" s="637" t="s">
         <v>26</v>
       </c>
-      <c r="AR28" s="631" t="s">
+      <c r="AR28" s="637" t="s">
         <v>27</v>
       </c>
       <c r="AS28" s="7" t="s">
@@ -9351,31 +9362,31 @@
       <c r="BB28" s="196"/>
       <c r="BC28" s="89"/>
       <c r="BD28" s="566" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="BE28" s="570" t="s">
         <v>80</v>
       </c>
       <c r="BF28" s="572" t="s">
+        <v>248</v>
+      </c>
+      <c r="BG28" s="564" t="s">
         <v>249</v>
       </c>
-      <c r="BG28" s="564" t="s">
-        <v>250</v>
-      </c>
       <c r="BH28" s="216"/>
-      <c r="BI28" s="645" t="s">
+      <c r="BI28" s="684" t="s">
         <v>7</v>
       </c>
-      <c r="BJ28" s="629">
+      <c r="BJ28" s="635">
         <v>1</v>
       </c>
-      <c r="BK28" s="631" t="s">
+      <c r="BK28" s="637" t="s">
         <v>26</v>
       </c>
-      <c r="BL28" s="631" t="s">
+      <c r="BL28" s="637" t="s">
         <v>27</v>
       </c>
-      <c r="BM28" s="49" t="s">
+      <c r="BM28" s="700" t="s">
         <v>1</v>
       </c>
       <c r="BN28" s="589" t="s">
@@ -9388,7 +9399,7 @@
         <v>179</v>
       </c>
       <c r="BQ28" s="591" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="BR28" s="592"/>
       <c r="BS28" s="593" t="s">
@@ -9401,7 +9412,7 @@
         <v>179</v>
       </c>
       <c r="BV28" s="591" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="BW28" s="216"/>
       <c r="BX28" s="150"/>
@@ -9412,10 +9423,10 @@
       <c r="CC28" s="42"/>
     </row>
     <row r="29" spans="1:81" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="676"/>
-      <c r="B29" s="630"/>
-      <c r="C29" s="632"/>
-      <c r="D29" s="632"/>
+      <c r="A29" s="652"/>
+      <c r="B29" s="636"/>
+      <c r="C29" s="638"/>
+      <c r="D29" s="638"/>
       <c r="E29" s="8" t="s">
         <v>2</v>
       </c>
@@ -9434,10 +9445,10 @@
       <c r="R29" s="364"/>
       <c r="S29" s="586"/>
       <c r="T29" s="121"/>
-      <c r="U29" s="676"/>
-      <c r="V29" s="630"/>
-      <c r="W29" s="632"/>
-      <c r="X29" s="632"/>
+      <c r="U29" s="652"/>
+      <c r="V29" s="636"/>
+      <c r="W29" s="638"/>
+      <c r="X29" s="638"/>
       <c r="Y29" s="8" t="s">
         <v>2</v>
       </c>
@@ -9451,7 +9462,7 @@
         <v>94</v>
       </c>
       <c r="AC29" s="586" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AD29" s="293"/>
       <c r="AE29" s="536"/>
@@ -9469,13 +9480,13 @@
         <v>110</v>
       </c>
       <c r="AM29" s="552" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AN29" s="121"/>
-      <c r="AO29" s="676"/>
-      <c r="AP29" s="630"/>
-      <c r="AQ29" s="632"/>
-      <c r="AR29" s="632"/>
+      <c r="AO29" s="652"/>
+      <c r="AP29" s="636"/>
+      <c r="AQ29" s="638"/>
+      <c r="AR29" s="638"/>
       <c r="AS29" s="8" t="s">
         <v>2</v>
       </c>
@@ -9502,11 +9513,11 @@
         <v>157</v>
       </c>
       <c r="BH29" s="231"/>
-      <c r="BI29" s="646"/>
-      <c r="BJ29" s="630"/>
-      <c r="BK29" s="632"/>
-      <c r="BL29" s="632"/>
-      <c r="BM29" s="41" t="s">
+      <c r="BI29" s="685"/>
+      <c r="BJ29" s="636"/>
+      <c r="BK29" s="638"/>
+      <c r="BL29" s="638"/>
+      <c r="BM29" s="9" t="s">
         <v>2</v>
       </c>
       <c r="BN29" s="594" t="s">
@@ -9519,7 +9530,7 @@
         <v>179</v>
       </c>
       <c r="BQ29" s="596" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="BR29" s="597"/>
       <c r="BS29" s="598" t="s">
@@ -9532,7 +9543,7 @@
         <v>179</v>
       </c>
       <c r="BV29" s="596" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="BW29" s="231"/>
       <c r="BX29" s="168"/>
@@ -9543,14 +9554,14 @@
       <c r="CC29" s="42"/>
     </row>
     <row r="30" spans="1:81" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="676"/>
-      <c r="B30" s="633">
+      <c r="A30" s="652"/>
+      <c r="B30" s="639">
         <v>2</v>
       </c>
-      <c r="C30" s="634" t="s">
+      <c r="C30" s="640" t="s">
         <v>28</v>
       </c>
-      <c r="D30" s="634" t="s">
+      <c r="D30" s="640" t="s">
         <v>29</v>
       </c>
       <c r="E30" s="9" t="s">
@@ -9584,17 +9595,17 @@
         <v>94</v>
       </c>
       <c r="S30" s="586" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="T30" s="89"/>
-      <c r="U30" s="676"/>
-      <c r="V30" s="633">
+      <c r="U30" s="652"/>
+      <c r="V30" s="639">
         <v>2</v>
       </c>
-      <c r="W30" s="634" t="s">
+      <c r="W30" s="640" t="s">
         <v>28</v>
       </c>
-      <c r="X30" s="634" t="s">
+      <c r="X30" s="640" t="s">
         <v>29</v>
       </c>
       <c r="Y30" s="9" t="s">
@@ -9610,7 +9621,7 @@
         <v>103</v>
       </c>
       <c r="AC30" s="586" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AD30" s="273"/>
       <c r="AE30" s="375" t="s">
@@ -9620,10 +9631,10 @@
         <v>57</v>
       </c>
       <c r="AG30" s="587" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AH30" s="552" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AI30" s="476"/>
       <c r="AJ30" s="375" t="s">
@@ -9633,20 +9644,20 @@
         <v>57</v>
       </c>
       <c r="AL30" s="587" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AM30" s="552" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AN30" s="89"/>
-      <c r="AO30" s="676"/>
-      <c r="AP30" s="633">
+      <c r="AO30" s="652"/>
+      <c r="AP30" s="639">
         <v>2</v>
       </c>
-      <c r="AQ30" s="634" t="s">
+      <c r="AQ30" s="640" t="s">
         <v>28</v>
       </c>
-      <c r="AR30" s="634" t="s">
+      <c r="AR30" s="640" t="s">
         <v>29</v>
       </c>
       <c r="AS30" s="9" t="s">
@@ -9663,29 +9674,29 @@
       <c r="BB30" s="82"/>
       <c r="BC30" s="89"/>
       <c r="BD30" s="566" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="BE30" s="570" t="s">
         <v>80</v>
       </c>
       <c r="BF30" s="572" t="s">
+        <v>248</v>
+      </c>
+      <c r="BG30" s="571" t="s">
         <v>249</v>
       </c>
-      <c r="BG30" s="571" t="s">
-        <v>250</v>
-      </c>
       <c r="BH30" s="216"/>
-      <c r="BI30" s="646"/>
-      <c r="BJ30" s="633">
+      <c r="BI30" s="685"/>
+      <c r="BJ30" s="639">
         <v>2</v>
       </c>
-      <c r="BK30" s="634" t="s">
+      <c r="BK30" s="640" t="s">
         <v>28</v>
       </c>
-      <c r="BL30" s="634" t="s">
+      <c r="BL30" s="640" t="s">
         <v>29</v>
       </c>
-      <c r="BM30" s="69" t="s">
+      <c r="BM30" s="9" t="s">
         <v>1</v>
       </c>
       <c r="BN30" s="594" t="s">
@@ -9698,7 +9709,7 @@
         <v>179</v>
       </c>
       <c r="BQ30" s="599" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="BR30" s="597"/>
       <c r="BS30" s="598" t="s">
@@ -9711,7 +9722,7 @@
         <v>184</v>
       </c>
       <c r="BV30" s="599" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="BW30" s="216"/>
       <c r="BX30" s="150"/>
@@ -9722,15 +9733,15 @@
       <c r="CC30" s="42"/>
     </row>
     <row r="31" spans="1:81" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="676"/>
-      <c r="B31" s="630"/>
-      <c r="C31" s="632"/>
-      <c r="D31" s="632"/>
+      <c r="A31" s="652"/>
+      <c r="B31" s="636"/>
+      <c r="C31" s="638"/>
+      <c r="D31" s="638"/>
       <c r="E31" s="9" t="s">
         <v>2</v>
       </c>
       <c r="F31" s="492" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G31" s="483" t="s">
         <v>57</v>
@@ -9757,13 +9768,13 @@
         <v>101</v>
       </c>
       <c r="S31" s="586" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="T31" s="121"/>
-      <c r="U31" s="676"/>
-      <c r="V31" s="630"/>
-      <c r="W31" s="632"/>
-      <c r="X31" s="632"/>
+      <c r="U31" s="652"/>
+      <c r="V31" s="636"/>
+      <c r="W31" s="638"/>
+      <c r="X31" s="638"/>
       <c r="Y31" s="9" t="s">
         <v>2</v>
       </c>
@@ -9777,7 +9788,7 @@
         <v>94</v>
       </c>
       <c r="AC31" s="586" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AD31" s="293"/>
       <c r="AE31" s="375" t="s">
@@ -9787,10 +9798,10 @@
         <v>57</v>
       </c>
       <c r="AG31" s="587" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AH31" s="552" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AI31" s="554"/>
       <c r="AJ31" s="375" t="s">
@@ -9800,16 +9811,16 @@
         <v>57</v>
       </c>
       <c r="AL31" s="587" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AM31" s="552" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AN31" s="121"/>
-      <c r="AO31" s="676"/>
-      <c r="AP31" s="630"/>
-      <c r="AQ31" s="632"/>
-      <c r="AR31" s="632"/>
+      <c r="AO31" s="652"/>
+      <c r="AP31" s="636"/>
+      <c r="AQ31" s="638"/>
+      <c r="AR31" s="638"/>
       <c r="AS31" s="9" t="s">
         <v>2</v>
       </c>
@@ -9836,11 +9847,11 @@
         <v>157</v>
       </c>
       <c r="BH31" s="231"/>
-      <c r="BI31" s="646"/>
-      <c r="BJ31" s="630"/>
-      <c r="BK31" s="632"/>
-      <c r="BL31" s="632"/>
-      <c r="BM31" s="69" t="s">
+      <c r="BI31" s="685"/>
+      <c r="BJ31" s="636"/>
+      <c r="BK31" s="638"/>
+      <c r="BL31" s="638"/>
+      <c r="BM31" s="9" t="s">
         <v>2</v>
       </c>
       <c r="BN31" s="594" t="s">
@@ -9853,7 +9864,7 @@
         <v>179</v>
       </c>
       <c r="BQ31" s="599" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="BR31" s="597"/>
       <c r="BS31" s="598" t="s">
@@ -9866,17 +9877,17 @@
         <v>184</v>
       </c>
       <c r="BV31" s="599" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="BW31" s="231"/>
       <c r="BX31" s="412" t="s">
-        <v>205</v>
+        <v>294</v>
       </c>
       <c r="BY31" s="356" t="s">
         <v>80</v>
       </c>
-      <c r="BZ31" s="357" t="s">
-        <v>197</v>
+      <c r="BZ31" s="546" t="s">
+        <v>295</v>
       </c>
       <c r="CA31" s="196">
         <v>206</v>
@@ -9885,14 +9896,14 @@
       <c r="CC31" s="42"/>
     </row>
     <row r="32" spans="1:81" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="676"/>
-      <c r="B32" s="633">
+      <c r="A32" s="652"/>
+      <c r="B32" s="639">
         <v>3</v>
       </c>
-      <c r="C32" s="634" t="s">
+      <c r="C32" s="640" t="s">
         <v>59</v>
       </c>
-      <c r="D32" s="634" t="s">
+      <c r="D32" s="640" t="s">
         <v>60</v>
       </c>
       <c r="E32" s="9" t="s">
@@ -9912,7 +9923,7 @@
       </c>
       <c r="J32" s="500"/>
       <c r="K32" s="560" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="L32" s="556" t="s">
         <v>57</v>
@@ -9934,17 +9945,17 @@
         <v>103</v>
       </c>
       <c r="S32" s="586" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="T32" s="182"/>
-      <c r="U32" s="676"/>
-      <c r="V32" s="633">
+      <c r="U32" s="652"/>
+      <c r="V32" s="639">
         <v>3</v>
       </c>
-      <c r="W32" s="634" t="s">
+      <c r="W32" s="640" t="s">
         <v>59</v>
       </c>
-      <c r="X32" s="634" t="s">
+      <c r="X32" s="640" t="s">
         <v>60</v>
       </c>
       <c r="Y32" s="9" t="s">
@@ -9960,7 +9971,7 @@
         <v>94</v>
       </c>
       <c r="AC32" s="586" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AD32" s="290"/>
       <c r="AE32" s="375" t="s">
@@ -9970,10 +9981,10 @@
         <v>57</v>
       </c>
       <c r="AG32" s="587" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AH32" s="552" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AI32" s="557"/>
       <c r="AJ32" s="375" t="s">
@@ -9983,20 +9994,20 @@
         <v>57</v>
       </c>
       <c r="AL32" s="587" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AM32" s="552" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AN32" s="182"/>
-      <c r="AO32" s="676"/>
-      <c r="AP32" s="633">
+      <c r="AO32" s="652"/>
+      <c r="AP32" s="639">
         <v>3</v>
       </c>
-      <c r="AQ32" s="634" t="s">
+      <c r="AQ32" s="640" t="s">
         <v>59</v>
       </c>
-      <c r="AR32" s="634" t="s">
+      <c r="AR32" s="640" t="s">
         <v>60</v>
       </c>
       <c r="AS32" s="9" t="s">
@@ -10033,17 +10044,17 @@
         <v>157</v>
       </c>
       <c r="BH32" s="203"/>
-      <c r="BI32" s="646"/>
-      <c r="BJ32" s="633">
+      <c r="BI32" s="685"/>
+      <c r="BJ32" s="639">
         <v>3</v>
       </c>
-      <c r="BK32" s="634" t="s">
+      <c r="BK32" s="640" t="s">
         <v>59</v>
       </c>
-      <c r="BL32" s="634" t="s">
+      <c r="BL32" s="640" t="s">
         <v>60</v>
       </c>
-      <c r="BM32" s="69" t="s">
+      <c r="BM32" s="9" t="s">
         <v>1</v>
       </c>
       <c r="BN32" s="594" t="s">
@@ -10056,7 +10067,7 @@
         <v>179</v>
       </c>
       <c r="BQ32" s="599" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="BR32" s="597"/>
       <c r="BS32" s="598" t="s">
@@ -10069,11 +10080,11 @@
         <v>184</v>
       </c>
       <c r="BV32" s="599" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="BW32" s="203"/>
       <c r="BX32" s="412" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="BY32" s="356" t="s">
         <v>80</v>
@@ -10088,10 +10099,10 @@
       <c r="CC32" s="42"/>
     </row>
     <row r="33" spans="1:81" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="676"/>
-      <c r="B33" s="630"/>
-      <c r="C33" s="635"/>
-      <c r="D33" s="635"/>
+      <c r="A33" s="652"/>
+      <c r="B33" s="636"/>
+      <c r="C33" s="641"/>
+      <c r="D33" s="641"/>
       <c r="E33" s="9" t="s">
         <v>2</v>
       </c>
@@ -10123,13 +10134,13 @@
         <v>94</v>
       </c>
       <c r="S33" s="586" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="T33" s="182"/>
-      <c r="U33" s="676"/>
-      <c r="V33" s="630"/>
-      <c r="W33" s="635"/>
-      <c r="X33" s="635"/>
+      <c r="U33" s="652"/>
+      <c r="V33" s="636"/>
+      <c r="W33" s="641"/>
+      <c r="X33" s="641"/>
       <c r="Y33" s="9" t="s">
         <v>2</v>
       </c>
@@ -10143,7 +10154,7 @@
         <v>98</v>
       </c>
       <c r="AC33" s="586" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AD33" s="290"/>
       <c r="AE33" s="375" t="s">
@@ -10153,10 +10164,10 @@
         <v>57</v>
       </c>
       <c r="AG33" s="587" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AH33" s="552" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AI33" s="557"/>
       <c r="AJ33" s="375" t="s">
@@ -10166,16 +10177,16 @@
         <v>57</v>
       </c>
       <c r="AL33" s="587" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AM33" s="552" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AN33" s="182"/>
-      <c r="AO33" s="676"/>
-      <c r="AP33" s="630"/>
-      <c r="AQ33" s="635"/>
-      <c r="AR33" s="635"/>
+      <c r="AO33" s="652"/>
+      <c r="AP33" s="636"/>
+      <c r="AQ33" s="641"/>
+      <c r="AR33" s="641"/>
       <c r="AS33" s="9" t="s">
         <v>2</v>
       </c>
@@ -10210,11 +10221,11 @@
         <v>186</v>
       </c>
       <c r="BH33" s="203"/>
-      <c r="BI33" s="646"/>
-      <c r="BJ33" s="630"/>
-      <c r="BK33" s="635"/>
-      <c r="BL33" s="635"/>
-      <c r="BM33" s="69" t="s">
+      <c r="BI33" s="685"/>
+      <c r="BJ33" s="636"/>
+      <c r="BK33" s="641"/>
+      <c r="BL33" s="641"/>
+      <c r="BM33" s="9" t="s">
         <v>2</v>
       </c>
       <c r="BN33" s="600"/>
@@ -10223,20 +10234,20 @@
       <c r="BQ33" s="602"/>
       <c r="BR33" s="597"/>
       <c r="BS33" s="603" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="BT33" s="604"/>
       <c r="BU33" s="604"/>
       <c r="BV33" s="605"/>
       <c r="BW33" s="203"/>
       <c r="BX33" s="412" t="s">
-        <v>205</v>
-      </c>
-      <c r="BY33" s="356" t="s">
+        <v>294</v>
+      </c>
+      <c r="BY33" s="570" t="s">
         <v>80</v>
       </c>
-      <c r="BZ33" s="357" t="s">
-        <v>197</v>
+      <c r="BZ33" s="546" t="s">
+        <v>295</v>
       </c>
       <c r="CA33" s="359">
         <v>206</v>
@@ -10245,14 +10256,14 @@
       <c r="CC33" s="42"/>
     </row>
     <row r="34" spans="1:81" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="676"/>
-      <c r="B34" s="633">
+      <c r="A34" s="652"/>
+      <c r="B34" s="639">
         <v>4</v>
       </c>
-      <c r="C34" s="634" t="s">
+      <c r="C34" s="640" t="s">
         <v>61</v>
       </c>
-      <c r="D34" s="634" t="s">
+      <c r="D34" s="640" t="s">
         <v>62</v>
       </c>
       <c r="E34" s="9" t="s">
@@ -10294,17 +10305,17 @@
         <v>103</v>
       </c>
       <c r="S34" s="586" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="T34" s="182"/>
-      <c r="U34" s="676"/>
-      <c r="V34" s="633">
+      <c r="U34" s="652"/>
+      <c r="V34" s="639">
         <v>4</v>
       </c>
-      <c r="W34" s="634" t="s">
+      <c r="W34" s="640" t="s">
         <v>61</v>
       </c>
-      <c r="X34" s="634" t="s">
+      <c r="X34" s="640" t="s">
         <v>62</v>
       </c>
       <c r="Y34" s="9" t="s">
@@ -10325,7 +10336,7 @@
         <v>110</v>
       </c>
       <c r="AH34" s="552" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AI34" s="557"/>
       <c r="AJ34" s="374"/>
@@ -10333,14 +10344,14 @@
       <c r="AL34" s="550"/>
       <c r="AM34" s="552"/>
       <c r="AN34" s="182"/>
-      <c r="AO34" s="676"/>
-      <c r="AP34" s="633">
+      <c r="AO34" s="652"/>
+      <c r="AP34" s="639">
         <v>4</v>
       </c>
-      <c r="AQ34" s="634" t="s">
+      <c r="AQ34" s="640" t="s">
         <v>61</v>
       </c>
-      <c r="AR34" s="634" t="s">
+      <c r="AR34" s="640" t="s">
         <v>62</v>
       </c>
       <c r="AS34" s="9" t="s">
@@ -10385,17 +10396,17 @@
         <v>157</v>
       </c>
       <c r="BH34" s="203"/>
-      <c r="BI34" s="646"/>
-      <c r="BJ34" s="633">
+      <c r="BI34" s="685"/>
+      <c r="BJ34" s="639">
         <v>4</v>
       </c>
-      <c r="BK34" s="634" t="s">
+      <c r="BK34" s="640" t="s">
         <v>61</v>
       </c>
-      <c r="BL34" s="634" t="s">
+      <c r="BL34" s="640" t="s">
         <v>62</v>
       </c>
-      <c r="BM34" s="69" t="s">
+      <c r="BM34" s="9" t="s">
         <v>1</v>
       </c>
       <c r="BN34" s="594" t="s">
@@ -10408,7 +10419,7 @@
         <v>181</v>
       </c>
       <c r="BQ34" s="596" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="BR34" s="597"/>
       <c r="BS34" s="598" t="s">
@@ -10421,11 +10432,11 @@
         <v>181</v>
       </c>
       <c r="BV34" s="596" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="BW34" s="203"/>
       <c r="BX34" s="412" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="BY34" s="356" t="s">
         <v>80</v>
@@ -10440,10 +10451,10 @@
       <c r="CC34" s="42"/>
     </row>
     <row r="35" spans="1:81" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="676"/>
-      <c r="B35" s="630"/>
-      <c r="C35" s="632"/>
-      <c r="D35" s="632"/>
+      <c r="A35" s="652"/>
+      <c r="B35" s="636"/>
+      <c r="C35" s="638"/>
+      <c r="D35" s="638"/>
       <c r="E35" s="9" t="s">
         <v>2</v>
       </c>
@@ -10478,10 +10489,10 @@
       <c r="R35" s="301"/>
       <c r="S35" s="330"/>
       <c r="T35" s="182"/>
-      <c r="U35" s="676"/>
-      <c r="V35" s="630"/>
-      <c r="W35" s="632"/>
-      <c r="X35" s="632"/>
+      <c r="U35" s="652"/>
+      <c r="V35" s="636"/>
+      <c r="W35" s="638"/>
+      <c r="X35" s="638"/>
       <c r="Y35" s="9" t="s">
         <v>2</v>
       </c>
@@ -10495,7 +10506,7 @@
         <v>98</v>
       </c>
       <c r="AC35" s="586" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AD35" s="290"/>
       <c r="AE35" s="374"/>
@@ -10513,13 +10524,13 @@
         <v>110</v>
       </c>
       <c r="AM35" s="552" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AN35" s="182"/>
-      <c r="AO35" s="676"/>
-      <c r="AP35" s="630"/>
-      <c r="AQ35" s="632"/>
-      <c r="AR35" s="632"/>
+      <c r="AO35" s="652"/>
+      <c r="AP35" s="636"/>
+      <c r="AQ35" s="638"/>
+      <c r="AR35" s="638"/>
       <c r="AS35" s="9" t="s">
         <v>2</v>
       </c>
@@ -10562,11 +10573,11 @@
         <v>171</v>
       </c>
       <c r="BH35" s="203"/>
-      <c r="BI35" s="646"/>
-      <c r="BJ35" s="630"/>
-      <c r="BK35" s="632"/>
-      <c r="BL35" s="632"/>
-      <c r="BM35" s="69" t="s">
+      <c r="BI35" s="685"/>
+      <c r="BJ35" s="636"/>
+      <c r="BK35" s="638"/>
+      <c r="BL35" s="638"/>
+      <c r="BM35" s="9" t="s">
         <v>2</v>
       </c>
       <c r="BN35" s="606"/>
@@ -10584,11 +10595,11 @@
         <v>181</v>
       </c>
       <c r="BV35" s="588" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="BW35" s="203"/>
       <c r="BX35" s="548" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="BY35" s="570" t="s">
         <v>80</v>
@@ -10603,14 +10614,14 @@
       <c r="CC35" s="42"/>
     </row>
     <row r="36" spans="1:81" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="676"/>
-      <c r="B36" s="633">
+      <c r="A36" s="652"/>
+      <c r="B36" s="639">
         <v>5</v>
       </c>
-      <c r="C36" s="634" t="s">
+      <c r="C36" s="640" t="s">
         <v>30</v>
       </c>
-      <c r="D36" s="634" t="s">
+      <c r="D36" s="640" t="s">
         <v>63</v>
       </c>
       <c r="E36" s="9" t="s">
@@ -10652,17 +10663,17 @@
         <v>105</v>
       </c>
       <c r="S36" s="586" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="T36" s="25"/>
-      <c r="U36" s="676"/>
-      <c r="V36" s="633">
+      <c r="U36" s="652"/>
+      <c r="V36" s="639">
         <v>5</v>
       </c>
-      <c r="W36" s="634" t="s">
+      <c r="W36" s="640" t="s">
         <v>30</v>
       </c>
-      <c r="X36" s="634" t="s">
+      <c r="X36" s="640" t="s">
         <v>63</v>
       </c>
       <c r="Y36" s="9" t="s">
@@ -10683,7 +10694,7 @@
         <v>110</v>
       </c>
       <c r="AH36" s="552" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AI36" s="519"/>
       <c r="AJ36" s="376"/>
@@ -10691,14 +10702,14 @@
       <c r="AL36" s="550"/>
       <c r="AM36" s="372"/>
       <c r="AN36" s="25"/>
-      <c r="AO36" s="676"/>
-      <c r="AP36" s="633">
+      <c r="AO36" s="652"/>
+      <c r="AP36" s="639">
         <v>5</v>
       </c>
-      <c r="AQ36" s="634" t="s">
+      <c r="AQ36" s="640" t="s">
         <v>30</v>
       </c>
-      <c r="AR36" s="634" t="s">
+      <c r="AR36" s="640" t="s">
         <v>63</v>
       </c>
       <c r="AS36" s="9" t="s">
@@ -10733,20 +10744,20 @@
       <c r="BF36" s="195"/>
       <c r="BG36" s="359"/>
       <c r="BH36" s="232"/>
-      <c r="BI36" s="646"/>
-      <c r="BJ36" s="633">
+      <c r="BI36" s="685"/>
+      <c r="BJ36" s="639">
         <v>5</v>
       </c>
-      <c r="BK36" s="634" t="s">
+      <c r="BK36" s="640" t="s">
         <v>30</v>
       </c>
-      <c r="BL36" s="634" t="s">
+      <c r="BL36" s="640" t="s">
         <v>63</v>
       </c>
-      <c r="BM36" s="69" t="s">
+      <c r="BM36" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="BN36" s="191"/>
+      <c r="BN36" s="266"/>
       <c r="BO36" s="194"/>
       <c r="BP36" s="77"/>
       <c r="BQ36" s="196"/>
@@ -10772,15 +10783,15 @@
       <c r="CC36" s="42"/>
     </row>
     <row r="37" spans="1:81" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="676"/>
-      <c r="B37" s="630"/>
-      <c r="C37" s="632"/>
-      <c r="D37" s="632"/>
+      <c r="A37" s="652"/>
+      <c r="B37" s="636"/>
+      <c r="C37" s="638"/>
+      <c r="D37" s="638"/>
       <c r="E37" s="9" t="s">
         <v>2</v>
       </c>
       <c r="F37" s="513" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G37" s="556" t="s">
         <v>57</v>
@@ -10789,7 +10800,7 @@
         <v>82</v>
       </c>
       <c r="I37" s="496" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J37" s="502"/>
       <c r="K37" s="543" t="s">
@@ -10810,10 +10821,10 @@
       <c r="R37" s="299"/>
       <c r="S37" s="545"/>
       <c r="T37" s="223"/>
-      <c r="U37" s="676"/>
-      <c r="V37" s="630"/>
-      <c r="W37" s="632"/>
-      <c r="X37" s="632"/>
+      <c r="U37" s="652"/>
+      <c r="V37" s="636"/>
+      <c r="W37" s="638"/>
+      <c r="X37" s="638"/>
       <c r="Y37" s="9" t="s">
         <v>2</v>
       </c>
@@ -10837,13 +10848,13 @@
         <v>110</v>
       </c>
       <c r="AM37" s="552" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AN37" s="223"/>
-      <c r="AO37" s="676"/>
-      <c r="AP37" s="630"/>
-      <c r="AQ37" s="632"/>
-      <c r="AR37" s="632"/>
+      <c r="AO37" s="652"/>
+      <c r="AP37" s="636"/>
+      <c r="AQ37" s="638"/>
+      <c r="AR37" s="638"/>
       <c r="AS37" s="9" t="s">
         <v>2</v>
       </c>
@@ -10884,14 +10895,14 @@
         <v>171</v>
       </c>
       <c r="BH37" s="233"/>
-      <c r="BI37" s="646"/>
-      <c r="BJ37" s="630"/>
-      <c r="BK37" s="632"/>
-      <c r="BL37" s="632"/>
-      <c r="BM37" s="69" t="s">
+      <c r="BI37" s="685"/>
+      <c r="BJ37" s="636"/>
+      <c r="BK37" s="638"/>
+      <c r="BL37" s="638"/>
+      <c r="BM37" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="BN37" s="167"/>
+      <c r="BN37" s="137"/>
       <c r="BO37" s="166"/>
       <c r="BP37" s="77"/>
       <c r="BQ37" s="189"/>
@@ -10902,7 +10913,7 @@
       <c r="BV37" s="189"/>
       <c r="BW37" s="233"/>
       <c r="BX37" s="548" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="BY37" s="570" t="s">
         <v>80</v>
@@ -10917,21 +10928,21 @@
       <c r="CC37" s="42"/>
     </row>
     <row r="38" spans="1:81" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="676"/>
-      <c r="B38" s="665">
+      <c r="A38" s="652"/>
+      <c r="B38" s="642">
         <v>6</v>
       </c>
-      <c r="C38" s="635" t="s">
+      <c r="C38" s="641" t="s">
         <v>51</v>
       </c>
-      <c r="D38" s="635" t="s">
+      <c r="D38" s="641" t="s">
         <v>64</v>
       </c>
       <c r="E38" s="9" t="s">
         <v>1</v>
       </c>
       <c r="F38" s="513" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G38" s="556" t="s">
         <v>57</v>
@@ -10940,20 +10951,20 @@
         <v>82</v>
       </c>
       <c r="I38" s="496" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J38" s="500"/>
       <c r="K38" s="618" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="L38" s="556" t="s">
         <v>57</v>
       </c>
       <c r="M38" s="447" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="N38" s="552" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O38" s="182"/>
       <c r="P38" s="304"/>
@@ -10961,14 +10972,14 @@
       <c r="R38" s="550"/>
       <c r="S38" s="552"/>
       <c r="T38" s="182"/>
-      <c r="U38" s="676"/>
-      <c r="V38" s="665">
+      <c r="U38" s="652"/>
+      <c r="V38" s="642">
         <v>6</v>
       </c>
-      <c r="W38" s="635" t="s">
+      <c r="W38" s="641" t="s">
         <v>51</v>
       </c>
-      <c r="X38" s="635" t="s">
+      <c r="X38" s="641" t="s">
         <v>64</v>
       </c>
       <c r="Y38" s="9" t="s">
@@ -10989,7 +11000,7 @@
         <v>110</v>
       </c>
       <c r="AH38" s="552" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AI38" s="557"/>
       <c r="AJ38" s="363"/>
@@ -10997,14 +11008,14 @@
       <c r="AL38" s="364"/>
       <c r="AM38" s="372"/>
       <c r="AN38" s="182"/>
-      <c r="AO38" s="677"/>
-      <c r="AP38" s="665">
+      <c r="AO38" s="676"/>
+      <c r="AP38" s="642">
         <v>6</v>
       </c>
-      <c r="AQ38" s="635" t="s">
+      <c r="AQ38" s="641" t="s">
         <v>51</v>
       </c>
-      <c r="AR38" s="635" t="s">
+      <c r="AR38" s="641" t="s">
         <v>64</v>
       </c>
       <c r="AS38" s="9" t="s">
@@ -11033,20 +11044,20 @@
       <c r="BF38" s="77"/>
       <c r="BG38" s="359"/>
       <c r="BH38" s="203"/>
-      <c r="BI38" s="646"/>
-      <c r="BJ38" s="633">
+      <c r="BI38" s="685"/>
+      <c r="BJ38" s="639">
         <v>6</v>
       </c>
-      <c r="BK38" s="635" t="s">
+      <c r="BK38" s="641" t="s">
         <v>51</v>
       </c>
-      <c r="BL38" s="635" t="s">
+      <c r="BL38" s="641" t="s">
         <v>64</v>
       </c>
-      <c r="BM38" s="69" t="s">
+      <c r="BM38" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="BN38" s="46"/>
+      <c r="BN38" s="137"/>
       <c r="BO38" s="40"/>
       <c r="BP38" s="195"/>
       <c r="BQ38" s="183"/>
@@ -11072,10 +11083,10 @@
       <c r="CC38" s="42"/>
     </row>
     <row r="39" spans="1:81" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="678"/>
-      <c r="B39" s="636"/>
-      <c r="C39" s="637"/>
-      <c r="D39" s="637"/>
+      <c r="A39" s="653"/>
+      <c r="B39" s="643"/>
+      <c r="C39" s="644"/>
+      <c r="D39" s="644"/>
       <c r="E39" s="4" t="s">
         <v>2</v>
       </c>
@@ -11085,7 +11096,7 @@
       <c r="I39" s="505"/>
       <c r="J39" s="506"/>
       <c r="K39" s="513" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="L39" s="556" t="s">
         <v>57</v>
@@ -11094,7 +11105,7 @@
         <v>82</v>
       </c>
       <c r="N39" s="472" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O39" s="224"/>
       <c r="P39" s="300"/>
@@ -11102,10 +11113,10 @@
       <c r="R39" s="366"/>
       <c r="S39" s="533"/>
       <c r="T39" s="224"/>
-      <c r="U39" s="678"/>
-      <c r="V39" s="636"/>
-      <c r="W39" s="637"/>
-      <c r="X39" s="637"/>
+      <c r="U39" s="653"/>
+      <c r="V39" s="643"/>
+      <c r="W39" s="644"/>
+      <c r="X39" s="644"/>
       <c r="Y39" s="4" t="s">
         <v>2</v>
       </c>
@@ -11129,13 +11140,13 @@
         <v>110</v>
       </c>
       <c r="AM39" s="340" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AN39" s="224"/>
-      <c r="AO39" s="678"/>
-      <c r="AP39" s="636"/>
-      <c r="AQ39" s="637"/>
-      <c r="AR39" s="637"/>
+      <c r="AO39" s="653"/>
+      <c r="AP39" s="643"/>
+      <c r="AQ39" s="644"/>
+      <c r="AR39" s="644"/>
       <c r="AS39" s="4" t="s">
         <v>2</v>
       </c>
@@ -11162,14 +11173,14 @@
       <c r="BF39" s="211"/>
       <c r="BG39" s="147"/>
       <c r="BH39" s="234"/>
-      <c r="BI39" s="647"/>
-      <c r="BJ39" s="636"/>
-      <c r="BK39" s="637"/>
-      <c r="BL39" s="637"/>
-      <c r="BM39" s="71" t="s">
+      <c r="BI39" s="686"/>
+      <c r="BJ39" s="643"/>
+      <c r="BK39" s="644"/>
+      <c r="BL39" s="644"/>
+      <c r="BM39" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="BN39" s="167"/>
+      <c r="BN39" s="137"/>
       <c r="BO39" s="166"/>
       <c r="BP39" s="211"/>
       <c r="BQ39" s="147"/>
@@ -11187,16 +11198,16 @@
       <c r="CC39" s="42"/>
     </row>
     <row r="40" spans="1:81" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="672" t="s">
+      <c r="A40" s="648" t="s">
         <v>8</v>
       </c>
-      <c r="B40" s="629">
+      <c r="B40" s="635">
         <v>1</v>
       </c>
-      <c r="C40" s="631" t="s">
+      <c r="C40" s="637" t="s">
         <v>26</v>
       </c>
-      <c r="D40" s="631" t="s">
+      <c r="D40" s="637" t="s">
         <v>27</v>
       </c>
       <c r="E40" s="7" t="s">
@@ -11217,16 +11228,16 @@
       <c r="R40" s="568"/>
       <c r="S40" s="372"/>
       <c r="T40" s="89"/>
-      <c r="U40" s="672" t="s">
+      <c r="U40" s="648" t="s">
         <v>8</v>
       </c>
-      <c r="V40" s="629">
+      <c r="V40" s="635">
         <v>1</v>
       </c>
-      <c r="W40" s="631" t="s">
+      <c r="W40" s="637" t="s">
         <v>26</v>
       </c>
-      <c r="X40" s="631" t="s">
+      <c r="X40" s="637" t="s">
         <v>27</v>
       </c>
       <c r="Y40" s="7" t="s">
@@ -11239,10 +11250,10 @@
         <v>57</v>
       </c>
       <c r="AB40" s="364" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AC40" s="586" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AD40" s="273"/>
       <c r="AE40" s="376" t="s">
@@ -11255,7 +11266,7 @@
         <v>98</v>
       </c>
       <c r="AH40" s="372" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AI40" s="476"/>
       <c r="AJ40" s="375" t="s">
@@ -11268,19 +11279,19 @@
         <v>110</v>
       </c>
       <c r="AM40" s="354" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AN40" s="89"/>
-      <c r="AO40" s="672" t="s">
+      <c r="AO40" s="648" t="s">
         <v>8</v>
       </c>
-      <c r="AP40" s="629">
+      <c r="AP40" s="635">
         <v>1</v>
       </c>
-      <c r="AQ40" s="631" t="s">
+      <c r="AQ40" s="637" t="s">
         <v>26</v>
       </c>
-      <c r="AR40" s="631" t="s">
+      <c r="AR40" s="637" t="s">
         <v>27</v>
       </c>
       <c r="AS40" s="7" t="s">
@@ -11301,22 +11312,22 @@
       <c r="BF40" s="44"/>
       <c r="BG40" s="280"/>
       <c r="BH40" s="216"/>
-      <c r="BI40" s="641" t="s">
+      <c r="BI40" s="687" t="s">
         <v>8</v>
       </c>
-      <c r="BJ40" s="629">
+      <c r="BJ40" s="635">
         <v>1</v>
       </c>
-      <c r="BK40" s="631" t="s">
+      <c r="BK40" s="637" t="s">
         <v>26</v>
       </c>
-      <c r="BL40" s="631" t="s">
+      <c r="BL40" s="637" t="s">
         <v>27</v>
       </c>
-      <c r="BM40" s="7" t="s">
+      <c r="BM40" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="BN40" s="148"/>
+      <c r="BN40" s="699"/>
       <c r="BO40" s="99"/>
       <c r="BP40" s="44"/>
       <c r="BQ40" s="108"/>
@@ -11340,10 +11351,10 @@
       <c r="CC40" s="42"/>
     </row>
     <row r="41" spans="1:81" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="673"/>
-      <c r="B41" s="630"/>
-      <c r="C41" s="632"/>
-      <c r="D41" s="632"/>
+      <c r="A41" s="649"/>
+      <c r="B41" s="636"/>
+      <c r="C41" s="638"/>
+      <c r="D41" s="638"/>
       <c r="E41" s="125" t="s">
         <v>2</v>
       </c>
@@ -11364,16 +11375,16 @@
         <v>57</v>
       </c>
       <c r="R41" s="364" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S41" s="586" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="T41" s="182"/>
-      <c r="U41" s="673"/>
-      <c r="V41" s="630"/>
-      <c r="W41" s="632"/>
-      <c r="X41" s="632"/>
+      <c r="U41" s="649"/>
+      <c r="V41" s="636"/>
+      <c r="W41" s="638"/>
+      <c r="X41" s="638"/>
       <c r="Y41" s="8" t="s">
         <v>2</v>
       </c>
@@ -11397,13 +11408,13 @@
         <v>98</v>
       </c>
       <c r="AM41" s="372" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AN41" s="182"/>
-      <c r="AO41" s="673"/>
-      <c r="AP41" s="630"/>
-      <c r="AQ41" s="632"/>
-      <c r="AR41" s="632"/>
+      <c r="AO41" s="649"/>
+      <c r="AP41" s="636"/>
+      <c r="AQ41" s="638"/>
+      <c r="AR41" s="638"/>
       <c r="AS41" s="8" t="s">
         <v>2</v>
       </c>
@@ -11422,10 +11433,10 @@
       <c r="BF41" s="195"/>
       <c r="BG41" s="359"/>
       <c r="BH41" s="203"/>
-      <c r="BI41" s="642"/>
-      <c r="BJ41" s="630"/>
-      <c r="BK41" s="632"/>
-      <c r="BL41" s="632"/>
+      <c r="BI41" s="688"/>
+      <c r="BJ41" s="636"/>
+      <c r="BK41" s="638"/>
+      <c r="BL41" s="638"/>
       <c r="BM41" s="8" t="s">
         <v>2</v>
       </c>
@@ -11453,14 +11464,14 @@
       <c r="CC41" s="42"/>
     </row>
     <row r="42" spans="1:81" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="673"/>
-      <c r="B42" s="633">
+      <c r="A42" s="649"/>
+      <c r="B42" s="639">
         <v>2</v>
       </c>
-      <c r="C42" s="634" t="s">
+      <c r="C42" s="640" t="s">
         <v>28</v>
       </c>
-      <c r="D42" s="634" t="s">
+      <c r="D42" s="640" t="s">
         <v>29</v>
       </c>
       <c r="E42" s="125" t="s">
@@ -11481,14 +11492,14 @@
       <c r="R42" s="550"/>
       <c r="S42" s="372"/>
       <c r="T42" s="160"/>
-      <c r="U42" s="673"/>
-      <c r="V42" s="633">
+      <c r="U42" s="649"/>
+      <c r="V42" s="639">
         <v>2</v>
       </c>
-      <c r="W42" s="634" t="s">
+      <c r="W42" s="640" t="s">
         <v>28</v>
       </c>
-      <c r="X42" s="634" t="s">
+      <c r="X42" s="640" t="s">
         <v>29</v>
       </c>
       <c r="Y42" s="9" t="s">
@@ -11501,10 +11512,10 @@
         <v>57</v>
       </c>
       <c r="AB42" s="364" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AC42" s="586" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AD42" s="296"/>
       <c r="AE42" s="376" t="s">
@@ -11517,7 +11528,7 @@
         <v>98</v>
       </c>
       <c r="AH42" s="372" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AI42" s="510"/>
       <c r="AJ42" s="536" t="s">
@@ -11530,17 +11541,17 @@
         <v>110</v>
       </c>
       <c r="AM42" s="552" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AN42" s="160"/>
-      <c r="AO42" s="673"/>
-      <c r="AP42" s="633">
+      <c r="AO42" s="649"/>
+      <c r="AP42" s="639">
         <v>2</v>
       </c>
-      <c r="AQ42" s="634" t="s">
+      <c r="AQ42" s="640" t="s">
         <v>28</v>
       </c>
-      <c r="AR42" s="634" t="s">
+      <c r="AR42" s="640" t="s">
         <v>29</v>
       </c>
       <c r="AS42" s="9" t="s">
@@ -11567,14 +11578,14 @@
       <c r="BF42" s="176"/>
       <c r="BG42" s="359"/>
       <c r="BH42" s="220"/>
-      <c r="BI42" s="642"/>
-      <c r="BJ42" s="633">
+      <c r="BI42" s="688"/>
+      <c r="BJ42" s="639">
         <v>2</v>
       </c>
-      <c r="BK42" s="634" t="s">
+      <c r="BK42" s="640" t="s">
         <v>28</v>
       </c>
-      <c r="BL42" s="634" t="s">
+      <c r="BL42" s="640" t="s">
         <v>29</v>
       </c>
       <c r="BM42" s="9" t="s">
@@ -11590,7 +11601,7 @@
         <v>177</v>
       </c>
       <c r="BQ42" s="113" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="BR42" s="510"/>
       <c r="BS42" s="250"/>
@@ -11612,10 +11623,10 @@
       <c r="CC42" s="42"/>
     </row>
     <row r="43" spans="1:81" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="673"/>
-      <c r="B43" s="630"/>
-      <c r="C43" s="632"/>
-      <c r="D43" s="632"/>
+      <c r="A43" s="649"/>
+      <c r="B43" s="636"/>
+      <c r="C43" s="638"/>
+      <c r="D43" s="638"/>
       <c r="E43" s="125" t="s">
         <v>2</v>
       </c>
@@ -11636,16 +11647,16 @@
         <v>57</v>
       </c>
       <c r="R43" s="364" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S43" s="586" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="T43" s="160"/>
-      <c r="U43" s="673"/>
-      <c r="V43" s="630"/>
-      <c r="W43" s="632"/>
-      <c r="X43" s="632"/>
+      <c r="U43" s="649"/>
+      <c r="V43" s="636"/>
+      <c r="W43" s="638"/>
+      <c r="X43" s="638"/>
       <c r="Y43" s="9" t="s">
         <v>2</v>
       </c>
@@ -11661,10 +11672,10 @@
         <v>57</v>
       </c>
       <c r="AG43" s="550" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AH43" s="354" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AI43" s="510"/>
       <c r="AJ43" s="376" t="s">
@@ -11677,13 +11688,13 @@
         <v>98</v>
       </c>
       <c r="AM43" s="372" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AN43" s="160"/>
-      <c r="AO43" s="673"/>
-      <c r="AP43" s="630"/>
-      <c r="AQ43" s="632"/>
-      <c r="AR43" s="632"/>
+      <c r="AO43" s="649"/>
+      <c r="AP43" s="636"/>
+      <c r="AQ43" s="638"/>
+      <c r="AR43" s="638"/>
       <c r="AS43" s="9" t="s">
         <v>2</v>
       </c>
@@ -11708,10 +11719,10 @@
       <c r="BF43" s="195"/>
       <c r="BG43" s="196"/>
       <c r="BH43" s="220"/>
-      <c r="BI43" s="643"/>
-      <c r="BJ43" s="630"/>
-      <c r="BK43" s="632"/>
-      <c r="BL43" s="632"/>
+      <c r="BI43" s="689"/>
+      <c r="BJ43" s="636"/>
+      <c r="BK43" s="638"/>
+      <c r="BL43" s="638"/>
       <c r="BM43" s="9" t="s">
         <v>2</v>
       </c>
@@ -11730,7 +11741,7 @@
         <v>177</v>
       </c>
       <c r="BV43" s="113" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="BW43" s="220"/>
       <c r="BX43" s="295" t="s">
@@ -11747,14 +11758,14 @@
       <c r="CC43" s="42"/>
     </row>
     <row r="44" spans="1:81" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="673"/>
-      <c r="B44" s="633">
+      <c r="A44" s="649"/>
+      <c r="B44" s="639">
         <v>3</v>
       </c>
-      <c r="C44" s="634" t="s">
+      <c r="C44" s="640" t="s">
         <v>59</v>
       </c>
-      <c r="D44" s="634" t="s">
+      <c r="D44" s="640" t="s">
         <v>60</v>
       </c>
       <c r="E44" s="125" t="s">
@@ -11775,14 +11786,14 @@
       <c r="R44" s="364"/>
       <c r="S44" s="337"/>
       <c r="T44" s="160"/>
-      <c r="U44" s="673"/>
-      <c r="V44" s="633">
+      <c r="U44" s="649"/>
+      <c r="V44" s="639">
         <v>3</v>
       </c>
-      <c r="W44" s="634" t="s">
+      <c r="W44" s="640" t="s">
         <v>59</v>
       </c>
-      <c r="X44" s="634" t="s">
+      <c r="X44" s="640" t="s">
         <v>60</v>
       </c>
       <c r="Y44" s="9" t="s">
@@ -11803,7 +11814,7 @@
         <v>98</v>
       </c>
       <c r="AH44" s="372" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AI44" s="510"/>
       <c r="AJ44" s="536" t="s">
@@ -11816,17 +11827,17 @@
         <v>110</v>
       </c>
       <c r="AM44" s="552" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AN44" s="160"/>
-      <c r="AO44" s="673"/>
-      <c r="AP44" s="633">
+      <c r="AO44" s="649"/>
+      <c r="AP44" s="639">
         <v>3</v>
       </c>
-      <c r="AQ44" s="634" t="s">
+      <c r="AQ44" s="640" t="s">
         <v>59</v>
       </c>
-      <c r="AR44" s="634" t="s">
+      <c r="AR44" s="640" t="s">
         <v>60</v>
       </c>
       <c r="AS44" s="9" t="s">
@@ -11867,14 +11878,14 @@
         <v>186</v>
       </c>
       <c r="BH44" s="220"/>
-      <c r="BI44" s="643"/>
-      <c r="BJ44" s="633">
+      <c r="BI44" s="689"/>
+      <c r="BJ44" s="639">
         <v>3</v>
       </c>
-      <c r="BK44" s="634" t="s">
+      <c r="BK44" s="640" t="s">
         <v>59</v>
       </c>
-      <c r="BL44" s="634" t="s">
+      <c r="BL44" s="640" t="s">
         <v>60</v>
       </c>
       <c r="BM44" s="9" t="s">
@@ -11890,7 +11901,7 @@
         <v>175</v>
       </c>
       <c r="BQ44" s="113" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="BR44" s="348"/>
       <c r="BS44" s="548"/>
@@ -11906,10 +11917,10 @@
       <c r="CC44" s="42"/>
     </row>
     <row r="45" spans="1:81" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="673"/>
-      <c r="B45" s="630"/>
-      <c r="C45" s="635"/>
-      <c r="D45" s="635"/>
+      <c r="A45" s="649"/>
+      <c r="B45" s="636"/>
+      <c r="C45" s="641"/>
+      <c r="D45" s="641"/>
       <c r="E45" s="9" t="s">
         <v>2</v>
       </c>
@@ -11928,10 +11939,10 @@
       <c r="R45" s="364"/>
       <c r="S45" s="372"/>
       <c r="T45" s="160"/>
-      <c r="U45" s="673"/>
-      <c r="V45" s="630"/>
-      <c r="W45" s="635"/>
-      <c r="X45" s="635"/>
+      <c r="U45" s="649"/>
+      <c r="V45" s="636"/>
+      <c r="W45" s="641"/>
+      <c r="X45" s="641"/>
       <c r="Y45" s="9" t="s">
         <v>2</v>
       </c>
@@ -11947,10 +11958,10 @@
         <v>57</v>
       </c>
       <c r="AG45" s="550" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AH45" s="354" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AI45" s="510"/>
       <c r="AJ45" s="376" t="s">
@@ -11963,13 +11974,13 @@
         <v>98</v>
       </c>
       <c r="AM45" s="372" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AN45" s="160"/>
-      <c r="AO45" s="673"/>
-      <c r="AP45" s="630"/>
-      <c r="AQ45" s="635"/>
-      <c r="AR45" s="635"/>
+      <c r="AO45" s="649"/>
+      <c r="AP45" s="636"/>
+      <c r="AQ45" s="641"/>
+      <c r="AR45" s="641"/>
       <c r="AS45" s="9" t="s">
         <v>2</v>
       </c>
@@ -11994,10 +12005,10 @@
       <c r="BF45" s="550"/>
       <c r="BG45" s="552"/>
       <c r="BH45" s="220"/>
-      <c r="BI45" s="642"/>
-      <c r="BJ45" s="630"/>
-      <c r="BK45" s="635"/>
-      <c r="BL45" s="635"/>
+      <c r="BI45" s="688"/>
+      <c r="BJ45" s="636"/>
+      <c r="BK45" s="641"/>
+      <c r="BL45" s="641"/>
       <c r="BM45" s="9" t="s">
         <v>2</v>
       </c>
@@ -12016,7 +12027,7 @@
         <v>175</v>
       </c>
       <c r="BV45" s="113" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="BW45" s="220"/>
       <c r="BX45" s="140"/>
@@ -12027,21 +12038,21 @@
       <c r="CC45" s="42"/>
     </row>
     <row r="46" spans="1:81" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="673"/>
-      <c r="B46" s="633">
+      <c r="A46" s="649"/>
+      <c r="B46" s="639">
         <v>4</v>
       </c>
-      <c r="C46" s="634" t="s">
+      <c r="C46" s="640" t="s">
         <v>61</v>
       </c>
-      <c r="D46" s="634" t="s">
+      <c r="D46" s="640" t="s">
         <v>62</v>
       </c>
       <c r="E46" s="9" t="s">
         <v>1</v>
       </c>
       <c r="F46" s="513" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G46" s="556" t="s">
         <v>69</v>
@@ -12054,7 +12065,7 @@
       </c>
       <c r="J46" s="510"/>
       <c r="K46" s="513" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="L46" s="556" t="s">
         <v>69</v>
@@ -12071,14 +12082,14 @@
       <c r="R46" s="364"/>
       <c r="S46" s="372"/>
       <c r="T46" s="160"/>
-      <c r="U46" s="673"/>
-      <c r="V46" s="633">
+      <c r="U46" s="649"/>
+      <c r="V46" s="639">
         <v>4</v>
       </c>
-      <c r="W46" s="634" t="s">
+      <c r="W46" s="640" t="s">
         <v>61</v>
       </c>
-      <c r="X46" s="634" t="s">
+      <c r="X46" s="640" t="s">
         <v>62</v>
       </c>
       <c r="Y46" s="9" t="s">
@@ -12099,7 +12110,7 @@
         <v>110</v>
       </c>
       <c r="AH46" s="552" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AI46" s="510"/>
       <c r="AJ46" s="376" t="s">
@@ -12112,17 +12123,17 @@
         <v>98</v>
       </c>
       <c r="AM46" s="372" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AN46" s="160"/>
-      <c r="AO46" s="673"/>
-      <c r="AP46" s="633">
+      <c r="AO46" s="649"/>
+      <c r="AP46" s="639">
         <v>4</v>
       </c>
-      <c r="AQ46" s="634" t="s">
+      <c r="AQ46" s="640" t="s">
         <v>61</v>
       </c>
-      <c r="AR46" s="634" t="s">
+      <c r="AR46" s="640" t="s">
         <v>62</v>
       </c>
       <c r="AS46" s="9" t="s">
@@ -12157,14 +12168,14 @@
         <v>157</v>
       </c>
       <c r="BH46" s="220"/>
-      <c r="BI46" s="642"/>
-      <c r="BJ46" s="633">
+      <c r="BI46" s="688"/>
+      <c r="BJ46" s="639">
         <v>4</v>
       </c>
-      <c r="BK46" s="634" t="s">
+      <c r="BK46" s="640" t="s">
         <v>61</v>
       </c>
-      <c r="BL46" s="634" t="s">
+      <c r="BL46" s="640" t="s">
         <v>62</v>
       </c>
       <c r="BM46" s="9" t="s">
@@ -12188,10 +12199,10 @@
       <c r="CC46" s="42"/>
     </row>
     <row r="47" spans="1:81" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="673"/>
-      <c r="B47" s="630"/>
-      <c r="C47" s="632"/>
-      <c r="D47" s="632"/>
+      <c r="A47" s="649"/>
+      <c r="B47" s="636"/>
+      <c r="C47" s="638"/>
+      <c r="D47" s="638"/>
       <c r="E47" s="9" t="s">
         <v>2</v>
       </c>
@@ -12205,7 +12216,7 @@
         <v>72</v>
       </c>
       <c r="I47" s="507" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J47" s="511"/>
       <c r="K47" s="517" t="s">
@@ -12218,7 +12229,7 @@
         <v>72</v>
       </c>
       <c r="N47" s="552" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O47" s="225"/>
       <c r="P47" s="374"/>
@@ -12226,10 +12237,10 @@
       <c r="R47" s="364"/>
       <c r="S47" s="372"/>
       <c r="T47" s="225"/>
-      <c r="U47" s="673"/>
-      <c r="V47" s="630"/>
-      <c r="W47" s="632"/>
-      <c r="X47" s="632"/>
+      <c r="U47" s="649"/>
+      <c r="V47" s="636"/>
+      <c r="W47" s="638"/>
+      <c r="X47" s="638"/>
       <c r="Y47" s="9" t="s">
         <v>2</v>
       </c>
@@ -12248,7 +12259,7 @@
         <v>98</v>
       </c>
       <c r="AH47" s="372" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AI47" s="348"/>
       <c r="AJ47" s="367" t="s">
@@ -12258,16 +12269,16 @@
         <v>57</v>
       </c>
       <c r="AL47" s="550" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AM47" s="354" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AN47" s="225"/>
-      <c r="AO47" s="673"/>
-      <c r="AP47" s="630"/>
-      <c r="AQ47" s="632"/>
-      <c r="AR47" s="632"/>
+      <c r="AO47" s="649"/>
+      <c r="AP47" s="636"/>
+      <c r="AQ47" s="638"/>
+      <c r="AR47" s="638"/>
       <c r="AS47" s="9" t="s">
         <v>2</v>
       </c>
@@ -12299,13 +12310,13 @@
         <v>72</v>
       </c>
       <c r="BG47" s="81" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="BH47" s="235"/>
-      <c r="BI47" s="642"/>
-      <c r="BJ47" s="630"/>
-      <c r="BK47" s="632"/>
-      <c r="BL47" s="632"/>
+      <c r="BI47" s="688"/>
+      <c r="BJ47" s="636"/>
+      <c r="BK47" s="638"/>
+      <c r="BL47" s="638"/>
       <c r="BM47" s="9" t="s">
         <v>2</v>
       </c>
@@ -12327,14 +12338,14 @@
       <c r="CC47" s="42"/>
     </row>
     <row r="48" spans="1:81" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="673"/>
-      <c r="B48" s="633">
+      <c r="A48" s="649"/>
+      <c r="B48" s="639">
         <v>5</v>
       </c>
-      <c r="C48" s="634" t="s">
+      <c r="C48" s="640" t="s">
         <v>30</v>
       </c>
-      <c r="D48" s="634" t="s">
+      <c r="D48" s="640" t="s">
         <v>63</v>
       </c>
       <c r="E48" s="9" t="s">
@@ -12371,14 +12382,14 @@
       <c r="R48" s="364"/>
       <c r="S48" s="372"/>
       <c r="T48" s="226"/>
-      <c r="U48" s="673"/>
-      <c r="V48" s="633">
+      <c r="U48" s="649"/>
+      <c r="V48" s="639">
         <v>5</v>
       </c>
-      <c r="W48" s="634" t="s">
+      <c r="W48" s="640" t="s">
         <v>30</v>
       </c>
-      <c r="X48" s="634" t="s">
+      <c r="X48" s="640" t="s">
         <v>63</v>
       </c>
       <c r="Y48" s="9" t="s">
@@ -12399,7 +12410,7 @@
         <v>110</v>
       </c>
       <c r="AH48" s="552" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AI48" s="512"/>
       <c r="AJ48" s="376" t="s">
@@ -12412,17 +12423,17 @@
         <v>98</v>
       </c>
       <c r="AM48" s="372" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AN48" s="226"/>
-      <c r="AO48" s="673"/>
-      <c r="AP48" s="633">
+      <c r="AO48" s="649"/>
+      <c r="AP48" s="639">
         <v>5</v>
       </c>
-      <c r="AQ48" s="634" t="s">
+      <c r="AQ48" s="640" t="s">
         <v>30</v>
       </c>
-      <c r="AR48" s="634" t="s">
+      <c r="AR48" s="640" t="s">
         <v>63</v>
       </c>
       <c r="AS48" s="9" t="s">
@@ -12451,14 +12462,14 @@
         <v>157</v>
       </c>
       <c r="BH48" s="236"/>
-      <c r="BI48" s="642"/>
-      <c r="BJ48" s="633">
+      <c r="BI48" s="688"/>
+      <c r="BJ48" s="639">
         <v>5</v>
       </c>
-      <c r="BK48" s="634" t="s">
+      <c r="BK48" s="640" t="s">
         <v>30</v>
       </c>
-      <c r="BL48" s="634" t="s">
+      <c r="BL48" s="640" t="s">
         <v>63</v>
       </c>
       <c r="BM48" s="9" t="s">
@@ -12482,10 +12493,10 @@
       <c r="CC48" s="42"/>
     </row>
     <row r="49" spans="1:81" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="673"/>
-      <c r="B49" s="630"/>
-      <c r="C49" s="632"/>
-      <c r="D49" s="632"/>
+      <c r="A49" s="649"/>
+      <c r="B49" s="636"/>
+      <c r="C49" s="638"/>
+      <c r="D49" s="638"/>
       <c r="E49" s="9" t="s">
         <v>2</v>
       </c>
@@ -12499,7 +12510,7 @@
         <v>84</v>
       </c>
       <c r="I49" s="552" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J49" s="511"/>
       <c r="K49" s="516" t="s">
@@ -12512,7 +12523,7 @@
         <v>84</v>
       </c>
       <c r="N49" s="552" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O49" s="182"/>
       <c r="P49" s="374"/>
@@ -12520,10 +12531,10 @@
       <c r="R49" s="364"/>
       <c r="S49" s="372"/>
       <c r="T49" s="182"/>
-      <c r="U49" s="673"/>
-      <c r="V49" s="630"/>
-      <c r="W49" s="632"/>
-      <c r="X49" s="632"/>
+      <c r="U49" s="649"/>
+      <c r="V49" s="636"/>
+      <c r="W49" s="638"/>
+      <c r="X49" s="638"/>
       <c r="Y49" s="9" t="s">
         <v>2</v>
       </c>
@@ -12544,16 +12555,16 @@
         <v>57</v>
       </c>
       <c r="AL49" s="550" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AM49" s="354" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AN49" s="182"/>
-      <c r="AO49" s="673"/>
-      <c r="AP49" s="630"/>
-      <c r="AQ49" s="632"/>
-      <c r="AR49" s="632"/>
+      <c r="AO49" s="649"/>
+      <c r="AP49" s="636"/>
+      <c r="AQ49" s="638"/>
+      <c r="AR49" s="638"/>
       <c r="AS49" s="9" t="s">
         <v>2</v>
       </c>
@@ -12585,13 +12596,13 @@
         <v>150</v>
       </c>
       <c r="BG49" s="81" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="BH49" s="203"/>
-      <c r="BI49" s="642"/>
-      <c r="BJ49" s="630"/>
-      <c r="BK49" s="632"/>
-      <c r="BL49" s="632"/>
+      <c r="BI49" s="688"/>
+      <c r="BJ49" s="636"/>
+      <c r="BK49" s="638"/>
+      <c r="BL49" s="638"/>
       <c r="BM49" s="9" t="s">
         <v>2</v>
       </c>
@@ -12613,14 +12624,14 @@
       <c r="CC49" s="42"/>
     </row>
     <row r="50" spans="1:81" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="673"/>
-      <c r="B50" s="665">
+      <c r="A50" s="649"/>
+      <c r="B50" s="642">
         <v>6</v>
       </c>
-      <c r="C50" s="635" t="s">
+      <c r="C50" s="641" t="s">
         <v>51</v>
       </c>
-      <c r="D50" s="635" t="s">
+      <c r="D50" s="641" t="s">
         <v>64</v>
       </c>
       <c r="E50" s="9" t="s">
@@ -12657,14 +12668,14 @@
       <c r="R50" s="364"/>
       <c r="S50" s="586"/>
       <c r="T50" s="160"/>
-      <c r="U50" s="673"/>
-      <c r="V50" s="665">
+      <c r="U50" s="649"/>
+      <c r="V50" s="642">
         <v>6</v>
       </c>
-      <c r="W50" s="635" t="s">
+      <c r="W50" s="641" t="s">
         <v>51</v>
       </c>
-      <c r="X50" s="635" t="s">
+      <c r="X50" s="641" t="s">
         <v>64</v>
       </c>
       <c r="Y50" s="9" t="s">
@@ -12685,14 +12696,14 @@
       <c r="AL50" s="377"/>
       <c r="AM50" s="552"/>
       <c r="AN50" s="160"/>
-      <c r="AO50" s="673"/>
-      <c r="AP50" s="665">
+      <c r="AO50" s="649"/>
+      <c r="AP50" s="642">
         <v>6</v>
       </c>
-      <c r="AQ50" s="635" t="s">
+      <c r="AQ50" s="641" t="s">
         <v>51</v>
       </c>
-      <c r="AR50" s="635" t="s">
+      <c r="AR50" s="641" t="s">
         <v>64</v>
       </c>
       <c r="AS50" s="9" t="s">
@@ -12713,14 +12724,14 @@
       <c r="BF50" s="195"/>
       <c r="BG50" s="359"/>
       <c r="BH50" s="220"/>
-      <c r="BI50" s="642"/>
-      <c r="BJ50" s="633">
+      <c r="BI50" s="688"/>
+      <c r="BJ50" s="639">
         <v>6</v>
       </c>
-      <c r="BK50" s="635" t="s">
+      <c r="BK50" s="641" t="s">
         <v>51</v>
       </c>
-      <c r="BL50" s="635" t="s">
+      <c r="BL50" s="641" t="s">
         <v>64</v>
       </c>
       <c r="BM50" s="9" t="s">
@@ -12744,10 +12755,10 @@
       <c r="CC50" s="42"/>
     </row>
     <row r="51" spans="1:81" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="674"/>
-      <c r="B51" s="636"/>
-      <c r="C51" s="637"/>
-      <c r="D51" s="637"/>
+      <c r="A51" s="650"/>
+      <c r="B51" s="643"/>
+      <c r="C51" s="644"/>
+      <c r="D51" s="644"/>
       <c r="E51" s="4" t="s">
         <v>2</v>
       </c>
@@ -12766,10 +12777,10 @@
       <c r="R51" s="366"/>
       <c r="S51" s="329"/>
       <c r="T51" s="92"/>
-      <c r="U51" s="674"/>
-      <c r="V51" s="636"/>
-      <c r="W51" s="637"/>
-      <c r="X51" s="637"/>
+      <c r="U51" s="650"/>
+      <c r="V51" s="643"/>
+      <c r="W51" s="644"/>
+      <c r="X51" s="644"/>
       <c r="Y51" s="4" t="s">
         <v>2</v>
       </c>
@@ -12788,10 +12799,10 @@
       <c r="AL51" s="369"/>
       <c r="AM51" s="378"/>
       <c r="AN51" s="92"/>
-      <c r="AO51" s="674"/>
-      <c r="AP51" s="636"/>
-      <c r="AQ51" s="637"/>
-      <c r="AR51" s="637"/>
+      <c r="AO51" s="650"/>
+      <c r="AP51" s="643"/>
+      <c r="AQ51" s="644"/>
+      <c r="AR51" s="644"/>
       <c r="AS51" s="4" t="s">
         <v>2</v>
       </c>
@@ -12810,10 +12821,10 @@
       <c r="BF51" s="178"/>
       <c r="BG51" s="242"/>
       <c r="BH51" s="237"/>
-      <c r="BI51" s="644"/>
-      <c r="BJ51" s="636"/>
-      <c r="BK51" s="637"/>
-      <c r="BL51" s="637"/>
+      <c r="BI51" s="690"/>
+      <c r="BJ51" s="643"/>
+      <c r="BK51" s="644"/>
+      <c r="BL51" s="644"/>
       <c r="BM51" s="4" t="s">
         <v>2</v>
       </c>
@@ -12835,16 +12846,16 @@
       <c r="CC51" s="42"/>
     </row>
     <row r="52" spans="1:81" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="669" t="s">
+      <c r="A52" s="645" t="s">
         <v>9</v>
       </c>
-      <c r="B52" s="629">
+      <c r="B52" s="635">
         <v>1</v>
       </c>
-      <c r="C52" s="631" t="s">
+      <c r="C52" s="637" t="s">
         <v>26</v>
       </c>
-      <c r="D52" s="631" t="s">
+      <c r="D52" s="637" t="s">
         <v>27</v>
       </c>
       <c r="E52" s="7" t="s">
@@ -12871,16 +12882,16 @@
         <v>58</v>
       </c>
       <c r="T52" s="238"/>
-      <c r="U52" s="669" t="s">
+      <c r="U52" s="645" t="s">
         <v>9</v>
       </c>
-      <c r="V52" s="629">
+      <c r="V52" s="635">
         <v>1</v>
       </c>
-      <c r="W52" s="631" t="s">
+      <c r="W52" s="637" t="s">
         <v>26</v>
       </c>
-      <c r="X52" s="631" t="s">
+      <c r="X52" s="637" t="s">
         <v>27</v>
       </c>
       <c r="Y52" s="7" t="s">
@@ -12919,16 +12930,16 @@
         <v>58</v>
       </c>
       <c r="AN52" s="227"/>
-      <c r="AO52" s="669" t="s">
+      <c r="AO52" s="645" t="s">
         <v>9</v>
       </c>
-      <c r="AP52" s="629">
+      <c r="AP52" s="635">
         <v>1</v>
       </c>
-      <c r="AQ52" s="631" t="s">
+      <c r="AQ52" s="637" t="s">
         <v>26</v>
       </c>
-      <c r="AR52" s="631" t="s">
+      <c r="AR52" s="637" t="s">
         <v>27</v>
       </c>
       <c r="AS52" s="7" t="s">
@@ -12955,16 +12966,16 @@
         <v>87</v>
       </c>
       <c r="BH52" s="238"/>
-      <c r="BI52" s="638" t="s">
+      <c r="BI52" s="691" t="s">
         <v>9</v>
       </c>
-      <c r="BJ52" s="629">
+      <c r="BJ52" s="635">
         <v>1</v>
       </c>
-      <c r="BK52" s="631" t="s">
+      <c r="BK52" s="637" t="s">
         <v>26</v>
       </c>
-      <c r="BL52" s="631" t="s">
+      <c r="BL52" s="637" t="s">
         <v>27</v>
       </c>
       <c r="BM52" s="49" t="s">
@@ -12993,7 +13004,7 @@
       </c>
       <c r="BW52" s="238"/>
       <c r="BX52" s="411" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BY52" s="356" t="s">
         <v>80</v>
@@ -13008,10 +13019,10 @@
       <c r="CC52" s="42"/>
     </row>
     <row r="53" spans="1:81" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="670"/>
-      <c r="B53" s="630"/>
-      <c r="C53" s="632"/>
-      <c r="D53" s="632"/>
+      <c r="A53" s="646"/>
+      <c r="B53" s="636"/>
+      <c r="C53" s="638"/>
+      <c r="D53" s="638"/>
       <c r="E53" s="8" t="s">
         <v>2</v>
       </c>
@@ -13036,10 +13047,10 @@
         <v>58</v>
       </c>
       <c r="T53" s="238"/>
-      <c r="U53" s="670"/>
-      <c r="V53" s="630"/>
-      <c r="W53" s="632"/>
-      <c r="X53" s="632"/>
+      <c r="U53" s="646"/>
+      <c r="V53" s="636"/>
+      <c r="W53" s="638"/>
+      <c r="X53" s="638"/>
       <c r="Y53" s="8" t="s">
         <v>2</v>
       </c>
@@ -13076,10 +13087,10 @@
         <v>58</v>
       </c>
       <c r="AN53" s="227"/>
-      <c r="AO53" s="670"/>
-      <c r="AP53" s="630"/>
-      <c r="AQ53" s="632"/>
-      <c r="AR53" s="632"/>
+      <c r="AO53" s="646"/>
+      <c r="AP53" s="636"/>
+      <c r="AQ53" s="638"/>
+      <c r="AR53" s="638"/>
       <c r="AS53" s="8" t="s">
         <v>2</v>
       </c>
@@ -13104,10 +13115,10 @@
         <v>87</v>
       </c>
       <c r="BH53" s="238"/>
-      <c r="BI53" s="639"/>
-      <c r="BJ53" s="630"/>
-      <c r="BK53" s="632"/>
-      <c r="BL53" s="632"/>
+      <c r="BI53" s="692"/>
+      <c r="BJ53" s="636"/>
+      <c r="BK53" s="638"/>
+      <c r="BL53" s="638"/>
       <c r="BM53" s="41" t="s">
         <v>2</v>
       </c>
@@ -13149,14 +13160,14 @@
       <c r="CC53" s="42"/>
     </row>
     <row r="54" spans="1:81" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="670"/>
-      <c r="B54" s="633">
+      <c r="A54" s="646"/>
+      <c r="B54" s="639">
         <v>2</v>
       </c>
-      <c r="C54" s="634" t="s">
+      <c r="C54" s="640" t="s">
         <v>28</v>
       </c>
-      <c r="D54" s="634" t="s">
+      <c r="D54" s="640" t="s">
         <v>29</v>
       </c>
       <c r="E54" s="9" t="s">
@@ -13183,14 +13194,14 @@
         <v>87</v>
       </c>
       <c r="T54" s="232"/>
-      <c r="U54" s="670"/>
-      <c r="V54" s="633">
+      <c r="U54" s="646"/>
+      <c r="V54" s="639">
         <v>2</v>
       </c>
-      <c r="W54" s="634" t="s">
+      <c r="W54" s="640" t="s">
         <v>28</v>
       </c>
-      <c r="X54" s="634" t="s">
+      <c r="X54" s="640" t="s">
         <v>29</v>
       </c>
       <c r="Y54" s="9" t="s">
@@ -13233,14 +13244,14 @@
         <v>346</v>
       </c>
       <c r="AN54" s="25"/>
-      <c r="AO54" s="670"/>
-      <c r="AP54" s="633">
+      <c r="AO54" s="646"/>
+      <c r="AP54" s="639">
         <v>2</v>
       </c>
-      <c r="AQ54" s="634" t="s">
+      <c r="AQ54" s="640" t="s">
         <v>28</v>
       </c>
-      <c r="AR54" s="634" t="s">
+      <c r="AR54" s="640" t="s">
         <v>29</v>
       </c>
       <c r="AS54" s="9" t="s">
@@ -13267,14 +13278,14 @@
         <v>58</v>
       </c>
       <c r="BH54" s="232"/>
-      <c r="BI54" s="639"/>
-      <c r="BJ54" s="633">
+      <c r="BI54" s="692"/>
+      <c r="BJ54" s="639">
         <v>2</v>
       </c>
-      <c r="BK54" s="634" t="s">
+      <c r="BK54" s="640" t="s">
         <v>28</v>
       </c>
-      <c r="BL54" s="634" t="s">
+      <c r="BL54" s="640" t="s">
         <v>29</v>
       </c>
       <c r="BM54" s="69" t="s">
@@ -13303,7 +13314,7 @@
       </c>
       <c r="BW54" s="232"/>
       <c r="BX54" s="411" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BY54" s="356" t="s">
         <v>80</v>
@@ -13318,10 +13329,10 @@
       <c r="CC54" s="42"/>
     </row>
     <row r="55" spans="1:81" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="670"/>
-      <c r="B55" s="630"/>
-      <c r="C55" s="632"/>
-      <c r="D55" s="632"/>
+      <c r="A55" s="646"/>
+      <c r="B55" s="636"/>
+      <c r="C55" s="638"/>
+      <c r="D55" s="638"/>
       <c r="E55" s="8" t="s">
         <v>2</v>
       </c>
@@ -13346,10 +13357,10 @@
         <v>87</v>
       </c>
       <c r="T55" s="232"/>
-      <c r="U55" s="670"/>
-      <c r="V55" s="630"/>
-      <c r="W55" s="632"/>
-      <c r="X55" s="632"/>
+      <c r="U55" s="646"/>
+      <c r="V55" s="636"/>
+      <c r="W55" s="638"/>
+      <c r="X55" s="638"/>
       <c r="Y55" s="9" t="s">
         <v>2</v>
       </c>
@@ -13388,10 +13399,10 @@
         <v>20</v>
       </c>
       <c r="AN55" s="25"/>
-      <c r="AO55" s="670"/>
-      <c r="AP55" s="630"/>
-      <c r="AQ55" s="632"/>
-      <c r="AR55" s="632"/>
+      <c r="AO55" s="646"/>
+      <c r="AP55" s="636"/>
+      <c r="AQ55" s="638"/>
+      <c r="AR55" s="638"/>
       <c r="AS55" s="9" t="s">
         <v>2</v>
       </c>
@@ -13416,10 +13427,10 @@
         <v>58</v>
       </c>
       <c r="BH55" s="232"/>
-      <c r="BI55" s="639"/>
-      <c r="BJ55" s="630"/>
-      <c r="BK55" s="632"/>
-      <c r="BL55" s="632"/>
+      <c r="BI55" s="692"/>
+      <c r="BJ55" s="636"/>
+      <c r="BK55" s="638"/>
+      <c r="BL55" s="638"/>
       <c r="BM55" s="69" t="s">
         <v>2</v>
       </c>
@@ -13461,21 +13472,21 @@
       <c r="CC55" s="42"/>
     </row>
     <row r="56" spans="1:81" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="670"/>
-      <c r="B56" s="633">
+      <c r="A56" s="646"/>
+      <c r="B56" s="639">
         <v>3</v>
       </c>
-      <c r="C56" s="634" t="s">
+      <c r="C56" s="640" t="s">
         <v>59</v>
       </c>
-      <c r="D56" s="634" t="s">
+      <c r="D56" s="640" t="s">
         <v>60</v>
       </c>
       <c r="E56" s="9" t="s">
         <v>1</v>
       </c>
       <c r="F56" s="402" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G56" s="528" t="s">
         <v>69</v>
@@ -13484,11 +13495,11 @@
         <v>76</v>
       </c>
       <c r="I56" s="571" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J56" s="542"/>
       <c r="K56" s="402" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="L56" s="528" t="s">
         <v>69</v>
@@ -13497,7 +13508,7 @@
         <v>76</v>
       </c>
       <c r="N56" s="571" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="O56" s="228"/>
       <c r="P56" s="536"/>
@@ -13505,14 +13516,14 @@
       <c r="R56" s="525"/>
       <c r="S56" s="552"/>
       <c r="T56" s="247"/>
-      <c r="U56" s="670"/>
-      <c r="V56" s="633">
+      <c r="U56" s="646"/>
+      <c r="V56" s="639">
         <v>3</v>
       </c>
-      <c r="W56" s="634" t="s">
+      <c r="W56" s="640" t="s">
         <v>59</v>
       </c>
-      <c r="X56" s="634" t="s">
+      <c r="X56" s="640" t="s">
         <v>60</v>
       </c>
       <c r="Y56" s="9" t="s">
@@ -13547,14 +13558,14 @@
         <v>87</v>
       </c>
       <c r="AN56" s="228"/>
-      <c r="AO56" s="670"/>
-      <c r="AP56" s="633">
+      <c r="AO56" s="646"/>
+      <c r="AP56" s="639">
         <v>3</v>
       </c>
-      <c r="AQ56" s="634" t="s">
+      <c r="AQ56" s="640" t="s">
         <v>59</v>
       </c>
-      <c r="AR56" s="634" t="s">
+      <c r="AR56" s="640" t="s">
         <v>60</v>
       </c>
       <c r="AS56" s="9" t="s">
@@ -13583,14 +13594,14 @@
         <v>186</v>
       </c>
       <c r="BH56" s="247"/>
-      <c r="BI56" s="639"/>
-      <c r="BJ56" s="633">
+      <c r="BI56" s="692"/>
+      <c r="BJ56" s="639">
         <v>3</v>
       </c>
-      <c r="BK56" s="634" t="s">
+      <c r="BK56" s="640" t="s">
         <v>59</v>
       </c>
-      <c r="BL56" s="634" t="s">
+      <c r="BL56" s="640" t="s">
         <v>60</v>
       </c>
       <c r="BM56" s="69" t="s">
@@ -13622,15 +13633,15 @@
       <c r="CC56" s="42"/>
     </row>
     <row r="57" spans="1:81" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="670"/>
-      <c r="B57" s="630"/>
-      <c r="C57" s="635"/>
-      <c r="D57" s="635"/>
+      <c r="A57" s="646"/>
+      <c r="B57" s="636"/>
+      <c r="C57" s="641"/>
+      <c r="D57" s="641"/>
       <c r="E57" s="9" t="s">
         <v>2</v>
       </c>
       <c r="F57" s="566" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G57" s="570" t="s">
         <v>69</v>
@@ -13643,7 +13654,7 @@
       </c>
       <c r="J57" s="557"/>
       <c r="K57" s="566" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="L57" s="570" t="s">
         <v>69</v>
@@ -13660,10 +13671,10 @@
       <c r="R57" s="525"/>
       <c r="S57" s="552"/>
       <c r="T57" s="540"/>
-      <c r="U57" s="670"/>
-      <c r="V57" s="630"/>
-      <c r="W57" s="635"/>
-      <c r="X57" s="635"/>
+      <c r="U57" s="646"/>
+      <c r="V57" s="636"/>
+      <c r="W57" s="641"/>
+      <c r="X57" s="641"/>
       <c r="Y57" s="9" t="s">
         <v>2</v>
       </c>
@@ -13694,10 +13705,10 @@
         <v>87</v>
       </c>
       <c r="AN57" s="182"/>
-      <c r="AO57" s="670"/>
-      <c r="AP57" s="630"/>
-      <c r="AQ57" s="635"/>
-      <c r="AR57" s="635"/>
+      <c r="AO57" s="646"/>
+      <c r="AP57" s="636"/>
+      <c r="AQ57" s="641"/>
+      <c r="AR57" s="641"/>
       <c r="AS57" s="9" t="s">
         <v>2</v>
       </c>
@@ -13740,10 +13751,10 @@
         <v>157</v>
       </c>
       <c r="BH57" s="371"/>
-      <c r="BI57" s="639"/>
-      <c r="BJ57" s="630"/>
-      <c r="BK57" s="635"/>
-      <c r="BL57" s="635"/>
+      <c r="BI57" s="692"/>
+      <c r="BJ57" s="636"/>
+      <c r="BK57" s="641"/>
+      <c r="BL57" s="641"/>
       <c r="BM57" s="69" t="s">
         <v>2</v>
       </c>
@@ -13773,21 +13784,21 @@
       <c r="CC57" s="42"/>
     </row>
     <row r="58" spans="1:81" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="670"/>
-      <c r="B58" s="633">
+      <c r="A58" s="646"/>
+      <c r="B58" s="639">
         <v>4</v>
       </c>
-      <c r="C58" s="634" t="s">
+      <c r="C58" s="640" t="s">
         <v>61</v>
       </c>
-      <c r="D58" s="634" t="s">
+      <c r="D58" s="640" t="s">
         <v>62</v>
       </c>
       <c r="E58" s="9" t="s">
         <v>1</v>
       </c>
       <c r="F58" s="621" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G58" s="570" t="s">
         <v>69</v>
@@ -13796,11 +13807,11 @@
         <v>82</v>
       </c>
       <c r="I58" s="571" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J58" s="542"/>
       <c r="K58" s="621" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="L58" s="570" t="s">
         <v>69</v>
@@ -13809,7 +13820,7 @@
         <v>82</v>
       </c>
       <c r="N58" s="571" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="O58" s="228"/>
       <c r="P58" s="294"/>
@@ -13817,14 +13828,14 @@
       <c r="R58" s="550"/>
       <c r="S58" s="552"/>
       <c r="T58" s="247"/>
-      <c r="U58" s="670"/>
-      <c r="V58" s="633">
+      <c r="U58" s="646"/>
+      <c r="V58" s="639">
         <v>4</v>
       </c>
-      <c r="W58" s="634" t="s">
+      <c r="W58" s="640" t="s">
         <v>61</v>
       </c>
-      <c r="X58" s="634" t="s">
+      <c r="X58" s="640" t="s">
         <v>62</v>
       </c>
       <c r="Y58" s="9" t="s">
@@ -13857,14 +13868,14 @@
         <v>87</v>
       </c>
       <c r="AN58" s="228"/>
-      <c r="AO58" s="670"/>
-      <c r="AP58" s="633">
+      <c r="AO58" s="646"/>
+      <c r="AP58" s="639">
         <v>4</v>
       </c>
-      <c r="AQ58" s="634" t="s">
+      <c r="AQ58" s="640" t="s">
         <v>61</v>
       </c>
-      <c r="AR58" s="634" t="s">
+      <c r="AR58" s="640" t="s">
         <v>62</v>
       </c>
       <c r="AS58" s="9" t="s">
@@ -13909,14 +13920,14 @@
         <v>186</v>
       </c>
       <c r="BH58" s="247"/>
-      <c r="BI58" s="639"/>
-      <c r="BJ58" s="633">
+      <c r="BI58" s="692"/>
+      <c r="BJ58" s="639">
         <v>4</v>
       </c>
-      <c r="BK58" s="634" t="s">
+      <c r="BK58" s="640" t="s">
         <v>61</v>
       </c>
-      <c r="BL58" s="634" t="s">
+      <c r="BL58" s="640" t="s">
         <v>62</v>
       </c>
       <c r="BM58" s="69" t="s">
@@ -13933,7 +13944,7 @@
       <c r="BV58" s="196"/>
       <c r="BW58" s="247"/>
       <c r="BX58" s="266" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="BY58" s="356" t="s">
         <v>57</v>
@@ -13948,10 +13959,10 @@
       <c r="CC58" s="42"/>
     </row>
     <row r="59" spans="1:81" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="670"/>
-      <c r="B59" s="630"/>
-      <c r="C59" s="632"/>
-      <c r="D59" s="632"/>
+      <c r="A59" s="646"/>
+      <c r="B59" s="636"/>
+      <c r="C59" s="638"/>
+      <c r="D59" s="638"/>
       <c r="E59" s="9" t="s">
         <v>2</v>
       </c>
@@ -13986,10 +13997,10 @@
       <c r="R59" s="550"/>
       <c r="S59" s="617"/>
       <c r="T59" s="540"/>
-      <c r="U59" s="670"/>
-      <c r="V59" s="630"/>
-      <c r="W59" s="632"/>
-      <c r="X59" s="632"/>
+      <c r="U59" s="646"/>
+      <c r="V59" s="636"/>
+      <c r="W59" s="638"/>
+      <c r="X59" s="638"/>
       <c r="Y59" s="9" t="s">
         <v>2</v>
       </c>
@@ -14020,10 +14031,10 @@
         <v>87</v>
       </c>
       <c r="AN59" s="182"/>
-      <c r="AO59" s="670"/>
-      <c r="AP59" s="630"/>
-      <c r="AQ59" s="632"/>
-      <c r="AR59" s="632"/>
+      <c r="AO59" s="646"/>
+      <c r="AP59" s="636"/>
+      <c r="AQ59" s="638"/>
+      <c r="AR59" s="638"/>
       <c r="AS59" s="9" t="s">
         <v>2</v>
       </c>
@@ -14066,10 +14077,10 @@
         <v>157</v>
       </c>
       <c r="BH59" s="371"/>
-      <c r="BI59" s="639"/>
-      <c r="BJ59" s="630"/>
-      <c r="BK59" s="632"/>
-      <c r="BL59" s="632"/>
+      <c r="BI59" s="692"/>
+      <c r="BJ59" s="636"/>
+      <c r="BK59" s="638"/>
+      <c r="BL59" s="638"/>
       <c r="BM59" s="69" t="s">
         <v>2</v>
       </c>
@@ -14099,21 +14110,21 @@
       <c r="CC59" s="42"/>
     </row>
     <row r="60" spans="1:81" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="670"/>
-      <c r="B60" s="633">
+      <c r="A60" s="646"/>
+      <c r="B60" s="639">
         <v>5</v>
       </c>
-      <c r="C60" s="634" t="s">
+      <c r="C60" s="640" t="s">
         <v>30</v>
       </c>
-      <c r="D60" s="634" t="s">
+      <c r="D60" s="640" t="s">
         <v>63</v>
       </c>
       <c r="E60" s="9" t="s">
         <v>1</v>
       </c>
       <c r="F60" s="621" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G60" s="570" t="s">
         <v>69</v>
@@ -14122,11 +14133,11 @@
         <v>82</v>
       </c>
       <c r="I60" s="571" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J60" s="538"/>
       <c r="K60" s="621" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="L60" s="570" t="s">
         <v>69</v>
@@ -14135,7 +14146,7 @@
         <v>82</v>
       </c>
       <c r="N60" s="571" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="O60" s="182"/>
       <c r="P60" s="282"/>
@@ -14143,14 +14154,14 @@
       <c r="R60" s="550"/>
       <c r="S60" s="552"/>
       <c r="T60" s="540"/>
-      <c r="U60" s="670"/>
-      <c r="V60" s="633">
+      <c r="U60" s="646"/>
+      <c r="V60" s="639">
         <v>5</v>
       </c>
-      <c r="W60" s="634" t="s">
+      <c r="W60" s="640" t="s">
         <v>30</v>
       </c>
-      <c r="X60" s="634" t="s">
+      <c r="X60" s="640" t="s">
         <v>63</v>
       </c>
       <c r="Y60" s="9" t="s">
@@ -14171,14 +14182,14 @@
       <c r="AL60" s="195"/>
       <c r="AM60" s="196"/>
       <c r="AN60" s="182"/>
-      <c r="AO60" s="670"/>
-      <c r="AP60" s="633">
+      <c r="AO60" s="646"/>
+      <c r="AP60" s="639">
         <v>5</v>
       </c>
-      <c r="AQ60" s="634" t="s">
+      <c r="AQ60" s="640" t="s">
         <v>30</v>
       </c>
-      <c r="AR60" s="634" t="s">
+      <c r="AR60" s="640" t="s">
         <v>63</v>
       </c>
       <c r="AS60" s="9" t="s">
@@ -14215,14 +14226,14 @@
       <c r="BF60" s="77"/>
       <c r="BG60" s="359"/>
       <c r="BH60" s="371"/>
-      <c r="BI60" s="639"/>
-      <c r="BJ60" s="633">
+      <c r="BI60" s="692"/>
+      <c r="BJ60" s="639">
         <v>5</v>
       </c>
-      <c r="BK60" s="634" t="s">
+      <c r="BK60" s="640" t="s">
         <v>30</v>
       </c>
-      <c r="BL60" s="634" t="s">
+      <c r="BL60" s="640" t="s">
         <v>63</v>
       </c>
       <c r="BM60" s="69" t="s">
@@ -14239,7 +14250,7 @@
       <c r="BV60" s="196"/>
       <c r="BW60" s="203"/>
       <c r="BX60" s="266" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="BY60" s="570" t="s">
         <v>57</v>
@@ -14254,10 +14265,10 @@
       <c r="CC60" s="42"/>
     </row>
     <row r="61" spans="1:81" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="670"/>
-      <c r="B61" s="630"/>
-      <c r="C61" s="632"/>
-      <c r="D61" s="632"/>
+      <c r="A61" s="646"/>
+      <c r="B61" s="636"/>
+      <c r="C61" s="638"/>
+      <c r="D61" s="638"/>
       <c r="E61" s="9" t="s">
         <v>2</v>
       </c>
@@ -14292,10 +14303,10 @@
       <c r="R61" s="364"/>
       <c r="S61" s="571"/>
       <c r="T61" s="540"/>
-      <c r="U61" s="670"/>
-      <c r="V61" s="630"/>
-      <c r="W61" s="632"/>
-      <c r="X61" s="632"/>
+      <c r="U61" s="646"/>
+      <c r="V61" s="636"/>
+      <c r="W61" s="638"/>
+      <c r="X61" s="638"/>
       <c r="Y61" s="9" t="s">
         <v>2</v>
       </c>
@@ -14314,10 +14325,10 @@
       <c r="AL61" s="187"/>
       <c r="AM61" s="196"/>
       <c r="AN61" s="182"/>
-      <c r="AO61" s="670"/>
-      <c r="AP61" s="630"/>
-      <c r="AQ61" s="632"/>
-      <c r="AR61" s="632"/>
+      <c r="AO61" s="646"/>
+      <c r="AP61" s="636"/>
+      <c r="AQ61" s="638"/>
+      <c r="AR61" s="638"/>
       <c r="AS61" s="9" t="s">
         <v>2</v>
       </c>
@@ -14336,10 +14347,10 @@
       <c r="BF61" s="77"/>
       <c r="BG61" s="359"/>
       <c r="BH61" s="371"/>
-      <c r="BI61" s="639"/>
-      <c r="BJ61" s="630"/>
-      <c r="BK61" s="632"/>
-      <c r="BL61" s="632"/>
+      <c r="BI61" s="692"/>
+      <c r="BJ61" s="636"/>
+      <c r="BK61" s="638"/>
+      <c r="BL61" s="638"/>
       <c r="BM61" s="69" t="s">
         <v>2</v>
       </c>
@@ -14369,14 +14380,14 @@
       <c r="CC61" s="42"/>
     </row>
     <row r="62" spans="1:81" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="670"/>
-      <c r="B62" s="665">
+      <c r="A62" s="646"/>
+      <c r="B62" s="642">
         <v>6</v>
       </c>
-      <c r="C62" s="635" t="s">
+      <c r="C62" s="641" t="s">
         <v>51</v>
       </c>
-      <c r="D62" s="635" t="s">
+      <c r="D62" s="641" t="s">
         <v>64</v>
       </c>
       <c r="E62" s="9" t="s">
@@ -14397,14 +14408,14 @@
       <c r="R62" s="550"/>
       <c r="S62" s="372"/>
       <c r="T62" s="203"/>
-      <c r="U62" s="670"/>
-      <c r="V62" s="665">
+      <c r="U62" s="646"/>
+      <c r="V62" s="642">
         <v>6</v>
       </c>
-      <c r="W62" s="635" t="s">
+      <c r="W62" s="641" t="s">
         <v>51</v>
       </c>
-      <c r="X62" s="635" t="s">
+      <c r="X62" s="641" t="s">
         <v>64</v>
       </c>
       <c r="Y62" s="9" t="s">
@@ -14425,14 +14436,14 @@
       <c r="AL62" s="195"/>
       <c r="AM62" s="196"/>
       <c r="AN62" s="203"/>
-      <c r="AO62" s="670"/>
-      <c r="AP62" s="665">
+      <c r="AO62" s="646"/>
+      <c r="AP62" s="642">
         <v>6</v>
       </c>
-      <c r="AQ62" s="635" t="s">
+      <c r="AQ62" s="641" t="s">
         <v>51</v>
       </c>
-      <c r="AR62" s="635" t="s">
+      <c r="AR62" s="641" t="s">
         <v>64</v>
       </c>
       <c r="AS62" s="9" t="s">
@@ -14453,14 +14464,14 @@
       <c r="BF62" s="116"/>
       <c r="BG62" s="359"/>
       <c r="BH62" s="203"/>
-      <c r="BI62" s="639"/>
-      <c r="BJ62" s="633">
+      <c r="BI62" s="692"/>
+      <c r="BJ62" s="639">
         <v>6</v>
       </c>
-      <c r="BK62" s="635" t="s">
+      <c r="BK62" s="641" t="s">
         <v>51</v>
       </c>
-      <c r="BL62" s="635" t="s">
+      <c r="BL62" s="641" t="s">
         <v>64</v>
       </c>
       <c r="BM62" s="69" t="s">
@@ -14484,10 +14495,10 @@
       <c r="CC62" s="42"/>
     </row>
     <row r="63" spans="1:81" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="671"/>
-      <c r="B63" s="636"/>
-      <c r="C63" s="637"/>
-      <c r="D63" s="637"/>
+      <c r="A63" s="647"/>
+      <c r="B63" s="643"/>
+      <c r="C63" s="644"/>
+      <c r="D63" s="644"/>
       <c r="E63" s="4" t="s">
         <v>2</v>
       </c>
@@ -14506,10 +14517,10 @@
       <c r="R63" s="366"/>
       <c r="S63" s="329"/>
       <c r="T63" s="190"/>
-      <c r="U63" s="671"/>
-      <c r="V63" s="636"/>
-      <c r="W63" s="637"/>
-      <c r="X63" s="637"/>
+      <c r="U63" s="647"/>
+      <c r="V63" s="643"/>
+      <c r="W63" s="644"/>
+      <c r="X63" s="644"/>
       <c r="Y63" s="4" t="s">
         <v>2</v>
       </c>
@@ -14528,10 +14539,10 @@
       <c r="AL63" s="170"/>
       <c r="AM63" s="190"/>
       <c r="AN63" s="190"/>
-      <c r="AO63" s="671"/>
-      <c r="AP63" s="636"/>
-      <c r="AQ63" s="637"/>
-      <c r="AR63" s="637"/>
+      <c r="AO63" s="647"/>
+      <c r="AP63" s="643"/>
+      <c r="AQ63" s="644"/>
+      <c r="AR63" s="644"/>
       <c r="AS63" s="4" t="s">
         <v>2</v>
       </c>
@@ -14550,10 +14561,10 @@
       <c r="BF63" s="66"/>
       <c r="BG63" s="289"/>
       <c r="BH63" s="373"/>
-      <c r="BI63" s="640"/>
-      <c r="BJ63" s="636"/>
-      <c r="BK63" s="637"/>
-      <c r="BL63" s="637"/>
+      <c r="BI63" s="693"/>
+      <c r="BJ63" s="643"/>
+      <c r="BK63" s="644"/>
+      <c r="BL63" s="644"/>
       <c r="BM63" s="71" t="s">
         <v>2</v>
       </c>
@@ -14575,16 +14586,16 @@
       <c r="CC63" s="42"/>
     </row>
     <row r="64" spans="1:81" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="666" t="s">
+      <c r="A64" s="632" t="s">
         <v>10</v>
       </c>
-      <c r="B64" s="629">
+      <c r="B64" s="635">
         <v>1</v>
       </c>
-      <c r="C64" s="631" t="s">
+      <c r="C64" s="637" t="s">
         <v>26</v>
       </c>
-      <c r="D64" s="631" t="s">
+      <c r="D64" s="637" t="s">
         <v>27</v>
       </c>
       <c r="E64" s="7" t="s">
@@ -14596,7 +14607,7 @@
       <c r="I64" s="545"/>
       <c r="J64" s="557"/>
       <c r="K64" s="622" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="L64" s="563" t="s">
         <v>80</v>
@@ -14609,29 +14620,29 @@
       </c>
       <c r="O64" s="182"/>
       <c r="P64" s="548" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="Q64" s="570"/>
       <c r="R64" s="550"/>
       <c r="S64" s="372"/>
       <c r="T64" s="182"/>
-      <c r="U64" s="666" t="s">
+      <c r="U64" s="632" t="s">
         <v>10</v>
       </c>
-      <c r="V64" s="629">
+      <c r="V64" s="635">
         <v>1</v>
       </c>
-      <c r="W64" s="631" t="s">
+      <c r="W64" s="637" t="s">
         <v>26</v>
       </c>
-      <c r="X64" s="631" t="s">
+      <c r="X64" s="637" t="s">
         <v>27</v>
       </c>
       <c r="Y64" s="7" t="s">
         <v>1</v>
       </c>
       <c r="Z64" s="548" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AA64" s="570"/>
       <c r="AB64" s="568"/>
@@ -14647,7 +14658,7 @@
         <v>113</v>
       </c>
       <c r="AH64" s="552" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AI64" s="557"/>
       <c r="AJ64" s="375"/>
@@ -14655,16 +14666,16 @@
       <c r="AL64" s="377"/>
       <c r="AM64" s="354"/>
       <c r="AN64" s="182"/>
-      <c r="AO64" s="666" t="s">
+      <c r="AO64" s="632" t="s">
         <v>10</v>
       </c>
-      <c r="AP64" s="629">
+      <c r="AP64" s="635">
         <v>1</v>
       </c>
-      <c r="AQ64" s="631" t="s">
+      <c r="AQ64" s="637" t="s">
         <v>26</v>
       </c>
-      <c r="AR64" s="631" t="s">
+      <c r="AR64" s="637" t="s">
         <v>27</v>
       </c>
       <c r="AS64" s="7" t="s">
@@ -14677,10 +14688,10 @@
         <v>69</v>
       </c>
       <c r="AV64" s="357" t="s">
+        <v>250</v>
+      </c>
+      <c r="AW64" s="359" t="s">
         <v>251</v>
-      </c>
-      <c r="AW64" s="359" t="s">
-        <v>252</v>
       </c>
       <c r="AX64" s="182"/>
       <c r="AY64" s="283" t="s">
@@ -14690,10 +14701,10 @@
         <v>69</v>
       </c>
       <c r="BA64" s="550" t="s">
+        <v>250</v>
+      </c>
+      <c r="BB64" s="359" t="s">
         <v>251</v>
-      </c>
-      <c r="BB64" s="359" t="s">
-        <v>252</v>
       </c>
       <c r="BC64" s="182"/>
       <c r="BD64" s="284"/>
@@ -14701,16 +14712,16 @@
       <c r="BF64" s="357"/>
       <c r="BG64" s="291"/>
       <c r="BH64" s="371"/>
-      <c r="BI64" s="626" t="s">
+      <c r="BI64" s="696" t="s">
         <v>10</v>
       </c>
-      <c r="BJ64" s="629">
+      <c r="BJ64" s="635">
         <v>1</v>
       </c>
-      <c r="BK64" s="631" t="s">
+      <c r="BK64" s="637" t="s">
         <v>26</v>
       </c>
-      <c r="BL64" s="631" t="s">
+      <c r="BL64" s="637" t="s">
         <v>27</v>
       </c>
       <c r="BM64" s="7" t="s">
@@ -14734,24 +14745,24 @@
       <c r="CC64" s="42"/>
     </row>
     <row r="65" spans="1:81" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="667"/>
-      <c r="B65" s="630"/>
-      <c r="C65" s="632"/>
-      <c r="D65" s="632"/>
+      <c r="A65" s="633"/>
+      <c r="B65" s="636"/>
+      <c r="C65" s="638"/>
+      <c r="D65" s="638"/>
       <c r="E65" s="8" t="s">
         <v>2</v>
       </c>
       <c r="F65" s="547" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G65" s="563" t="s">
         <v>80</v>
       </c>
       <c r="H65" s="546" t="s">
+        <v>243</v>
+      </c>
+      <c r="I65" s="553" t="s">
         <v>244</v>
-      </c>
-      <c r="I65" s="553" t="s">
-        <v>245</v>
       </c>
       <c r="J65" s="554"/>
       <c r="K65" s="548"/>
@@ -14760,21 +14771,21 @@
       <c r="N65" s="571"/>
       <c r="O65" s="121"/>
       <c r="P65" s="548" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="Q65" s="360"/>
       <c r="R65" s="305"/>
       <c r="S65" s="330"/>
       <c r="T65" s="121"/>
-      <c r="U65" s="667"/>
-      <c r="V65" s="630"/>
-      <c r="W65" s="632"/>
-      <c r="X65" s="632"/>
+      <c r="U65" s="633"/>
+      <c r="V65" s="636"/>
+      <c r="W65" s="638"/>
+      <c r="X65" s="638"/>
       <c r="Y65" s="8" t="s">
         <v>2</v>
       </c>
       <c r="Z65" s="548" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AA65" s="360"/>
       <c r="AB65" s="198"/>
@@ -14790,7 +14801,7 @@
         <v>113</v>
       </c>
       <c r="AH65" s="552" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AI65" s="554"/>
       <c r="AJ65" s="376"/>
@@ -14798,10 +14809,10 @@
       <c r="AL65" s="550"/>
       <c r="AM65" s="354"/>
       <c r="AN65" s="121"/>
-      <c r="AO65" s="667"/>
-      <c r="AP65" s="630"/>
-      <c r="AQ65" s="632"/>
-      <c r="AR65" s="632"/>
+      <c r="AO65" s="633"/>
+      <c r="AP65" s="636"/>
+      <c r="AQ65" s="638"/>
+      <c r="AR65" s="638"/>
       <c r="AS65" s="8" t="s">
         <v>2</v>
       </c>
@@ -14828,10 +14839,10 @@
       <c r="BF65" s="357"/>
       <c r="BG65" s="146"/>
       <c r="BH65" s="231"/>
-      <c r="BI65" s="627"/>
-      <c r="BJ65" s="630"/>
-      <c r="BK65" s="632"/>
-      <c r="BL65" s="632"/>
+      <c r="BI65" s="697"/>
+      <c r="BJ65" s="636"/>
+      <c r="BK65" s="638"/>
+      <c r="BL65" s="638"/>
       <c r="BM65" s="8" t="s">
         <v>2</v>
       </c>
@@ -14859,14 +14870,14 @@
       <c r="CC65" s="42"/>
     </row>
     <row r="66" spans="1:81" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="667"/>
-      <c r="B66" s="633">
+      <c r="A66" s="633"/>
+      <c r="B66" s="639">
         <v>2</v>
       </c>
-      <c r="C66" s="634" t="s">
+      <c r="C66" s="640" t="s">
         <v>28</v>
       </c>
-      <c r="D66" s="634" t="s">
+      <c r="D66" s="640" t="s">
         <v>29</v>
       </c>
       <c r="E66" s="9" t="s">
@@ -14878,7 +14889,7 @@
       <c r="I66" s="552"/>
       <c r="J66" s="557"/>
       <c r="K66" s="622" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="L66" s="563" t="s">
         <v>80</v>
@@ -14891,27 +14902,27 @@
       </c>
       <c r="O66" s="182"/>
       <c r="P66" s="548" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="Q66" s="360"/>
       <c r="R66" s="364"/>
       <c r="S66" s="326"/>
       <c r="T66" s="182"/>
-      <c r="U66" s="667"/>
-      <c r="V66" s="633">
+      <c r="U66" s="633"/>
+      <c r="V66" s="639">
         <v>2</v>
       </c>
-      <c r="W66" s="634" t="s">
+      <c r="W66" s="640" t="s">
         <v>28</v>
       </c>
-      <c r="X66" s="634" t="s">
+      <c r="X66" s="640" t="s">
         <v>29</v>
       </c>
       <c r="Y66" s="9" t="s">
         <v>1</v>
       </c>
       <c r="Z66" s="548" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AA66" s="528"/>
       <c r="AB66" s="550"/>
@@ -14927,7 +14938,7 @@
         <v>113</v>
       </c>
       <c r="AH66" s="552" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AI66" s="557"/>
       <c r="AJ66" s="566"/>
@@ -14935,14 +14946,14 @@
       <c r="AL66" s="550"/>
       <c r="AM66" s="354"/>
       <c r="AN66" s="182"/>
-      <c r="AO66" s="667"/>
-      <c r="AP66" s="633">
+      <c r="AO66" s="633"/>
+      <c r="AP66" s="639">
         <v>2</v>
       </c>
-      <c r="AQ66" s="634" t="s">
+      <c r="AQ66" s="640" t="s">
         <v>28</v>
       </c>
-      <c r="AR66" s="634" t="s">
+      <c r="AR66" s="640" t="s">
         <v>29</v>
       </c>
       <c r="AS66" s="9" t="s">
@@ -14955,10 +14966,10 @@
         <v>69</v>
       </c>
       <c r="AV66" s="550" t="s">
+        <v>250</v>
+      </c>
+      <c r="AW66" s="359" t="s">
         <v>251</v>
-      </c>
-      <c r="AW66" s="359" t="s">
-        <v>252</v>
       </c>
       <c r="AX66" s="182"/>
       <c r="AY66" s="283" t="s">
@@ -14968,10 +14979,10 @@
         <v>69</v>
       </c>
       <c r="BA66" s="550" t="s">
+        <v>250</v>
+      </c>
+      <c r="BB66" s="359" t="s">
         <v>251</v>
-      </c>
-      <c r="BB66" s="359" t="s">
-        <v>252</v>
       </c>
       <c r="BC66" s="182"/>
       <c r="BD66" s="283"/>
@@ -14979,14 +14990,14 @@
       <c r="BF66" s="352"/>
       <c r="BG66" s="259"/>
       <c r="BH66" s="371"/>
-      <c r="BI66" s="627"/>
-      <c r="BJ66" s="633">
+      <c r="BI66" s="697"/>
+      <c r="BJ66" s="639">
         <v>2</v>
       </c>
-      <c r="BK66" s="634" t="s">
+      <c r="BK66" s="640" t="s">
         <v>28</v>
       </c>
-      <c r="BL66" s="634" t="s">
+      <c r="BL66" s="640" t="s">
         <v>29</v>
       </c>
       <c r="BM66" s="9" t="s">
@@ -15003,7 +15014,7 @@
       <c r="BV66" s="246"/>
       <c r="BW66" s="371"/>
       <c r="BX66" s="266" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="BY66" s="357" t="s">
         <v>69</v>
@@ -15012,30 +15023,30 @@
         <v>204</v>
       </c>
       <c r="CA66" s="359" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="CB66" s="203"/>
       <c r="CC66" s="42"/>
     </row>
     <row r="67" spans="1:81" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="667"/>
-      <c r="B67" s="630"/>
-      <c r="C67" s="632"/>
-      <c r="D67" s="632"/>
+      <c r="A67" s="633"/>
+      <c r="B67" s="636"/>
+      <c r="C67" s="638"/>
+      <c r="D67" s="638"/>
       <c r="E67" s="9" t="s">
         <v>2</v>
       </c>
       <c r="F67" s="547" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G67" s="563" t="s">
         <v>80</v>
       </c>
       <c r="H67" s="546" t="s">
+        <v>243</v>
+      </c>
+      <c r="I67" s="553" t="s">
         <v>244</v>
-      </c>
-      <c r="I67" s="553" t="s">
-        <v>245</v>
       </c>
       <c r="J67" s="554"/>
       <c r="K67" s="548"/>
@@ -15044,21 +15055,21 @@
       <c r="N67" s="571"/>
       <c r="O67" s="121"/>
       <c r="P67" s="548" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="Q67" s="360"/>
       <c r="R67" s="305"/>
       <c r="S67" s="330"/>
       <c r="T67" s="121"/>
-      <c r="U67" s="667"/>
-      <c r="V67" s="630"/>
-      <c r="W67" s="632"/>
-      <c r="X67" s="632"/>
+      <c r="U67" s="633"/>
+      <c r="V67" s="636"/>
+      <c r="W67" s="638"/>
+      <c r="X67" s="638"/>
       <c r="Y67" s="9" t="s">
         <v>2</v>
       </c>
       <c r="Z67" s="548" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AA67" s="360"/>
       <c r="AB67" s="198"/>
@@ -15074,7 +15085,7 @@
         <v>113</v>
       </c>
       <c r="AH67" s="552" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AI67" s="554"/>
       <c r="AJ67" s="376"/>
@@ -15082,10 +15093,10 @@
       <c r="AL67" s="550"/>
       <c r="AM67" s="372"/>
       <c r="AN67" s="121"/>
-      <c r="AO67" s="667"/>
-      <c r="AP67" s="630"/>
-      <c r="AQ67" s="632"/>
-      <c r="AR67" s="632"/>
+      <c r="AO67" s="633"/>
+      <c r="AP67" s="636"/>
+      <c r="AQ67" s="638"/>
+      <c r="AR67" s="638"/>
       <c r="AS67" s="9" t="s">
         <v>2</v>
       </c>
@@ -15112,10 +15123,10 @@
       <c r="BF67" s="252"/>
       <c r="BG67" s="259"/>
       <c r="BH67" s="231"/>
-      <c r="BI67" s="627"/>
-      <c r="BJ67" s="630"/>
-      <c r="BK67" s="632"/>
-      <c r="BL67" s="632"/>
+      <c r="BI67" s="697"/>
+      <c r="BJ67" s="636"/>
+      <c r="BK67" s="638"/>
+      <c r="BL67" s="638"/>
       <c r="BM67" s="9" t="s">
         <v>2</v>
       </c>
@@ -15143,14 +15154,14 @@
       <c r="CC67" s="42"/>
     </row>
     <row r="68" spans="1:81" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="667"/>
-      <c r="B68" s="633">
+      <c r="A68" s="633"/>
+      <c r="B68" s="639">
         <v>3</v>
       </c>
-      <c r="C68" s="634" t="s">
+      <c r="C68" s="640" t="s">
         <v>59</v>
       </c>
-      <c r="D68" s="634" t="s">
+      <c r="D68" s="640" t="s">
         <v>60</v>
       </c>
       <c r="E68" s="9" t="s">
@@ -15162,40 +15173,40 @@
       <c r="I68" s="553"/>
       <c r="J68" s="555"/>
       <c r="K68" s="547" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L68" s="563" t="s">
         <v>80</v>
       </c>
       <c r="M68" s="546" t="s">
+        <v>243</v>
+      </c>
+      <c r="N68" s="571" t="s">
         <v>244</v>
-      </c>
-      <c r="N68" s="571" t="s">
-        <v>245</v>
       </c>
       <c r="O68" s="127"/>
       <c r="P68" s="548" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="Q68" s="315"/>
       <c r="R68" s="364"/>
       <c r="S68" s="330"/>
       <c r="T68" s="127"/>
-      <c r="U68" s="667"/>
-      <c r="V68" s="633">
+      <c r="U68" s="633"/>
+      <c r="V68" s="639">
         <v>3</v>
       </c>
-      <c r="W68" s="634" t="s">
+      <c r="W68" s="640" t="s">
         <v>59</v>
       </c>
-      <c r="X68" s="634" t="s">
+      <c r="X68" s="640" t="s">
         <v>60</v>
       </c>
       <c r="Y68" s="9" t="s">
         <v>1</v>
       </c>
       <c r="Z68" s="548" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AA68" s="315"/>
       <c r="AB68" s="364"/>
@@ -15211,7 +15222,7 @@
         <v>113</v>
       </c>
       <c r="AH68" s="552" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AI68" s="555"/>
       <c r="AJ68" s="376"/>
@@ -15219,14 +15230,14 @@
       <c r="AL68" s="550"/>
       <c r="AM68" s="372"/>
       <c r="AN68" s="127"/>
-      <c r="AO68" s="667"/>
-      <c r="AP68" s="633">
+      <c r="AO68" s="633"/>
+      <c r="AP68" s="639">
         <v>3</v>
       </c>
-      <c r="AQ68" s="634" t="s">
+      <c r="AQ68" s="640" t="s">
         <v>59</v>
       </c>
-      <c r="AR68" s="634" t="s">
+      <c r="AR68" s="640" t="s">
         <v>60</v>
       </c>
       <c r="AS68" s="9" t="s">
@@ -15242,7 +15253,7 @@
         <v>140</v>
       </c>
       <c r="AW68" s="113" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AX68" s="371"/>
       <c r="AY68" s="80" t="s">
@@ -15255,7 +15266,7 @@
         <v>140</v>
       </c>
       <c r="BB68" s="113" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="BC68" s="127"/>
       <c r="BD68" s="283" t="s">
@@ -15268,17 +15279,17 @@
         <v>88</v>
       </c>
       <c r="BG68" s="359" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="BH68" s="309"/>
-      <c r="BI68" s="627"/>
-      <c r="BJ68" s="633">
+      <c r="BI68" s="697"/>
+      <c r="BJ68" s="639">
         <v>3</v>
       </c>
-      <c r="BK68" s="634" t="s">
+      <c r="BK68" s="640" t="s">
         <v>59</v>
       </c>
-      <c r="BL68" s="634" t="s">
+      <c r="BL68" s="640" t="s">
         <v>60</v>
       </c>
       <c r="BM68" s="9" t="s">
@@ -15294,7 +15305,7 @@
         <v>88</v>
       </c>
       <c r="BQ68" s="359" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="BR68" s="371"/>
       <c r="BS68" s="283" t="s">
@@ -15307,11 +15318,11 @@
         <v>88</v>
       </c>
       <c r="BV68" s="359" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="BW68" s="371"/>
       <c r="BX68" s="266" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="BY68" s="357" t="s">
         <v>69</v>
@@ -15320,21 +15331,21 @@
         <v>204</v>
       </c>
       <c r="CA68" s="359" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="CB68" s="165"/>
       <c r="CC68" s="42"/>
     </row>
     <row r="69" spans="1:81" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="667"/>
-      <c r="B69" s="630"/>
-      <c r="C69" s="635"/>
-      <c r="D69" s="635"/>
+      <c r="A69" s="633"/>
+      <c r="B69" s="636"/>
+      <c r="C69" s="641"/>
+      <c r="D69" s="641"/>
       <c r="E69" s="9" t="s">
         <v>2</v>
       </c>
       <c r="F69" s="562" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G69" s="563" t="s">
         <v>80</v>
@@ -15352,21 +15363,21 @@
       <c r="N69" s="571"/>
       <c r="O69" s="229"/>
       <c r="P69" s="548" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="Q69" s="360"/>
       <c r="R69" s="305"/>
       <c r="S69" s="330"/>
       <c r="T69" s="229"/>
-      <c r="U69" s="667"/>
-      <c r="V69" s="630"/>
-      <c r="W69" s="635"/>
-      <c r="X69" s="635"/>
+      <c r="U69" s="633"/>
+      <c r="V69" s="636"/>
+      <c r="W69" s="641"/>
+      <c r="X69" s="641"/>
       <c r="Y69" s="9" t="s">
         <v>2</v>
       </c>
       <c r="Z69" s="548" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AA69" s="360"/>
       <c r="AB69" s="198"/>
@@ -15387,13 +15398,13 @@
         <v>113</v>
       </c>
       <c r="AM69" s="552" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AN69" s="229"/>
-      <c r="AO69" s="667"/>
-      <c r="AP69" s="630"/>
-      <c r="AQ69" s="635"/>
-      <c r="AR69" s="635"/>
+      <c r="AO69" s="633"/>
+      <c r="AP69" s="636"/>
+      <c r="AQ69" s="641"/>
+      <c r="AR69" s="641"/>
       <c r="AS69" s="9" t="s">
         <v>2</v>
       </c>
@@ -15428,10 +15439,10 @@
         <v>212</v>
       </c>
       <c r="BH69" s="249"/>
-      <c r="BI69" s="627"/>
-      <c r="BJ69" s="630"/>
-      <c r="BK69" s="635"/>
-      <c r="BL69" s="635"/>
+      <c r="BI69" s="697"/>
+      <c r="BJ69" s="636"/>
+      <c r="BK69" s="641"/>
+      <c r="BL69" s="641"/>
       <c r="BM69" s="9" t="s">
         <v>2</v>
       </c>
@@ -15460,7 +15471,7 @@
         <v>69</v>
       </c>
       <c r="BZ69" s="357" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="CA69" s="359">
         <v>200</v>
@@ -15469,14 +15480,14 @@
       <c r="CC69" s="42"/>
     </row>
     <row r="70" spans="1:81" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="667"/>
-      <c r="B70" s="633">
+      <c r="A70" s="633"/>
+      <c r="B70" s="639">
         <v>4</v>
       </c>
-      <c r="C70" s="634" t="s">
+      <c r="C70" s="640" t="s">
         <v>61</v>
       </c>
-      <c r="D70" s="634" t="s">
+      <c r="D70" s="640" t="s">
         <v>62</v>
       </c>
       <c r="E70" s="9" t="s">
@@ -15488,40 +15499,40 @@
       <c r="I70" s="553"/>
       <c r="J70" s="555"/>
       <c r="K70" s="547" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L70" s="563" t="s">
         <v>80</v>
       </c>
       <c r="M70" s="546" t="s">
+        <v>243</v>
+      </c>
+      <c r="N70" s="571" t="s">
         <v>244</v>
-      </c>
-      <c r="N70" s="571" t="s">
-        <v>245</v>
       </c>
       <c r="O70" s="127"/>
       <c r="P70" s="548" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="Q70" s="315"/>
       <c r="R70" s="364"/>
       <c r="S70" s="330"/>
       <c r="T70" s="127"/>
-      <c r="U70" s="667"/>
-      <c r="V70" s="633">
+      <c r="U70" s="633"/>
+      <c r="V70" s="639">
         <v>4</v>
       </c>
-      <c r="W70" s="634" t="s">
+      <c r="W70" s="640" t="s">
         <v>61</v>
       </c>
-      <c r="X70" s="634" t="s">
+      <c r="X70" s="640" t="s">
         <v>62</v>
       </c>
       <c r="Y70" s="9" t="s">
         <v>1</v>
       </c>
       <c r="Z70" s="548" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AA70" s="315"/>
       <c r="AB70" s="364"/>
@@ -15542,17 +15553,17 @@
         <v>113</v>
       </c>
       <c r="AM70" s="552" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AN70" s="127"/>
-      <c r="AO70" s="667"/>
-      <c r="AP70" s="633">
+      <c r="AO70" s="633"/>
+      <c r="AP70" s="639">
         <v>4</v>
       </c>
-      <c r="AQ70" s="634" t="s">
+      <c r="AQ70" s="640" t="s">
         <v>61</v>
       </c>
-      <c r="AR70" s="634" t="s">
+      <c r="AR70" s="640" t="s">
         <v>62</v>
       </c>
       <c r="AS70" s="9" t="s">
@@ -15568,7 +15579,7 @@
         <v>142</v>
       </c>
       <c r="AW70" s="359" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AX70" s="371"/>
       <c r="AY70" s="268" t="s">
@@ -15581,7 +15592,7 @@
         <v>142</v>
       </c>
       <c r="BB70" s="359" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="BC70" s="127"/>
       <c r="BD70" s="266" t="s">
@@ -15594,17 +15605,17 @@
         <v>148</v>
       </c>
       <c r="BG70" s="81" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="BH70" s="309"/>
-      <c r="BI70" s="627"/>
-      <c r="BJ70" s="633">
+      <c r="BI70" s="697"/>
+      <c r="BJ70" s="639">
         <v>4</v>
       </c>
-      <c r="BK70" s="634" t="s">
+      <c r="BK70" s="640" t="s">
         <v>61</v>
       </c>
-      <c r="BL70" s="634" t="s">
+      <c r="BL70" s="640" t="s">
         <v>62</v>
       </c>
       <c r="BM70" s="9" t="s">
@@ -15620,7 +15631,7 @@
         <v>175</v>
       </c>
       <c r="BQ70" s="81" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="BR70" s="371"/>
       <c r="BS70" s="403" t="s">
@@ -15633,7 +15644,7 @@
         <v>175</v>
       </c>
       <c r="BV70" s="81" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="BW70" s="343"/>
       <c r="BX70" s="268" t="s">
@@ -15646,21 +15657,21 @@
         <v>150</v>
       </c>
       <c r="CA70" s="359" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="CB70" s="165"/>
       <c r="CC70" s="42"/>
     </row>
     <row r="71" spans="1:81" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="667"/>
-      <c r="B71" s="630"/>
-      <c r="C71" s="632"/>
-      <c r="D71" s="632"/>
+      <c r="A71" s="633"/>
+      <c r="B71" s="636"/>
+      <c r="C71" s="638"/>
+      <c r="D71" s="638"/>
       <c r="E71" s="9" t="s">
         <v>2</v>
       </c>
       <c r="F71" s="562" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G71" s="563" t="s">
         <v>80</v>
@@ -15678,21 +15689,21 @@
       <c r="N71" s="571"/>
       <c r="O71" s="223"/>
       <c r="P71" s="548" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="Q71" s="360"/>
       <c r="R71" s="305"/>
       <c r="S71" s="330"/>
       <c r="T71" s="223"/>
-      <c r="U71" s="667"/>
-      <c r="V71" s="630"/>
-      <c r="W71" s="632"/>
-      <c r="X71" s="632"/>
+      <c r="U71" s="633"/>
+      <c r="V71" s="636"/>
+      <c r="W71" s="638"/>
+      <c r="X71" s="638"/>
       <c r="Y71" s="9" t="s">
         <v>2</v>
       </c>
       <c r="Z71" s="548" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AA71" s="360"/>
       <c r="AB71" s="198"/>
@@ -15713,13 +15724,13 @@
         <v>113</v>
       </c>
       <c r="AM71" s="552" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AN71" s="223"/>
-      <c r="AO71" s="667"/>
-      <c r="AP71" s="630"/>
-      <c r="AQ71" s="632"/>
-      <c r="AR71" s="632"/>
+      <c r="AO71" s="633"/>
+      <c r="AP71" s="636"/>
+      <c r="AQ71" s="638"/>
+      <c r="AR71" s="638"/>
       <c r="AS71" s="9" t="s">
         <v>2</v>
       </c>
@@ -15754,10 +15765,10 @@
         <v>212</v>
       </c>
       <c r="BH71" s="233"/>
-      <c r="BI71" s="627"/>
-      <c r="BJ71" s="630"/>
-      <c r="BK71" s="632"/>
-      <c r="BL71" s="632"/>
+      <c r="BI71" s="697"/>
+      <c r="BJ71" s="636"/>
+      <c r="BK71" s="638"/>
+      <c r="BL71" s="638"/>
       <c r="BM71" s="9" t="s">
         <v>2</v>
       </c>
@@ -15795,14 +15806,14 @@
       <c r="CC71" s="42"/>
     </row>
     <row r="72" spans="1:81" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="667"/>
-      <c r="B72" s="633">
+      <c r="A72" s="633"/>
+      <c r="B72" s="639">
         <v>5</v>
       </c>
-      <c r="C72" s="634" t="s">
+      <c r="C72" s="640" t="s">
         <v>30</v>
       </c>
-      <c r="D72" s="634" t="s">
+      <c r="D72" s="640" t="s">
         <v>63</v>
       </c>
       <c r="E72" s="9" t="s">
@@ -15819,27 +15830,27 @@
       <c r="N72" s="552"/>
       <c r="O72" s="182"/>
       <c r="P72" s="548" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="Q72" s="315"/>
       <c r="R72" s="364"/>
       <c r="S72" s="330"/>
       <c r="T72" s="182"/>
-      <c r="U72" s="667"/>
-      <c r="V72" s="633">
+      <c r="U72" s="633"/>
+      <c r="V72" s="639">
         <v>5</v>
       </c>
-      <c r="W72" s="634" t="s">
+      <c r="W72" s="640" t="s">
         <v>30</v>
       </c>
-      <c r="X72" s="634" t="s">
+      <c r="X72" s="640" t="s">
         <v>63</v>
       </c>
       <c r="Y72" s="9" t="s">
         <v>1</v>
       </c>
       <c r="Z72" s="548" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AA72" s="315"/>
       <c r="AB72" s="364"/>
@@ -15860,17 +15871,17 @@
         <v>113</v>
       </c>
       <c r="AM72" s="552" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AN72" s="182"/>
-      <c r="AO72" s="667"/>
-      <c r="AP72" s="633">
+      <c r="AO72" s="633"/>
+      <c r="AP72" s="639">
         <v>5</v>
       </c>
-      <c r="AQ72" s="634" t="s">
+      <c r="AQ72" s="640" t="s">
         <v>30</v>
       </c>
-      <c r="AR72" s="634" t="s">
+      <c r="AR72" s="640" t="s">
         <v>63</v>
       </c>
       <c r="AS72" s="9" t="s">
@@ -15886,7 +15897,7 @@
         <v>118</v>
       </c>
       <c r="AW72" s="359" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AX72" s="343"/>
       <c r="AY72" s="284" t="s">
@@ -15899,7 +15910,7 @@
         <v>118</v>
       </c>
       <c r="BB72" s="359" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="BC72" s="182"/>
       <c r="BD72" s="268" t="s">
@@ -15912,24 +15923,24 @@
         <v>126</v>
       </c>
       <c r="BG72" s="113" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="BH72" s="371"/>
-      <c r="BI72" s="627"/>
-      <c r="BJ72" s="633">
+      <c r="BI72" s="697"/>
+      <c r="BJ72" s="639">
         <v>5</v>
       </c>
-      <c r="BK72" s="634" t="s">
+      <c r="BK72" s="640" t="s">
         <v>30</v>
       </c>
-      <c r="BL72" s="634" t="s">
+      <c r="BL72" s="640" t="s">
         <v>63</v>
       </c>
       <c r="BM72" s="9" t="s">
         <v>1</v>
       </c>
       <c r="BN72" s="250" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BO72" s="360" t="s">
         <v>69</v>
@@ -15938,11 +15949,11 @@
         <v>177</v>
       </c>
       <c r="BQ72" s="409" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="BR72" s="343"/>
       <c r="BS72" s="250" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BT72" s="360" t="s">
         <v>69</v>
@@ -15951,7 +15962,7 @@
         <v>177</v>
       </c>
       <c r="BV72" s="409" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="BW72" s="371"/>
       <c r="BX72" s="268" t="s">
@@ -15964,16 +15975,16 @@
         <v>126</v>
       </c>
       <c r="CA72" s="113" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="CB72" s="203"/>
       <c r="CC72" s="42"/>
     </row>
     <row r="73" spans="1:81" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="667"/>
-      <c r="B73" s="630"/>
-      <c r="C73" s="632"/>
-      <c r="D73" s="632"/>
+      <c r="A73" s="633"/>
+      <c r="B73" s="636"/>
+      <c r="C73" s="638"/>
+      <c r="D73" s="638"/>
       <c r="E73" s="9" t="s">
         <v>2</v>
       </c>
@@ -15988,21 +15999,21 @@
       <c r="N73" s="120"/>
       <c r="O73" s="25"/>
       <c r="P73" s="548" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="Q73" s="360"/>
       <c r="R73" s="305"/>
       <c r="S73" s="330"/>
       <c r="T73" s="25"/>
-      <c r="U73" s="667"/>
-      <c r="V73" s="630"/>
-      <c r="W73" s="632"/>
-      <c r="X73" s="632"/>
+      <c r="U73" s="633"/>
+      <c r="V73" s="636"/>
+      <c r="W73" s="638"/>
+      <c r="X73" s="638"/>
       <c r="Y73" s="9" t="s">
         <v>2</v>
       </c>
       <c r="Z73" s="548" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AA73" s="360"/>
       <c r="AB73" s="198"/>
@@ -16023,13 +16034,13 @@
         <v>113</v>
       </c>
       <c r="AM73" s="552" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AN73" s="25"/>
-      <c r="AO73" s="667"/>
-      <c r="AP73" s="630"/>
-      <c r="AQ73" s="632"/>
-      <c r="AR73" s="632"/>
+      <c r="AO73" s="633"/>
+      <c r="AP73" s="636"/>
+      <c r="AQ73" s="638"/>
+      <c r="AR73" s="638"/>
       <c r="AS73" s="9" t="s">
         <v>2</v>
       </c>
@@ -16056,10 +16067,10 @@
         <v>425</v>
       </c>
       <c r="BH73" s="232"/>
-      <c r="BI73" s="627"/>
-      <c r="BJ73" s="630"/>
-      <c r="BK73" s="632"/>
-      <c r="BL73" s="632"/>
+      <c r="BI73" s="697"/>
+      <c r="BJ73" s="636"/>
+      <c r="BK73" s="638"/>
+      <c r="BL73" s="638"/>
       <c r="BM73" s="9" t="s">
         <v>2</v>
       </c>
@@ -16089,14 +16100,14 @@
       <c r="CC73" s="42"/>
     </row>
     <row r="74" spans="1:81" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="667"/>
-      <c r="B74" s="665">
+      <c r="A74" s="633"/>
+      <c r="B74" s="642">
         <v>6</v>
       </c>
-      <c r="C74" s="635" t="s">
+      <c r="C74" s="641" t="s">
         <v>51</v>
       </c>
-      <c r="D74" s="635" t="s">
+      <c r="D74" s="641" t="s">
         <v>64</v>
       </c>
       <c r="E74" s="9" t="s">
@@ -16117,14 +16128,14 @@
       <c r="R74" s="550"/>
       <c r="S74" s="372"/>
       <c r="T74" s="230"/>
-      <c r="U74" s="667"/>
-      <c r="V74" s="665">
+      <c r="U74" s="633"/>
+      <c r="V74" s="642">
         <v>6</v>
       </c>
-      <c r="W74" s="635" t="s">
+      <c r="W74" s="641" t="s">
         <v>51</v>
       </c>
-      <c r="X74" s="635" t="s">
+      <c r="X74" s="641" t="s">
         <v>64</v>
       </c>
       <c r="Y74" s="9" t="s">
@@ -16145,14 +16156,14 @@
       <c r="AL74" s="550"/>
       <c r="AM74" s="557"/>
       <c r="AN74" s="230"/>
-      <c r="AO74" s="667"/>
-      <c r="AP74" s="665">
+      <c r="AO74" s="633"/>
+      <c r="AP74" s="642">
         <v>6</v>
       </c>
-      <c r="AQ74" s="635" t="s">
+      <c r="AQ74" s="641" t="s">
         <v>51</v>
       </c>
-      <c r="AR74" s="635" t="s">
+      <c r="AR74" s="641" t="s">
         <v>64</v>
       </c>
       <c r="AS74" s="9" t="s">
@@ -16168,7 +16179,7 @@
         <v>118</v>
       </c>
       <c r="AW74" s="359" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AX74" s="343"/>
       <c r="AY74" s="284" t="s">
@@ -16181,7 +16192,7 @@
         <v>118</v>
       </c>
       <c r="BB74" s="359" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="BC74" s="230"/>
       <c r="BD74" s="117"/>
@@ -16189,14 +16200,14 @@
       <c r="BF74" s="116"/>
       <c r="BG74" s="359"/>
       <c r="BH74" s="345"/>
-      <c r="BI74" s="627"/>
-      <c r="BJ74" s="633">
+      <c r="BI74" s="697"/>
+      <c r="BJ74" s="639">
         <v>6</v>
       </c>
-      <c r="BK74" s="635" t="s">
+      <c r="BK74" s="641" t="s">
         <v>51</v>
       </c>
-      <c r="BL74" s="635" t="s">
+      <c r="BL74" s="641" t="s">
         <v>64</v>
       </c>
       <c r="BM74" s="9" t="s">
@@ -16220,10 +16231,10 @@
       <c r="CC74" s="42"/>
     </row>
     <row r="75" spans="1:81" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="668"/>
-      <c r="B75" s="636"/>
-      <c r="C75" s="637"/>
-      <c r="D75" s="637"/>
+      <c r="A75" s="634"/>
+      <c r="B75" s="643"/>
+      <c r="C75" s="644"/>
+      <c r="D75" s="644"/>
       <c r="E75" s="4" t="s">
         <v>2</v>
       </c>
@@ -16242,10 +16253,10 @@
       <c r="R75" s="362"/>
       <c r="S75" s="533"/>
       <c r="T75" s="92"/>
-      <c r="U75" s="668"/>
-      <c r="V75" s="636"/>
-      <c r="W75" s="637"/>
-      <c r="X75" s="637"/>
+      <c r="U75" s="634"/>
+      <c r="V75" s="643"/>
+      <c r="W75" s="644"/>
+      <c r="X75" s="644"/>
       <c r="Y75" s="4" t="s">
         <v>2</v>
       </c>
@@ -16264,10 +16275,10 @@
       <c r="AL75" s="178"/>
       <c r="AM75" s="172"/>
       <c r="AN75" s="92"/>
-      <c r="AO75" s="668"/>
-      <c r="AP75" s="636"/>
-      <c r="AQ75" s="637"/>
-      <c r="AR75" s="637"/>
+      <c r="AO75" s="634"/>
+      <c r="AP75" s="643"/>
+      <c r="AQ75" s="644"/>
+      <c r="AR75" s="644"/>
       <c r="AS75" s="4" t="s">
         <v>2</v>
       </c>
@@ -16286,10 +16297,10 @@
       <c r="BF75" s="136"/>
       <c r="BG75" s="397"/>
       <c r="BH75" s="237"/>
-      <c r="BI75" s="628"/>
-      <c r="BJ75" s="636"/>
-      <c r="BK75" s="637"/>
-      <c r="BL75" s="637"/>
+      <c r="BI75" s="698"/>
+      <c r="BJ75" s="643"/>
+      <c r="BK75" s="644"/>
+      <c r="BL75" s="644"/>
       <c r="BM75" s="4" t="s">
         <v>2</v>
       </c>
@@ -16333,11 +16344,11 @@
       <c r="N76" s="623"/>
       <c r="O76" s="623"/>
       <c r="P76" s="623"/>
-      <c r="Q76" s="691" t="s">
+      <c r="Q76" s="624" t="s">
         <v>55</v>
       </c>
-      <c r="R76" s="691"/>
-      <c r="S76" s="692"/>
+      <c r="R76" s="624"/>
+      <c r="S76" s="625"/>
       <c r="T76" s="212"/>
       <c r="U76" s="26"/>
       <c r="V76" s="26"/>
@@ -16361,11 +16372,11 @@
       <c r="AH76" s="623"/>
       <c r="AI76" s="623"/>
       <c r="AJ76" s="623"/>
-      <c r="AK76" s="691" t="s">
+      <c r="AK76" s="624" t="s">
         <v>55</v>
       </c>
-      <c r="AL76" s="691"/>
-      <c r="AM76" s="692"/>
+      <c r="AL76" s="624"/>
+      <c r="AM76" s="625"/>
       <c r="AN76" s="212"/>
       <c r="AO76" s="26"/>
       <c r="AP76" s="26"/>
@@ -16389,11 +16400,11 @@
       <c r="BB76" s="623"/>
       <c r="BC76" s="623"/>
       <c r="BD76" s="623"/>
-      <c r="BE76" s="691" t="s">
+      <c r="BE76" s="624" t="s">
         <v>55</v>
       </c>
-      <c r="BF76" s="691"/>
-      <c r="BG76" s="692"/>
+      <c r="BF76" s="624"/>
+      <c r="BG76" s="625"/>
       <c r="BH76" s="212"/>
       <c r="BI76" s="26"/>
       <c r="BJ76" s="26"/>
@@ -16417,11 +16428,11 @@
       <c r="BV76" s="623"/>
       <c r="BW76" s="623"/>
       <c r="BX76" s="623"/>
-      <c r="BY76" s="624" t="s">
+      <c r="BY76" s="694" t="s">
         <v>55</v>
       </c>
-      <c r="BZ76" s="624"/>
-      <c r="CA76" s="625"/>
+      <c r="BZ76" s="694"/>
+      <c r="CA76" s="695"/>
       <c r="CB76" s="213"/>
     </row>
     <row r="77" spans="1:81" x14ac:dyDescent="0.35">
@@ -16509,30 +16520,30 @@
     <row r="78" spans="1:81" ht="45.75" x14ac:dyDescent="0.65">
       <c r="A78" s="33"/>
       <c r="B78" s="34"/>
-      <c r="C78" s="693" t="s">
+      <c r="C78" s="626" t="s">
         <v>31</v>
       </c>
-      <c r="D78" s="694"/>
-      <c r="E78" s="694"/>
-      <c r="F78" s="694"/>
-      <c r="G78" s="694"/>
-      <c r="H78" s="694"/>
-      <c r="I78" s="694"/>
-      <c r="J78" s="694"/>
-      <c r="K78" s="695"/>
+      <c r="D78" s="627"/>
+      <c r="E78" s="627"/>
+      <c r="F78" s="627"/>
+      <c r="G78" s="627"/>
+      <c r="H78" s="627"/>
+      <c r="I78" s="627"/>
+      <c r="J78" s="627"/>
+      <c r="K78" s="628"/>
       <c r="U78" s="33"/>
       <c r="V78" s="34"/>
-      <c r="W78" s="693" t="s">
+      <c r="W78" s="626" t="s">
         <v>31</v>
       </c>
-      <c r="X78" s="694"/>
-      <c r="Y78" s="694"/>
-      <c r="Z78" s="694"/>
-      <c r="AA78" s="694"/>
-      <c r="AB78" s="694"/>
-      <c r="AC78" s="694"/>
-      <c r="AD78" s="694"/>
-      <c r="AE78" s="695"/>
+      <c r="X78" s="627"/>
+      <c r="Y78" s="627"/>
+      <c r="Z78" s="627"/>
+      <c r="AA78" s="627"/>
+      <c r="AB78" s="627"/>
+      <c r="AC78" s="627"/>
+      <c r="AD78" s="627"/>
+      <c r="AE78" s="628"/>
       <c r="AG78" s="6"/>
       <c r="AH78" s="23"/>
       <c r="AI78" s="23"/>
@@ -16541,17 +16552,17 @@
       <c r="AN78" s="23"/>
       <c r="AO78" s="33"/>
       <c r="AP78" s="34"/>
-      <c r="AQ78" s="693" t="s">
+      <c r="AQ78" s="626" t="s">
         <v>31</v>
       </c>
-      <c r="AR78" s="694"/>
-      <c r="AS78" s="694"/>
-      <c r="AT78" s="694"/>
-      <c r="AU78" s="694"/>
-      <c r="AV78" s="694"/>
-      <c r="AW78" s="694"/>
-      <c r="AX78" s="694"/>
-      <c r="AY78" s="695"/>
+      <c r="AR78" s="627"/>
+      <c r="AS78" s="627"/>
+      <c r="AT78" s="627"/>
+      <c r="AU78" s="627"/>
+      <c r="AV78" s="627"/>
+      <c r="AW78" s="627"/>
+      <c r="AX78" s="627"/>
+      <c r="AY78" s="628"/>
       <c r="BA78" s="6"/>
       <c r="BB78" s="23"/>
       <c r="BC78" s="23"/>
@@ -16560,17 +16571,17 @@
       <c r="BH78" s="23"/>
       <c r="BI78" s="33"/>
       <c r="BJ78" s="34"/>
-      <c r="BK78" s="693" t="s">
+      <c r="BK78" s="626" t="s">
         <v>31</v>
       </c>
-      <c r="BL78" s="694"/>
-      <c r="BM78" s="694"/>
-      <c r="BN78" s="694"/>
-      <c r="BO78" s="694"/>
-      <c r="BP78" s="694"/>
-      <c r="BQ78" s="694"/>
-      <c r="BR78" s="694"/>
-      <c r="BS78" s="695"/>
+      <c r="BL78" s="627"/>
+      <c r="BM78" s="627"/>
+      <c r="BN78" s="627"/>
+      <c r="BO78" s="627"/>
+      <c r="BP78" s="627"/>
+      <c r="BQ78" s="627"/>
+      <c r="BR78" s="627"/>
+      <c r="BS78" s="628"/>
       <c r="BU78" s="6"/>
       <c r="BV78" s="23"/>
       <c r="BW78" s="23"/>
@@ -16797,26 +16808,26 @@
     <row r="82" spans="1:80" ht="33" x14ac:dyDescent="0.45">
       <c r="A82" s="33"/>
       <c r="B82" s="34"/>
-      <c r="C82" s="696"/>
-      <c r="D82" s="697"/>
-      <c r="E82" s="697"/>
-      <c r="F82" s="697"/>
-      <c r="G82" s="697"/>
-      <c r="H82" s="697"/>
-      <c r="I82" s="697"/>
-      <c r="J82" s="697"/>
-      <c r="K82" s="698"/>
+      <c r="C82" s="629"/>
+      <c r="D82" s="630"/>
+      <c r="E82" s="630"/>
+      <c r="F82" s="630"/>
+      <c r="G82" s="630"/>
+      <c r="H82" s="630"/>
+      <c r="I82" s="630"/>
+      <c r="J82" s="630"/>
+      <c r="K82" s="631"/>
       <c r="U82" s="33"/>
       <c r="V82" s="34"/>
-      <c r="W82" s="696"/>
-      <c r="X82" s="697"/>
-      <c r="Y82" s="697"/>
-      <c r="Z82" s="697"/>
-      <c r="AA82" s="697"/>
-      <c r="AB82" s="697"/>
-      <c r="AC82" s="697"/>
-      <c r="AD82" s="697"/>
-      <c r="AE82" s="698"/>
+      <c r="W82" s="629"/>
+      <c r="X82" s="630"/>
+      <c r="Y82" s="630"/>
+      <c r="Z82" s="630"/>
+      <c r="AA82" s="630"/>
+      <c r="AB82" s="630"/>
+      <c r="AC82" s="630"/>
+      <c r="AD82" s="630"/>
+      <c r="AE82" s="631"/>
       <c r="AG82" s="6"/>
       <c r="AH82" s="23"/>
       <c r="AI82" s="23"/>
@@ -16825,15 +16836,15 @@
       <c r="AN82" s="23"/>
       <c r="AO82" s="33"/>
       <c r="AP82" s="34"/>
-      <c r="AQ82" s="696"/>
-      <c r="AR82" s="697"/>
-      <c r="AS82" s="697"/>
-      <c r="AT82" s="697"/>
-      <c r="AU82" s="697"/>
-      <c r="AV82" s="697"/>
-      <c r="AW82" s="697"/>
-      <c r="AX82" s="697"/>
-      <c r="AY82" s="698"/>
+      <c r="AQ82" s="629"/>
+      <c r="AR82" s="630"/>
+      <c r="AS82" s="630"/>
+      <c r="AT82" s="630"/>
+      <c r="AU82" s="630"/>
+      <c r="AV82" s="630"/>
+      <c r="AW82" s="630"/>
+      <c r="AX82" s="630"/>
+      <c r="AY82" s="631"/>
       <c r="BA82" s="6"/>
       <c r="BB82" s="23"/>
       <c r="BC82" s="23"/>
@@ -16842,15 +16853,15 @@
       <c r="BH82" s="23"/>
       <c r="BI82" s="33"/>
       <c r="BJ82" s="34"/>
-      <c r="BK82" s="696"/>
-      <c r="BL82" s="697"/>
-      <c r="BM82" s="697"/>
-      <c r="BN82" s="697"/>
-      <c r="BO82" s="697"/>
-      <c r="BP82" s="697"/>
-      <c r="BQ82" s="697"/>
-      <c r="BR82" s="697"/>
-      <c r="BS82" s="698"/>
+      <c r="BK82" s="629"/>
+      <c r="BL82" s="630"/>
+      <c r="BM82" s="630"/>
+      <c r="BN82" s="630"/>
+      <c r="BO82" s="630"/>
+      <c r="BP82" s="630"/>
+      <c r="BQ82" s="630"/>
+      <c r="BR82" s="630"/>
+      <c r="BS82" s="631"/>
       <c r="BU82" s="6"/>
       <c r="BV82" s="23"/>
       <c r="BW82" s="23"/>
@@ -17593,117 +17604,371 @@
     </row>
   </sheetData>
   <mergeCells count="500">
-    <mergeCell ref="AG76:AJ76"/>
-    <mergeCell ref="AK76:AM76"/>
-    <mergeCell ref="C78:K78"/>
-    <mergeCell ref="C82:K82"/>
-    <mergeCell ref="W78:AE78"/>
-    <mergeCell ref="W82:AE82"/>
-    <mergeCell ref="AQ78:AY78"/>
-    <mergeCell ref="AQ82:AY82"/>
-    <mergeCell ref="BK78:BS78"/>
-    <mergeCell ref="BK82:BS82"/>
-    <mergeCell ref="M76:P76"/>
-    <mergeCell ref="Q76:S76"/>
-    <mergeCell ref="BA76:BD76"/>
-    <mergeCell ref="BE76:BG76"/>
-    <mergeCell ref="U64:U75"/>
-    <mergeCell ref="V64:V65"/>
-    <mergeCell ref="W64:W65"/>
-    <mergeCell ref="X64:X65"/>
-    <mergeCell ref="V66:V67"/>
-    <mergeCell ref="W66:W67"/>
-    <mergeCell ref="X66:X67"/>
-    <mergeCell ref="V68:V69"/>
-    <mergeCell ref="W68:W69"/>
-    <mergeCell ref="X68:X69"/>
-    <mergeCell ref="V70:V71"/>
-    <mergeCell ref="W70:W71"/>
-    <mergeCell ref="X70:X71"/>
-    <mergeCell ref="V72:V73"/>
-    <mergeCell ref="W72:W73"/>
-    <mergeCell ref="X72:X73"/>
-    <mergeCell ref="V74:V75"/>
-    <mergeCell ref="W74:W75"/>
-    <mergeCell ref="X74:X75"/>
-    <mergeCell ref="U52:U63"/>
-    <mergeCell ref="V52:V53"/>
-    <mergeCell ref="W52:W53"/>
-    <mergeCell ref="X52:X53"/>
-    <mergeCell ref="V54:V55"/>
-    <mergeCell ref="W54:W55"/>
-    <mergeCell ref="X54:X55"/>
-    <mergeCell ref="V56:V57"/>
-    <mergeCell ref="W56:W57"/>
-    <mergeCell ref="X56:X57"/>
-    <mergeCell ref="V58:V59"/>
-    <mergeCell ref="W58:W59"/>
-    <mergeCell ref="X58:X59"/>
-    <mergeCell ref="V60:V61"/>
-    <mergeCell ref="W60:W61"/>
-    <mergeCell ref="X60:X61"/>
-    <mergeCell ref="V62:V63"/>
-    <mergeCell ref="W62:W63"/>
-    <mergeCell ref="X62:X63"/>
-    <mergeCell ref="U40:U51"/>
-    <mergeCell ref="V40:V41"/>
-    <mergeCell ref="W40:W41"/>
-    <mergeCell ref="X40:X41"/>
-    <mergeCell ref="V42:V43"/>
-    <mergeCell ref="W42:W43"/>
-    <mergeCell ref="X42:X43"/>
-    <mergeCell ref="V44:V45"/>
-    <mergeCell ref="W44:W45"/>
-    <mergeCell ref="X44:X45"/>
-    <mergeCell ref="V46:V47"/>
-    <mergeCell ref="W46:W47"/>
-    <mergeCell ref="X46:X47"/>
-    <mergeCell ref="V48:V49"/>
-    <mergeCell ref="W48:W49"/>
-    <mergeCell ref="X48:X49"/>
-    <mergeCell ref="V50:V51"/>
-    <mergeCell ref="W50:W51"/>
-    <mergeCell ref="X50:X51"/>
-    <mergeCell ref="U28:U39"/>
-    <mergeCell ref="V28:V29"/>
-    <mergeCell ref="W28:W29"/>
-    <mergeCell ref="X28:X29"/>
-    <mergeCell ref="V30:V31"/>
-    <mergeCell ref="W30:W31"/>
-    <mergeCell ref="X30:X31"/>
-    <mergeCell ref="V32:V33"/>
-    <mergeCell ref="W32:W33"/>
-    <mergeCell ref="X32:X33"/>
-    <mergeCell ref="V34:V35"/>
-    <mergeCell ref="W34:W35"/>
-    <mergeCell ref="X34:X35"/>
-    <mergeCell ref="V36:V37"/>
-    <mergeCell ref="W36:W37"/>
-    <mergeCell ref="X36:X37"/>
-    <mergeCell ref="V38:V39"/>
-    <mergeCell ref="W38:W39"/>
-    <mergeCell ref="X38:X39"/>
-    <mergeCell ref="W14:W15"/>
-    <mergeCell ref="X14:X15"/>
-    <mergeCell ref="U16:U27"/>
-    <mergeCell ref="V16:V17"/>
-    <mergeCell ref="W16:W17"/>
-    <mergeCell ref="X16:X17"/>
-    <mergeCell ref="V18:V19"/>
-    <mergeCell ref="W18:W19"/>
-    <mergeCell ref="X18:X19"/>
-    <mergeCell ref="V20:V21"/>
-    <mergeCell ref="W20:W21"/>
-    <mergeCell ref="X20:X21"/>
-    <mergeCell ref="V22:V23"/>
-    <mergeCell ref="W22:W23"/>
-    <mergeCell ref="X22:X23"/>
-    <mergeCell ref="V24:V25"/>
-    <mergeCell ref="W24:W25"/>
-    <mergeCell ref="X24:X25"/>
-    <mergeCell ref="V26:V27"/>
-    <mergeCell ref="W26:W27"/>
-    <mergeCell ref="X26:X27"/>
+    <mergeCell ref="BU76:BX76"/>
+    <mergeCell ref="BY76:CA76"/>
+    <mergeCell ref="BI64:BI75"/>
+    <mergeCell ref="BJ64:BJ65"/>
+    <mergeCell ref="BK64:BK65"/>
+    <mergeCell ref="BL64:BL65"/>
+    <mergeCell ref="BJ66:BJ67"/>
+    <mergeCell ref="BK66:BK67"/>
+    <mergeCell ref="BL66:BL67"/>
+    <mergeCell ref="BJ68:BJ69"/>
+    <mergeCell ref="BK68:BK69"/>
+    <mergeCell ref="BL68:BL69"/>
+    <mergeCell ref="BJ70:BJ71"/>
+    <mergeCell ref="BK70:BK71"/>
+    <mergeCell ref="BL70:BL71"/>
+    <mergeCell ref="BJ72:BJ73"/>
+    <mergeCell ref="BK72:BK73"/>
+    <mergeCell ref="BL72:BL73"/>
+    <mergeCell ref="BJ74:BJ75"/>
+    <mergeCell ref="BK74:BK75"/>
+    <mergeCell ref="BL74:BL75"/>
+    <mergeCell ref="BI52:BI63"/>
+    <mergeCell ref="BJ52:BJ53"/>
+    <mergeCell ref="BK52:BK53"/>
+    <mergeCell ref="BL52:BL53"/>
+    <mergeCell ref="BJ54:BJ55"/>
+    <mergeCell ref="BK54:BK55"/>
+    <mergeCell ref="BL54:BL55"/>
+    <mergeCell ref="BJ56:BJ57"/>
+    <mergeCell ref="BK56:BK57"/>
+    <mergeCell ref="BL56:BL57"/>
+    <mergeCell ref="BJ58:BJ59"/>
+    <mergeCell ref="BK58:BK59"/>
+    <mergeCell ref="BL58:BL59"/>
+    <mergeCell ref="BJ60:BJ61"/>
+    <mergeCell ref="BK60:BK61"/>
+    <mergeCell ref="BL60:BL61"/>
+    <mergeCell ref="BJ62:BJ63"/>
+    <mergeCell ref="BK62:BK63"/>
+    <mergeCell ref="BL62:BL63"/>
+    <mergeCell ref="BI40:BI51"/>
+    <mergeCell ref="BJ40:BJ41"/>
+    <mergeCell ref="BK40:BK41"/>
+    <mergeCell ref="BL40:BL41"/>
+    <mergeCell ref="BJ42:BJ43"/>
+    <mergeCell ref="BK42:BK43"/>
+    <mergeCell ref="BL42:BL43"/>
+    <mergeCell ref="BJ44:BJ45"/>
+    <mergeCell ref="BK44:BK45"/>
+    <mergeCell ref="BL44:BL45"/>
+    <mergeCell ref="BJ46:BJ47"/>
+    <mergeCell ref="BK46:BK47"/>
+    <mergeCell ref="BL46:BL47"/>
+    <mergeCell ref="BJ48:BJ49"/>
+    <mergeCell ref="BK48:BK49"/>
+    <mergeCell ref="BL48:BL49"/>
+    <mergeCell ref="BJ50:BJ51"/>
+    <mergeCell ref="BK50:BK51"/>
+    <mergeCell ref="BL50:BL51"/>
+    <mergeCell ref="BI28:BI39"/>
+    <mergeCell ref="BJ28:BJ29"/>
+    <mergeCell ref="BK28:BK29"/>
+    <mergeCell ref="BL28:BL29"/>
+    <mergeCell ref="BJ30:BJ31"/>
+    <mergeCell ref="BK30:BK31"/>
+    <mergeCell ref="BL30:BL31"/>
+    <mergeCell ref="BJ32:BJ33"/>
+    <mergeCell ref="BK32:BK33"/>
+    <mergeCell ref="BL32:BL33"/>
+    <mergeCell ref="BJ34:BJ35"/>
+    <mergeCell ref="BK34:BK35"/>
+    <mergeCell ref="BL34:BL35"/>
+    <mergeCell ref="BJ36:BJ37"/>
+    <mergeCell ref="BK36:BK37"/>
+    <mergeCell ref="BL36:BL37"/>
+    <mergeCell ref="BJ38:BJ39"/>
+    <mergeCell ref="BK38:BK39"/>
+    <mergeCell ref="BL38:BL39"/>
+    <mergeCell ref="BK14:BK15"/>
+    <mergeCell ref="BL14:BL15"/>
+    <mergeCell ref="BI16:BI27"/>
+    <mergeCell ref="BJ16:BJ17"/>
+    <mergeCell ref="BK16:BK17"/>
+    <mergeCell ref="BL16:BL17"/>
+    <mergeCell ref="BJ18:BJ19"/>
+    <mergeCell ref="BK18:BK19"/>
+    <mergeCell ref="BL18:BL19"/>
+    <mergeCell ref="BJ20:BJ21"/>
+    <mergeCell ref="BK20:BK21"/>
+    <mergeCell ref="BL20:BL21"/>
+    <mergeCell ref="BJ22:BJ23"/>
+    <mergeCell ref="BK22:BK23"/>
+    <mergeCell ref="BL22:BL23"/>
+    <mergeCell ref="BJ24:BJ25"/>
+    <mergeCell ref="BK24:BK25"/>
+    <mergeCell ref="BL24:BL25"/>
+    <mergeCell ref="BJ26:BJ27"/>
+    <mergeCell ref="BK26:BK27"/>
+    <mergeCell ref="BL26:BL27"/>
+    <mergeCell ref="BJ1:BV1"/>
+    <mergeCell ref="BX1:CA1"/>
+    <mergeCell ref="BI2:BI3"/>
+    <mergeCell ref="BJ2:BM2"/>
+    <mergeCell ref="BN2:BP2"/>
+    <mergeCell ref="BS2:BU2"/>
+    <mergeCell ref="BX2:BZ2"/>
+    <mergeCell ref="BI4:BI15"/>
+    <mergeCell ref="BJ4:BJ5"/>
+    <mergeCell ref="BK4:BK5"/>
+    <mergeCell ref="BL4:BL5"/>
+    <mergeCell ref="BJ6:BJ7"/>
+    <mergeCell ref="BK6:BK7"/>
+    <mergeCell ref="BL6:BL7"/>
+    <mergeCell ref="BJ8:BJ9"/>
+    <mergeCell ref="BK8:BK9"/>
+    <mergeCell ref="BL8:BL9"/>
+    <mergeCell ref="BJ10:BJ11"/>
+    <mergeCell ref="BK10:BK11"/>
+    <mergeCell ref="BL10:BL11"/>
+    <mergeCell ref="BJ12:BJ13"/>
+    <mergeCell ref="BK12:BK13"/>
+    <mergeCell ref="BL12:BL13"/>
+    <mergeCell ref="BJ14:BJ15"/>
+    <mergeCell ref="AO64:AO75"/>
+    <mergeCell ref="AP64:AP65"/>
+    <mergeCell ref="AQ64:AQ65"/>
+    <mergeCell ref="AR64:AR65"/>
+    <mergeCell ref="AP66:AP67"/>
+    <mergeCell ref="AQ66:AQ67"/>
+    <mergeCell ref="AR66:AR67"/>
+    <mergeCell ref="AP68:AP69"/>
+    <mergeCell ref="AQ68:AQ69"/>
+    <mergeCell ref="AR68:AR69"/>
+    <mergeCell ref="AP70:AP71"/>
+    <mergeCell ref="AQ70:AQ71"/>
+    <mergeCell ref="AR70:AR71"/>
+    <mergeCell ref="AP72:AP73"/>
+    <mergeCell ref="AQ72:AQ73"/>
+    <mergeCell ref="AR72:AR73"/>
+    <mergeCell ref="AP74:AP75"/>
+    <mergeCell ref="AQ74:AQ75"/>
+    <mergeCell ref="AR74:AR75"/>
+    <mergeCell ref="AO52:AO63"/>
+    <mergeCell ref="AP52:AP53"/>
+    <mergeCell ref="AQ52:AQ53"/>
+    <mergeCell ref="AR52:AR53"/>
+    <mergeCell ref="AP54:AP55"/>
+    <mergeCell ref="AQ54:AQ55"/>
+    <mergeCell ref="AR54:AR55"/>
+    <mergeCell ref="AP56:AP57"/>
+    <mergeCell ref="AQ56:AQ57"/>
+    <mergeCell ref="AR56:AR57"/>
+    <mergeCell ref="AP58:AP59"/>
+    <mergeCell ref="AQ58:AQ59"/>
+    <mergeCell ref="AR58:AR59"/>
+    <mergeCell ref="AP60:AP61"/>
+    <mergeCell ref="AQ60:AQ61"/>
+    <mergeCell ref="AR60:AR61"/>
+    <mergeCell ref="AP62:AP63"/>
+    <mergeCell ref="AQ62:AQ63"/>
+    <mergeCell ref="AR62:AR63"/>
+    <mergeCell ref="AO40:AO51"/>
+    <mergeCell ref="AP40:AP41"/>
+    <mergeCell ref="AQ40:AQ41"/>
+    <mergeCell ref="AR40:AR41"/>
+    <mergeCell ref="AP42:AP43"/>
+    <mergeCell ref="AQ42:AQ43"/>
+    <mergeCell ref="AR42:AR43"/>
+    <mergeCell ref="AP44:AP45"/>
+    <mergeCell ref="AQ44:AQ45"/>
+    <mergeCell ref="AR44:AR45"/>
+    <mergeCell ref="AP46:AP47"/>
+    <mergeCell ref="AQ46:AQ47"/>
+    <mergeCell ref="AR46:AR47"/>
+    <mergeCell ref="AP48:AP49"/>
+    <mergeCell ref="AQ48:AQ49"/>
+    <mergeCell ref="AR48:AR49"/>
+    <mergeCell ref="AP50:AP51"/>
+    <mergeCell ref="AQ50:AQ51"/>
+    <mergeCell ref="AR50:AR51"/>
+    <mergeCell ref="AO28:AO39"/>
+    <mergeCell ref="AP28:AP29"/>
+    <mergeCell ref="AQ28:AQ29"/>
+    <mergeCell ref="AR28:AR29"/>
+    <mergeCell ref="AP30:AP31"/>
+    <mergeCell ref="AQ30:AQ31"/>
+    <mergeCell ref="AR30:AR31"/>
+    <mergeCell ref="AP32:AP33"/>
+    <mergeCell ref="AQ32:AQ33"/>
+    <mergeCell ref="AR32:AR33"/>
+    <mergeCell ref="AP34:AP35"/>
+    <mergeCell ref="AQ34:AQ35"/>
+    <mergeCell ref="AR34:AR35"/>
+    <mergeCell ref="AP36:AP37"/>
+    <mergeCell ref="AQ36:AQ37"/>
+    <mergeCell ref="AR36:AR37"/>
+    <mergeCell ref="AP38:AP39"/>
+    <mergeCell ref="AQ38:AQ39"/>
+    <mergeCell ref="AR38:AR39"/>
+    <mergeCell ref="AQ14:AQ15"/>
+    <mergeCell ref="AR14:AR15"/>
+    <mergeCell ref="AO16:AO27"/>
+    <mergeCell ref="AP16:AP17"/>
+    <mergeCell ref="AQ16:AQ17"/>
+    <mergeCell ref="AR16:AR17"/>
+    <mergeCell ref="AP18:AP19"/>
+    <mergeCell ref="AQ18:AQ19"/>
+    <mergeCell ref="AR18:AR19"/>
+    <mergeCell ref="AP20:AP21"/>
+    <mergeCell ref="AQ20:AQ21"/>
+    <mergeCell ref="AR20:AR21"/>
+    <mergeCell ref="AP22:AP23"/>
+    <mergeCell ref="AQ22:AQ23"/>
+    <mergeCell ref="AR22:AR23"/>
+    <mergeCell ref="AP24:AP25"/>
+    <mergeCell ref="AQ24:AQ25"/>
+    <mergeCell ref="AR24:AR25"/>
+    <mergeCell ref="AP26:AP27"/>
+    <mergeCell ref="AQ26:AQ27"/>
+    <mergeCell ref="AR26:AR27"/>
+    <mergeCell ref="AP1:BB1"/>
+    <mergeCell ref="BD1:BG1"/>
+    <mergeCell ref="AO2:AO3"/>
+    <mergeCell ref="AP2:AS2"/>
+    <mergeCell ref="AT2:AV2"/>
+    <mergeCell ref="AY2:BA2"/>
+    <mergeCell ref="BD2:BF2"/>
+    <mergeCell ref="AO4:AO15"/>
+    <mergeCell ref="AP4:AP5"/>
+    <mergeCell ref="AQ4:AQ5"/>
+    <mergeCell ref="AR4:AR5"/>
+    <mergeCell ref="AP6:AP7"/>
+    <mergeCell ref="AQ6:AQ7"/>
+    <mergeCell ref="AR6:AR7"/>
+    <mergeCell ref="AP8:AP9"/>
+    <mergeCell ref="AQ8:AQ9"/>
+    <mergeCell ref="AR8:AR9"/>
+    <mergeCell ref="AP10:AP11"/>
+    <mergeCell ref="AQ10:AQ11"/>
+    <mergeCell ref="AR10:AR11"/>
+    <mergeCell ref="AP12:AP13"/>
+    <mergeCell ref="AQ12:AQ13"/>
+    <mergeCell ref="AR12:AR13"/>
+    <mergeCell ref="AP14:AP15"/>
+    <mergeCell ref="B1:N1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="A4:A15"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="A16:A27"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="A28:A39"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="A40:A51"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="A52:A63"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="A64:A75"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="D74:D75"/>
     <mergeCell ref="V1:AH1"/>
     <mergeCell ref="AJ1:AM1"/>
     <mergeCell ref="U2:U3"/>
@@ -17728,371 +17993,117 @@
     <mergeCell ref="W12:W13"/>
     <mergeCell ref="X12:X13"/>
     <mergeCell ref="V14:V15"/>
-    <mergeCell ref="A64:A75"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="A52:A63"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="A40:A51"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="A28:A39"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="A16:A27"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="B1:N1"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="A4:A15"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="AP1:BB1"/>
-    <mergeCell ref="BD1:BG1"/>
-    <mergeCell ref="AO2:AO3"/>
-    <mergeCell ref="AP2:AS2"/>
-    <mergeCell ref="AT2:AV2"/>
-    <mergeCell ref="AY2:BA2"/>
-    <mergeCell ref="BD2:BF2"/>
-    <mergeCell ref="AO4:AO15"/>
-    <mergeCell ref="AP4:AP5"/>
-    <mergeCell ref="AQ4:AQ5"/>
-    <mergeCell ref="AR4:AR5"/>
-    <mergeCell ref="AP6:AP7"/>
-    <mergeCell ref="AQ6:AQ7"/>
-    <mergeCell ref="AR6:AR7"/>
-    <mergeCell ref="AP8:AP9"/>
-    <mergeCell ref="AQ8:AQ9"/>
-    <mergeCell ref="AR8:AR9"/>
-    <mergeCell ref="AP10:AP11"/>
-    <mergeCell ref="AQ10:AQ11"/>
-    <mergeCell ref="AR10:AR11"/>
-    <mergeCell ref="AP12:AP13"/>
-    <mergeCell ref="AQ12:AQ13"/>
-    <mergeCell ref="AR12:AR13"/>
-    <mergeCell ref="AP14:AP15"/>
-    <mergeCell ref="AQ14:AQ15"/>
-    <mergeCell ref="AR14:AR15"/>
-    <mergeCell ref="AO16:AO27"/>
-    <mergeCell ref="AP16:AP17"/>
-    <mergeCell ref="AQ16:AQ17"/>
-    <mergeCell ref="AR16:AR17"/>
-    <mergeCell ref="AP18:AP19"/>
-    <mergeCell ref="AQ18:AQ19"/>
-    <mergeCell ref="AR18:AR19"/>
-    <mergeCell ref="AP20:AP21"/>
-    <mergeCell ref="AQ20:AQ21"/>
-    <mergeCell ref="AR20:AR21"/>
-    <mergeCell ref="AP22:AP23"/>
-    <mergeCell ref="AQ22:AQ23"/>
-    <mergeCell ref="AR22:AR23"/>
-    <mergeCell ref="AP24:AP25"/>
-    <mergeCell ref="AQ24:AQ25"/>
-    <mergeCell ref="AR24:AR25"/>
-    <mergeCell ref="AP26:AP27"/>
-    <mergeCell ref="AQ26:AQ27"/>
-    <mergeCell ref="AR26:AR27"/>
-    <mergeCell ref="AO28:AO39"/>
-    <mergeCell ref="AP28:AP29"/>
-    <mergeCell ref="AQ28:AQ29"/>
-    <mergeCell ref="AR28:AR29"/>
-    <mergeCell ref="AP30:AP31"/>
-    <mergeCell ref="AQ30:AQ31"/>
-    <mergeCell ref="AR30:AR31"/>
-    <mergeCell ref="AP32:AP33"/>
-    <mergeCell ref="AQ32:AQ33"/>
-    <mergeCell ref="AR32:AR33"/>
-    <mergeCell ref="AP34:AP35"/>
-    <mergeCell ref="AQ34:AQ35"/>
-    <mergeCell ref="AR34:AR35"/>
-    <mergeCell ref="AP36:AP37"/>
-    <mergeCell ref="AQ36:AQ37"/>
-    <mergeCell ref="AR36:AR37"/>
-    <mergeCell ref="AP38:AP39"/>
-    <mergeCell ref="AQ38:AQ39"/>
-    <mergeCell ref="AR38:AR39"/>
-    <mergeCell ref="AO40:AO51"/>
-    <mergeCell ref="AP40:AP41"/>
-    <mergeCell ref="AQ40:AQ41"/>
-    <mergeCell ref="AR40:AR41"/>
-    <mergeCell ref="AP42:AP43"/>
-    <mergeCell ref="AQ42:AQ43"/>
-    <mergeCell ref="AR42:AR43"/>
-    <mergeCell ref="AP44:AP45"/>
-    <mergeCell ref="AQ44:AQ45"/>
-    <mergeCell ref="AR44:AR45"/>
-    <mergeCell ref="AP46:AP47"/>
-    <mergeCell ref="AQ46:AQ47"/>
-    <mergeCell ref="AR46:AR47"/>
-    <mergeCell ref="AP48:AP49"/>
-    <mergeCell ref="AQ48:AQ49"/>
-    <mergeCell ref="AR48:AR49"/>
-    <mergeCell ref="AP50:AP51"/>
-    <mergeCell ref="AQ50:AQ51"/>
-    <mergeCell ref="AR50:AR51"/>
-    <mergeCell ref="AO52:AO63"/>
-    <mergeCell ref="AP52:AP53"/>
-    <mergeCell ref="AQ52:AQ53"/>
-    <mergeCell ref="AR52:AR53"/>
-    <mergeCell ref="AP54:AP55"/>
-    <mergeCell ref="AQ54:AQ55"/>
-    <mergeCell ref="AR54:AR55"/>
-    <mergeCell ref="AP56:AP57"/>
-    <mergeCell ref="AQ56:AQ57"/>
-    <mergeCell ref="AR56:AR57"/>
-    <mergeCell ref="AP58:AP59"/>
-    <mergeCell ref="AQ58:AQ59"/>
-    <mergeCell ref="AR58:AR59"/>
-    <mergeCell ref="AP60:AP61"/>
-    <mergeCell ref="AQ60:AQ61"/>
-    <mergeCell ref="AR60:AR61"/>
-    <mergeCell ref="AP62:AP63"/>
-    <mergeCell ref="AQ62:AQ63"/>
-    <mergeCell ref="AR62:AR63"/>
-    <mergeCell ref="AO64:AO75"/>
-    <mergeCell ref="AP64:AP65"/>
-    <mergeCell ref="AQ64:AQ65"/>
-    <mergeCell ref="AR64:AR65"/>
-    <mergeCell ref="AP66:AP67"/>
-    <mergeCell ref="AQ66:AQ67"/>
-    <mergeCell ref="AR66:AR67"/>
-    <mergeCell ref="AP68:AP69"/>
-    <mergeCell ref="AQ68:AQ69"/>
-    <mergeCell ref="AR68:AR69"/>
-    <mergeCell ref="AP70:AP71"/>
-    <mergeCell ref="AQ70:AQ71"/>
-    <mergeCell ref="AR70:AR71"/>
-    <mergeCell ref="AP72:AP73"/>
-    <mergeCell ref="AQ72:AQ73"/>
-    <mergeCell ref="AR72:AR73"/>
-    <mergeCell ref="AP74:AP75"/>
-    <mergeCell ref="AQ74:AQ75"/>
-    <mergeCell ref="AR74:AR75"/>
-    <mergeCell ref="BJ1:BV1"/>
-    <mergeCell ref="BX1:CA1"/>
-    <mergeCell ref="BI2:BI3"/>
-    <mergeCell ref="BJ2:BM2"/>
-    <mergeCell ref="BN2:BP2"/>
-    <mergeCell ref="BS2:BU2"/>
-    <mergeCell ref="BX2:BZ2"/>
-    <mergeCell ref="BI4:BI15"/>
-    <mergeCell ref="BJ4:BJ5"/>
-    <mergeCell ref="BK4:BK5"/>
-    <mergeCell ref="BL4:BL5"/>
-    <mergeCell ref="BJ6:BJ7"/>
-    <mergeCell ref="BK6:BK7"/>
-    <mergeCell ref="BL6:BL7"/>
-    <mergeCell ref="BJ8:BJ9"/>
-    <mergeCell ref="BK8:BK9"/>
-    <mergeCell ref="BL8:BL9"/>
-    <mergeCell ref="BJ10:BJ11"/>
-    <mergeCell ref="BK10:BK11"/>
-    <mergeCell ref="BL10:BL11"/>
-    <mergeCell ref="BJ12:BJ13"/>
-    <mergeCell ref="BK12:BK13"/>
-    <mergeCell ref="BL12:BL13"/>
-    <mergeCell ref="BJ14:BJ15"/>
-    <mergeCell ref="BK14:BK15"/>
-    <mergeCell ref="BL14:BL15"/>
-    <mergeCell ref="BI16:BI27"/>
-    <mergeCell ref="BJ16:BJ17"/>
-    <mergeCell ref="BK16:BK17"/>
-    <mergeCell ref="BL16:BL17"/>
-    <mergeCell ref="BJ18:BJ19"/>
-    <mergeCell ref="BK18:BK19"/>
-    <mergeCell ref="BL18:BL19"/>
-    <mergeCell ref="BJ20:BJ21"/>
-    <mergeCell ref="BK20:BK21"/>
-    <mergeCell ref="BL20:BL21"/>
-    <mergeCell ref="BJ22:BJ23"/>
-    <mergeCell ref="BK22:BK23"/>
-    <mergeCell ref="BL22:BL23"/>
-    <mergeCell ref="BJ24:BJ25"/>
-    <mergeCell ref="BK24:BK25"/>
-    <mergeCell ref="BL24:BL25"/>
-    <mergeCell ref="BJ26:BJ27"/>
-    <mergeCell ref="BK26:BK27"/>
-    <mergeCell ref="BL26:BL27"/>
-    <mergeCell ref="BI28:BI39"/>
-    <mergeCell ref="BJ28:BJ29"/>
-    <mergeCell ref="BK28:BK29"/>
-    <mergeCell ref="BL28:BL29"/>
-    <mergeCell ref="BJ30:BJ31"/>
-    <mergeCell ref="BK30:BK31"/>
-    <mergeCell ref="BL30:BL31"/>
-    <mergeCell ref="BJ32:BJ33"/>
-    <mergeCell ref="BK32:BK33"/>
-    <mergeCell ref="BL32:BL33"/>
-    <mergeCell ref="BJ34:BJ35"/>
-    <mergeCell ref="BK34:BK35"/>
-    <mergeCell ref="BL34:BL35"/>
-    <mergeCell ref="BJ36:BJ37"/>
-    <mergeCell ref="BK36:BK37"/>
-    <mergeCell ref="BL36:BL37"/>
-    <mergeCell ref="BJ38:BJ39"/>
-    <mergeCell ref="BK38:BK39"/>
-    <mergeCell ref="BL38:BL39"/>
-    <mergeCell ref="BI40:BI51"/>
-    <mergeCell ref="BJ40:BJ41"/>
-    <mergeCell ref="BK40:BK41"/>
-    <mergeCell ref="BL40:BL41"/>
-    <mergeCell ref="BJ42:BJ43"/>
-    <mergeCell ref="BK42:BK43"/>
-    <mergeCell ref="BL42:BL43"/>
-    <mergeCell ref="BJ44:BJ45"/>
-    <mergeCell ref="BK44:BK45"/>
-    <mergeCell ref="BL44:BL45"/>
-    <mergeCell ref="BJ46:BJ47"/>
-    <mergeCell ref="BK46:BK47"/>
-    <mergeCell ref="BL46:BL47"/>
-    <mergeCell ref="BJ48:BJ49"/>
-    <mergeCell ref="BK48:BK49"/>
-    <mergeCell ref="BL48:BL49"/>
-    <mergeCell ref="BJ50:BJ51"/>
-    <mergeCell ref="BK50:BK51"/>
-    <mergeCell ref="BL50:BL51"/>
-    <mergeCell ref="BI52:BI63"/>
-    <mergeCell ref="BJ52:BJ53"/>
-    <mergeCell ref="BK52:BK53"/>
-    <mergeCell ref="BL52:BL53"/>
-    <mergeCell ref="BJ54:BJ55"/>
-    <mergeCell ref="BK54:BK55"/>
-    <mergeCell ref="BL54:BL55"/>
-    <mergeCell ref="BJ56:BJ57"/>
-    <mergeCell ref="BK56:BK57"/>
-    <mergeCell ref="BL56:BL57"/>
-    <mergeCell ref="BJ58:BJ59"/>
-    <mergeCell ref="BK58:BK59"/>
-    <mergeCell ref="BL58:BL59"/>
-    <mergeCell ref="BJ60:BJ61"/>
-    <mergeCell ref="BK60:BK61"/>
-    <mergeCell ref="BL60:BL61"/>
-    <mergeCell ref="BJ62:BJ63"/>
-    <mergeCell ref="BK62:BK63"/>
-    <mergeCell ref="BL62:BL63"/>
-    <mergeCell ref="BU76:BX76"/>
-    <mergeCell ref="BY76:CA76"/>
-    <mergeCell ref="BI64:BI75"/>
-    <mergeCell ref="BJ64:BJ65"/>
-    <mergeCell ref="BK64:BK65"/>
-    <mergeCell ref="BL64:BL65"/>
-    <mergeCell ref="BJ66:BJ67"/>
-    <mergeCell ref="BK66:BK67"/>
-    <mergeCell ref="BL66:BL67"/>
-    <mergeCell ref="BJ68:BJ69"/>
-    <mergeCell ref="BK68:BK69"/>
-    <mergeCell ref="BL68:BL69"/>
-    <mergeCell ref="BJ70:BJ71"/>
-    <mergeCell ref="BK70:BK71"/>
-    <mergeCell ref="BL70:BL71"/>
-    <mergeCell ref="BJ72:BJ73"/>
-    <mergeCell ref="BK72:BK73"/>
-    <mergeCell ref="BL72:BL73"/>
-    <mergeCell ref="BJ74:BJ75"/>
-    <mergeCell ref="BK74:BK75"/>
-    <mergeCell ref="BL74:BL75"/>
+    <mergeCell ref="W14:W15"/>
+    <mergeCell ref="X14:X15"/>
+    <mergeCell ref="U16:U27"/>
+    <mergeCell ref="V16:V17"/>
+    <mergeCell ref="W16:W17"/>
+    <mergeCell ref="X16:X17"/>
+    <mergeCell ref="V18:V19"/>
+    <mergeCell ref="W18:W19"/>
+    <mergeCell ref="X18:X19"/>
+    <mergeCell ref="V20:V21"/>
+    <mergeCell ref="W20:W21"/>
+    <mergeCell ref="X20:X21"/>
+    <mergeCell ref="V22:V23"/>
+    <mergeCell ref="W22:W23"/>
+    <mergeCell ref="X22:X23"/>
+    <mergeCell ref="V24:V25"/>
+    <mergeCell ref="W24:W25"/>
+    <mergeCell ref="X24:X25"/>
+    <mergeCell ref="V26:V27"/>
+    <mergeCell ref="W26:W27"/>
+    <mergeCell ref="X26:X27"/>
+    <mergeCell ref="U28:U39"/>
+    <mergeCell ref="V28:V29"/>
+    <mergeCell ref="W28:W29"/>
+    <mergeCell ref="X28:X29"/>
+    <mergeCell ref="V30:V31"/>
+    <mergeCell ref="W30:W31"/>
+    <mergeCell ref="X30:X31"/>
+    <mergeCell ref="V32:V33"/>
+    <mergeCell ref="W32:W33"/>
+    <mergeCell ref="X32:X33"/>
+    <mergeCell ref="V34:V35"/>
+    <mergeCell ref="W34:W35"/>
+    <mergeCell ref="X34:X35"/>
+    <mergeCell ref="V36:V37"/>
+    <mergeCell ref="W36:W37"/>
+    <mergeCell ref="X36:X37"/>
+    <mergeCell ref="V38:V39"/>
+    <mergeCell ref="W38:W39"/>
+    <mergeCell ref="X38:X39"/>
+    <mergeCell ref="U40:U51"/>
+    <mergeCell ref="V40:V41"/>
+    <mergeCell ref="W40:W41"/>
+    <mergeCell ref="X40:X41"/>
+    <mergeCell ref="V42:V43"/>
+    <mergeCell ref="W42:W43"/>
+    <mergeCell ref="X42:X43"/>
+    <mergeCell ref="V44:V45"/>
+    <mergeCell ref="W44:W45"/>
+    <mergeCell ref="X44:X45"/>
+    <mergeCell ref="V46:V47"/>
+    <mergeCell ref="W46:W47"/>
+    <mergeCell ref="X46:X47"/>
+    <mergeCell ref="V48:V49"/>
+    <mergeCell ref="W48:W49"/>
+    <mergeCell ref="X48:X49"/>
+    <mergeCell ref="V50:V51"/>
+    <mergeCell ref="W50:W51"/>
+    <mergeCell ref="X50:X51"/>
+    <mergeCell ref="U52:U63"/>
+    <mergeCell ref="V52:V53"/>
+    <mergeCell ref="W52:W53"/>
+    <mergeCell ref="X52:X53"/>
+    <mergeCell ref="V54:V55"/>
+    <mergeCell ref="W54:W55"/>
+    <mergeCell ref="X54:X55"/>
+    <mergeCell ref="V56:V57"/>
+    <mergeCell ref="W56:W57"/>
+    <mergeCell ref="X56:X57"/>
+    <mergeCell ref="V58:V59"/>
+    <mergeCell ref="W58:W59"/>
+    <mergeCell ref="X58:X59"/>
+    <mergeCell ref="V60:V61"/>
+    <mergeCell ref="W60:W61"/>
+    <mergeCell ref="X60:X61"/>
+    <mergeCell ref="V62:V63"/>
+    <mergeCell ref="W62:W63"/>
+    <mergeCell ref="X62:X63"/>
+    <mergeCell ref="U64:U75"/>
+    <mergeCell ref="V64:V65"/>
+    <mergeCell ref="W64:W65"/>
+    <mergeCell ref="X64:X65"/>
+    <mergeCell ref="V66:V67"/>
+    <mergeCell ref="W66:W67"/>
+    <mergeCell ref="X66:X67"/>
+    <mergeCell ref="V68:V69"/>
+    <mergeCell ref="W68:W69"/>
+    <mergeCell ref="X68:X69"/>
+    <mergeCell ref="V70:V71"/>
+    <mergeCell ref="W70:W71"/>
+    <mergeCell ref="X70:X71"/>
+    <mergeCell ref="V72:V73"/>
+    <mergeCell ref="W72:W73"/>
+    <mergeCell ref="X72:X73"/>
+    <mergeCell ref="V74:V75"/>
+    <mergeCell ref="W74:W75"/>
+    <mergeCell ref="X74:X75"/>
+    <mergeCell ref="AG76:AJ76"/>
+    <mergeCell ref="AK76:AM76"/>
+    <mergeCell ref="C78:K78"/>
+    <mergeCell ref="C82:K82"/>
+    <mergeCell ref="W78:AE78"/>
+    <mergeCell ref="W82:AE82"/>
+    <mergeCell ref="AQ78:AY78"/>
+    <mergeCell ref="AQ82:AY82"/>
+    <mergeCell ref="BK78:BS78"/>
+    <mergeCell ref="BK82:BS82"/>
+    <mergeCell ref="M76:P76"/>
+    <mergeCell ref="Q76:S76"/>
+    <mergeCell ref="BA76:BD76"/>
+    <mergeCell ref="BE76:BG76"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
